--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Politechika Śląska\OneDrive - Politechnika Śląska\Nauka\Dorobek lub w trakcie przygotowania\Artykuly\ITIIS\Kolej Metropolitalna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{62030539-EE66-4D06-82D7-534E3CF9FF6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F4E13B56-89A0-4E9E-8827-FB8DA4E60173}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A01A60D-DA1B-486A-AE21-20D2BF0DF679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL327"/>
+  <dimension ref="A1:AL362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F23" s="17"/>
       <c r="L23" s="11" t="str">
-        <f t="shared" ref="L23:L62" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
+        <f t="shared" ref="L23:L97" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
         <v>"KO", "ST-M", 1114, "(N/A)"</v>
       </c>
       <c r="M23" s="11" t="s">
@@ -3035,30 +3035,10 @@
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" t="s">
-        <v>202</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D41"/>
       <c r="L41" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bugla-Bry-1", "Sem(ST)+SBL", 1, "1", "(2)"</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>280</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
@@ -3067,30 +3047,10 @@
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D42"/>
       <c r="L42" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bugla-Bry-2", "SBL+Sem(PODG)", 1, "2", "(2)"</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>281</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
@@ -3099,30 +3059,10 @@
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>312</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D43"/>
       <c r="L43" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry", "PODG", 2, "1", "(1)"</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>314</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
@@ -3131,30 +3071,10 @@
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>312</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D44"/>
       <c r="L44" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry", "PODG", 1, "1", "(1)"</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>325</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
@@ -3163,30 +3083,10 @@
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" t="s">
-        <v>304</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D45"/>
       <c r="L45" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KO", "PODG+Sem(ST)", 2, "1", "(1)"</v>
-      </c>
-      <c r="M45" s="20" t="s">
-        <v>315</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
@@ -3195,30 +3095,10 @@
       <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>313</v>
-      </c>
-      <c r="B46" t="s">
-        <v>305</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D46"/>
       <c r="L46" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bry", "ST+Sem(PODG)", 3, "1", "(1)"</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>316</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
@@ -3227,30 +3107,10 @@
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D47"/>
       <c r="L47" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KL-1", "SBL+POGP", 1, "1", "(2)"</v>
-      </c>
-      <c r="M47" s="20" t="s">
-        <v>283</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
@@ -3259,30 +3119,10 @@
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D48"/>
       <c r="L48" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KL-2", "SBL+Sem(ST)", 1, "2", "(2)"</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>284</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
@@ -3290,31 +3130,11 @@
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D49"/>
       <c r="L49" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-Bry-1", "SBL", 2, "1", "(2)"</v>
-      </c>
-      <c r="M49" s="20" t="s">
-        <v>285</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N49" s="14"/>
       <c r="O49" s="14"/>
@@ -3322,31 +3142,11 @@
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D50"/>
       <c r="L50" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-Bry-2", "SBL+Sem(PODG)", 2, "2", "(2)"</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>286</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
@@ -3354,28 +3154,11 @@
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D51"/>
       <c r="L51" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 1, "(2)"</v>
-      </c>
-      <c r="M51" s="20" t="s">
-        <v>287</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N51" s="14"/>
       <c r="O51" s="14"/>
@@ -3383,28 +3166,11 @@
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D52"/>
       <c r="L52" s="11" t="str">
-        <f>IF(C52="",CONCATENATE($F$1,F52,$F$1,$G$1,$F$1,B52,$F$1,$G$1,G52,$G$1,$F$1,H52,$F$1,$G$1,$F$1,$B$1,I52,$C$1,$F$1),CONCATENATE($F$1,C52,$F$1,$G$1, $F$1,B52,$F$1,$G$1,D52,$G$1,$F$1,$B$1,E52,$C$1,$F$1))</f>
-        <v>"KL", "ST", 2, "(2)"</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>288</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
@@ -3412,28 +3178,11 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D53"/>
       <c r="L53" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 3, "(1)"</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>289</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="14"/>
@@ -3441,31 +3190,11 @@
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D54"/>
       <c r="L54" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>290</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
@@ -3473,31 +3202,11 @@
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="55" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D55"/>
       <c r="L55" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
-      </c>
-      <c r="M55" s="20" t="s">
-        <v>291</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
@@ -3505,31 +3214,11 @@
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="56" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D56"/>
       <c r="L56" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
-      </c>
-      <c r="M56" s="20" t="s">
-        <v>292</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
@@ -3537,31 +3226,11 @@
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D57"/>
       <c r="L57" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
-      </c>
-      <c r="M57" s="20" t="s">
-        <v>293</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
@@ -3569,28 +3238,11 @@
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D58"/>
       <c r="L58" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 1, "(1)"</v>
-      </c>
-      <c r="M58" s="20" t="s">
-        <v>294</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
@@ -3598,28 +3250,11 @@
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="59" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D59"/>
       <c r="L59" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 2, "(1)"</v>
-      </c>
-      <c r="M59" s="20" t="s">
-        <v>295</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
@@ -3627,28 +3262,11 @@
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="60" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D60"/>
       <c r="L60" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 3, "(2)"</v>
-      </c>
-      <c r="M60" s="20" t="s">
-        <v>296</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
@@ -3656,28 +3274,11 @@
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="61" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D61"/>
       <c r="L61" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 4, "(2)"</v>
-      </c>
-      <c r="M61" s="20" t="s">
-        <v>297</v>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
@@ -3685,13 +3286,11 @@
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D62"/>
       <c r="L62" s="11" t="str">
         <f t="shared" si="1"/>
         <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M62" s="20" t="s">
-        <v>184</v>
       </c>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
@@ -3699,13 +3298,11 @@
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D63"/>
       <c r="L63" s="11" t="str">
-        <f t="shared" ref="L63:L126" si="2">IF(C63="",CONCATENATE($F$1,F63,$F$1,$G$1,$F$1,B63,$F$1,$G$1,G63,$G$1,$F$1,H63,$F$1,$G$1,$F$1,$B$1,I63,$C$1,$F$1),CONCATENATE($F$1,C63,$F$1,$G$1, $F$1,B63,$F$1,$G$1,D63,$G$1,$F$1,$B$1,E63,$C$1,$F$1))</f>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
@@ -3713,13 +3310,11 @@
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D64"/>
       <c r="L64" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
@@ -3727,13 +3322,11 @@
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
     </row>
-    <row r="65" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D65"/>
       <c r="L65" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
@@ -3741,13 +3334,11 @@
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
     </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D66"/>
       <c r="L66" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M66" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
@@ -3755,13 +3346,11 @@
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D67"/>
       <c r="L67" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M67" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N67" s="14"/>
       <c r="O67" s="14"/>
@@ -3769,13 +3358,11 @@
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D68"/>
       <c r="L68" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M68" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N68" s="14"/>
       <c r="O68" s="14"/>
@@ -3783,13 +3370,11 @@
       <c r="Q68" s="12"/>
       <c r="R68" s="12"/>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D69"/>
       <c r="L69" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M69" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N69" s="14"/>
       <c r="O69" s="14"/>
@@ -3797,13 +3382,11 @@
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D70"/>
       <c r="L70" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M70" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N70" s="14"/>
       <c r="O70" s="14"/>
@@ -3811,13 +3394,11 @@
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D71"/>
       <c r="L71" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M71" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
@@ -3825,13 +3406,11 @@
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
     </row>
-    <row r="72" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D72"/>
       <c r="L72" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M72" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
@@ -3839,13 +3418,11 @@
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D73"/>
       <c r="L73" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
@@ -3853,13 +3430,11 @@
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D74"/>
       <c r="L74" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M74" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
@@ -3867,13 +3442,11 @@
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
     </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D75"/>
       <c r="L75" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M75" s="20" t="s">
-        <v>184</v>
+        <f t="shared" si="1"/>
+        <v>"", "", , "", "()"</v>
       </c>
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
@@ -3881,214 +3454,686 @@
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
     </row>
-    <row r="76" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L76" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KO-Bugla-Bry-1", "Sem(ST)+SBL", 1, "1", "(2)"</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="12:18" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L77" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KO-Bugla-Bry-2", "SBL+Sem(PODG)", 1, "2", "(2)"</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L78" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"Bry", "PODG", 2, "1", "(1)"</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L79" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"Bry", "PODG", 1, "1", "(1)"</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" t="s">
+        <v>304</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L80" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"Bry-KO", "PODG+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="12:13" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" t="s">
+        <v>305</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L81" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KO-Bry", "ST+Sem(PODG)", 3, "1", "(1)"</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="12:13" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L82" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"Bry-KL-1", "SBL+POGP", 1, "1", "(2)"</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="12:13" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L83" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"Bry-KL-2", "SBL+Sem(ST)", 1, "2", "(2)"</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="12:13" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L84" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KL-Bry-1", "SBL", 2, "1", "(2)"</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="85" spans="12:13" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L85" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KL-Bry-2", "SBL+Sem(PODG)", 2, "2", "(2)"</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="12:13" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L86" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KL", "ST", 1, "(2)"</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="12:13" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L87" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f>IF(C87="",CONCATENATE($F$1,F87,$F$1,$G$1,$F$1,B87,$F$1,$G$1,G87,$G$1,$F$1,H87,$F$1,$G$1,$F$1,$B$1,I87,$C$1,$F$1),CONCATENATE($F$1,C87,$F$1,$G$1, $F$1,B87,$F$1,$G$1,D87,$G$1,$F$1,$B$1,E87,$C$1,$F$1))</f>
+        <v>"KL", "ST", 2, "(2)"</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="12:13" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L88" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KL", "ST", 3, "(1)"</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="12:13" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L89" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="12:13" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L90" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="12:13" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" t="s">
+        <v>77</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L91" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="12:13" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L92" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="12:13" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L93" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 1, "(1)"</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="12:13" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L94" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 2, "(1)"</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="95" spans="12:13" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L95" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 3, "(2)"</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="12:13" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L96" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 4, "(2)"</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+    </row>
+    <row r="97" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L97" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M97" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+    </row>
+    <row r="98" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L98" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L98:L161" si="2">IF(C98="",CONCATENATE($F$1,F98,$F$1,$G$1,$F$1,B98,$F$1,$G$1,G98,$G$1,$F$1,H98,$F$1,$G$1,$F$1,$B$1,I98,$C$1,$F$1),CONCATENATE($F$1,C98,$F$1,$G$1, $F$1,B98,$F$1,$G$1,D98,$G$1,$F$1,$B$1,E98,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M98" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+    </row>
+    <row r="99" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L99" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4096,8 +4141,13 @@
       <c r="M99" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+    </row>
+    <row r="100" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L100" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4105,8 +4155,13 @@
       <c r="M100" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+    </row>
+    <row r="101" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L101" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4114,8 +4169,13 @@
       <c r="M101" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="102" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+    </row>
+    <row r="102" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L102" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4123,8 +4183,13 @@
       <c r="M102" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="103" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+    </row>
+    <row r="103" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L103" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4132,8 +4197,13 @@
       <c r="M103" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="104" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+    </row>
+    <row r="104" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L104" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4141,8 +4211,13 @@
       <c r="M104" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="105" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+    </row>
+    <row r="105" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L105" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4150,8 +4225,13 @@
       <c r="M105" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="106" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+    </row>
+    <row r="106" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L106" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4159,8 +4239,13 @@
       <c r="M106" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="107" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+    </row>
+    <row r="107" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L107" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4168,8 +4253,13 @@
       <c r="M107" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="108" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+    </row>
+    <row r="108" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L108" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4177,8 +4267,13 @@
       <c r="M108" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="109" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+    </row>
+    <row r="109" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L109" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4186,8 +4281,13 @@
       <c r="M109" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="110" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+    </row>
+    <row r="110" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L110" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4195,8 +4295,13 @@
       <c r="M110" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="111" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+    </row>
+    <row r="111" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L111" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4205,7 +4310,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L112" s="11" t="str">
         <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
@@ -4342,7 +4447,7 @@
     </row>
     <row r="127" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L127" s="11" t="str">
-        <f t="shared" ref="L127:L190" si="3">IF(C127="",CONCATENATE($F$1,F127,$F$1,$G$1,$F$1,B127,$F$1,$G$1,G127,$G$1,$F$1,H127,$F$1,$G$1,$F$1,$B$1,I127,$C$1,$F$1),CONCATENATE($F$1,C127,$F$1,$G$1, $F$1,B127,$F$1,$G$1,D127,$G$1,$F$1,$B$1,E127,$C$1,$F$1))</f>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M127" s="20" t="s">
@@ -4351,7 +4456,7 @@
     </row>
     <row r="128" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L128" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M128" s="20" t="s">
@@ -4360,7 +4465,7 @@
     </row>
     <row r="129" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L129" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M129" s="20" t="s">
@@ -4369,7 +4474,7 @@
     </row>
     <row r="130" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L130" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M130" s="20" t="s">
@@ -4378,7 +4483,7 @@
     </row>
     <row r="131" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L131" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M131" s="20" t="s">
@@ -4387,7 +4492,7 @@
     </row>
     <row r="132" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L132" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M132" s="20" t="s">
@@ -4396,7 +4501,7 @@
     </row>
     <row r="133" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L133" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M133" s="20" t="s">
@@ -4405,7 +4510,7 @@
     </row>
     <row r="134" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L134" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M134" s="20" t="s">
@@ -4414,7 +4519,7 @@
     </row>
     <row r="135" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L135" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M135" s="20" t="s">
@@ -4423,7 +4528,7 @@
     </row>
     <row r="136" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L136" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M136" s="20" t="s">
@@ -4432,7 +4537,7 @@
     </row>
     <row r="137" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L137" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M137" s="20" t="s">
@@ -4441,7 +4546,7 @@
     </row>
     <row r="138" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L138" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M138" s="20" t="s">
@@ -4450,7 +4555,7 @@
     </row>
     <row r="139" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L139" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M139" s="20" t="s">
@@ -4459,7 +4564,7 @@
     </row>
     <row r="140" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L140" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M140" s="20" t="s">
@@ -4468,7 +4573,7 @@
     </row>
     <row r="141" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L141" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M141" s="20" t="s">
@@ -4477,7 +4582,7 @@
     </row>
     <row r="142" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L142" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M142" s="20" t="s">
@@ -4486,7 +4591,7 @@
     </row>
     <row r="143" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L143" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M143" s="20" t="s">
@@ -4495,7 +4600,7 @@
     </row>
     <row r="144" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L144" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M144" s="20" t="s">
@@ -4504,7 +4609,7 @@
     </row>
     <row r="145" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L145" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M145" s="20" t="s">
@@ -4513,7 +4618,7 @@
     </row>
     <row r="146" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L146" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M146" s="20" t="s">
@@ -4522,7 +4627,7 @@
     </row>
     <row r="147" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L147" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M147" s="20" t="s">
@@ -4531,7 +4636,7 @@
     </row>
     <row r="148" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L148" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M148" s="20" t="s">
@@ -4540,7 +4645,7 @@
     </row>
     <row r="149" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L149" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M149" s="20" t="s">
@@ -4549,7 +4654,7 @@
     </row>
     <row r="150" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L150" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M150" s="20" t="s">
@@ -4558,7 +4663,7 @@
     </row>
     <row r="151" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L151" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M151" s="20" t="s">
@@ -4567,7 +4672,7 @@
     </row>
     <row r="152" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L152" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M152" s="20" t="s">
@@ -4576,7 +4681,7 @@
     </row>
     <row r="153" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L153" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M153" s="20" t="s">
@@ -4585,7 +4690,7 @@
     </row>
     <row r="154" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L154" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M154" s="20" t="s">
@@ -4594,7 +4699,7 @@
     </row>
     <row r="155" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L155" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M155" s="20" t="s">
@@ -4603,7 +4708,7 @@
     </row>
     <row r="156" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L156" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M156" s="20" t="s">
@@ -4612,7 +4717,7 @@
     </row>
     <row r="157" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L157" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M157" s="20" t="s">
@@ -4621,7 +4726,7 @@
     </row>
     <row r="158" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L158" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M158" s="20" t="s">
@@ -4630,7 +4735,7 @@
     </row>
     <row r="159" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L159" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M159" s="20" t="s">
@@ -4639,7 +4744,7 @@
     </row>
     <row r="160" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L160" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M160" s="20" t="s">
@@ -4648,7 +4753,7 @@
     </row>
     <row r="161" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L161" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M161" s="20" t="s">
@@ -4657,7 +4762,7 @@
     </row>
     <row r="162" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L162" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L162:L225" si="3">IF(C162="",CONCATENATE($F$1,F162,$F$1,$G$1,$F$1,B162,$F$1,$G$1,G162,$G$1,$F$1,H162,$F$1,$G$1,$F$1,$B$1,I162,$C$1,$F$1),CONCATENATE($F$1,C162,$F$1,$G$1, $F$1,B162,$F$1,$G$1,D162,$G$1,$F$1,$B$1,E162,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M162" s="20" t="s">
@@ -4918,7 +5023,7 @@
     </row>
     <row r="191" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L191" s="11" t="str">
-        <f t="shared" ref="L191:L254" si="4">IF(C191="",CONCATENATE($F$1,F191,$F$1,$G$1,$F$1,B191,$F$1,$G$1,G191,$G$1,$F$1,H191,$F$1,$G$1,$F$1,$B$1,I191,$C$1,$F$1),CONCATENATE($F$1,C191,$F$1,$G$1, $F$1,B191,$F$1,$G$1,D191,$G$1,$F$1,$B$1,E191,$C$1,$F$1))</f>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M191" s="20" t="s">
@@ -4927,7 +5032,7 @@
     </row>
     <row r="192" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L192" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M192" s="20" t="s">
@@ -4936,7 +5041,7 @@
     </row>
     <row r="193" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L193" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M193" s="20" t="s">
@@ -4945,7 +5050,7 @@
     </row>
     <row r="194" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L194" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M194" s="20" t="s">
@@ -4954,7 +5059,7 @@
     </row>
     <row r="195" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L195" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M195" s="20" t="s">
@@ -4963,7 +5068,7 @@
     </row>
     <row r="196" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L196" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M196" s="20" t="s">
@@ -4972,7 +5077,7 @@
     </row>
     <row r="197" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L197" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M197" s="20" t="s">
@@ -4981,7 +5086,7 @@
     </row>
     <row r="198" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L198" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M198" s="20" t="s">
@@ -4990,7 +5095,7 @@
     </row>
     <row r="199" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L199" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M199" s="20" t="s">
@@ -4999,7 +5104,7 @@
     </row>
     <row r="200" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L200" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M200" s="20" t="s">
@@ -5008,7 +5113,7 @@
     </row>
     <row r="201" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L201" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M201" s="20" t="s">
@@ -5017,7 +5122,7 @@
     </row>
     <row r="202" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L202" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M202" s="20" t="s">
@@ -5026,7 +5131,7 @@
     </row>
     <row r="203" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L203" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M203" s="20" t="s">
@@ -5035,7 +5140,7 @@
     </row>
     <row r="204" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L204" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M204" s="20" t="s">
@@ -5044,7 +5149,7 @@
     </row>
     <row r="205" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L205" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M205" s="20" t="s">
@@ -5053,7 +5158,7 @@
     </row>
     <row r="206" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L206" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M206" s="20" t="s">
@@ -5062,7 +5167,7 @@
     </row>
     <row r="207" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L207" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M207" s="20" t="s">
@@ -5071,7 +5176,7 @@
     </row>
     <row r="208" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L208" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M208" s="20" t="s">
@@ -5080,7 +5185,7 @@
     </row>
     <row r="209" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L209" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M209" s="20" t="s">
@@ -5089,7 +5194,7 @@
     </row>
     <row r="210" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L210" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M210" s="20" t="s">
@@ -5098,7 +5203,7 @@
     </row>
     <row r="211" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L211" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M211" s="20" t="s">
@@ -5107,7 +5212,7 @@
     </row>
     <row r="212" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L212" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M212" s="20" t="s">
@@ -5116,7 +5221,7 @@
     </row>
     <row r="213" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L213" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M213" s="20" t="s">
@@ -5125,7 +5230,7 @@
     </row>
     <row r="214" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L214" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M214" s="20" t="s">
@@ -5134,7 +5239,7 @@
     </row>
     <row r="215" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L215" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M215" s="20" t="s">
@@ -5143,7 +5248,7 @@
     </row>
     <row r="216" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L216" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M216" s="20" t="s">
@@ -5152,7 +5257,7 @@
     </row>
     <row r="217" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L217" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M217" s="20" t="s">
@@ -5161,7 +5266,7 @@
     </row>
     <row r="218" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L218" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M218" s="20" t="s">
@@ -5170,7 +5275,7 @@
     </row>
     <row r="219" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L219" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M219" s="20" t="s">
@@ -5179,7 +5284,7 @@
     </row>
     <row r="220" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L220" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M220" s="20" t="s">
@@ -5188,7 +5293,7 @@
     </row>
     <row r="221" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L221" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M221" s="20" t="s">
@@ -5197,7 +5302,7 @@
     </row>
     <row r="222" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L222" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M222" s="20" t="s">
@@ -5206,7 +5311,7 @@
     </row>
     <row r="223" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L223" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M223" s="20" t="s">
@@ -5215,7 +5320,7 @@
     </row>
     <row r="224" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L224" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M224" s="20" t="s">
@@ -5224,7 +5329,7 @@
     </row>
     <row r="225" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L225" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M225" s="20" t="s">
@@ -5233,7 +5338,7 @@
     </row>
     <row r="226" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L226" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L226:L289" si="4">IF(C226="",CONCATENATE($F$1,F226,$F$1,$G$1,$F$1,B226,$F$1,$G$1,G226,$G$1,$F$1,H226,$F$1,$G$1,$F$1,$B$1,I226,$C$1,$F$1),CONCATENATE($F$1,C226,$F$1,$G$1, $F$1,B226,$F$1,$G$1,D226,$G$1,$F$1,$B$1,E226,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M226" s="20" t="s">
@@ -5494,7 +5599,7 @@
     </row>
     <row r="255" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L255" s="11" t="str">
-        <f t="shared" ref="L255:L318" si="5">IF(C255="",CONCATENATE($F$1,F255,$F$1,$G$1,$F$1,B255,$F$1,$G$1,G255,$G$1,$F$1,H255,$F$1,$G$1,$F$1,$B$1,I255,$C$1,$F$1),CONCATENATE($F$1,C255,$F$1,$G$1, $F$1,B255,$F$1,$G$1,D255,$G$1,$F$1,$B$1,E255,$C$1,$F$1))</f>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M255" s="20" t="s">
@@ -5503,7 +5608,7 @@
     </row>
     <row r="256" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L256" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M256" s="20" t="s">
@@ -5512,7 +5617,7 @@
     </row>
     <row r="257" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L257" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M257" s="20" t="s">
@@ -5521,7 +5626,7 @@
     </row>
     <row r="258" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L258" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M258" s="20" t="s">
@@ -5530,7 +5635,7 @@
     </row>
     <row r="259" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L259" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M259" s="20" t="s">
@@ -5539,7 +5644,7 @@
     </row>
     <row r="260" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L260" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M260" s="20" t="s">
@@ -5548,7 +5653,7 @@
     </row>
     <row r="261" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L261" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M261" s="20" t="s">
@@ -5557,7 +5662,7 @@
     </row>
     <row r="262" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L262" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M262" s="20" t="s">
@@ -5566,7 +5671,7 @@
     </row>
     <row r="263" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L263" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M263" s="20" t="s">
@@ -5575,7 +5680,7 @@
     </row>
     <row r="264" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L264" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M264" s="20" t="s">
@@ -5584,7 +5689,7 @@
     </row>
     <row r="265" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L265" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M265" s="20" t="s">
@@ -5593,7 +5698,7 @@
     </row>
     <row r="266" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L266" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M266" s="20" t="s">
@@ -5602,7 +5707,7 @@
     </row>
     <row r="267" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L267" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M267" s="20" t="s">
@@ -5611,7 +5716,7 @@
     </row>
     <row r="268" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L268" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M268" s="20" t="s">
@@ -5620,7 +5725,7 @@
     </row>
     <row r="269" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L269" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M269" s="20" t="s">
@@ -5629,7 +5734,7 @@
     </row>
     <row r="270" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L270" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M270" s="20" t="s">
@@ -5638,7 +5743,7 @@
     </row>
     <row r="271" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L271" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M271" s="20" t="s">
@@ -5647,7 +5752,7 @@
     </row>
     <row r="272" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L272" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M272" s="20" t="s">
@@ -5656,7 +5761,7 @@
     </row>
     <row r="273" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L273" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M273" s="20" t="s">
@@ -5665,7 +5770,7 @@
     </row>
     <row r="274" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L274" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M274" s="20" t="s">
@@ -5674,7 +5779,7 @@
     </row>
     <row r="275" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L275" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M275" s="20" t="s">
@@ -5683,7 +5788,7 @@
     </row>
     <row r="276" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L276" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M276" s="20" t="s">
@@ -5692,7 +5797,7 @@
     </row>
     <row r="277" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L277" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M277" s="20" t="s">
@@ -5701,7 +5806,7 @@
     </row>
     <row r="278" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L278" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M278" s="20" t="s">
@@ -5710,7 +5815,7 @@
     </row>
     <row r="279" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L279" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M279" s="20" t="s">
@@ -5719,7 +5824,7 @@
     </row>
     <row r="280" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L280" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M280" s="20" t="s">
@@ -5728,7 +5833,7 @@
     </row>
     <row r="281" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L281" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M281" s="20" t="s">
@@ -5737,7 +5842,7 @@
     </row>
     <row r="282" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L282" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M282" s="20" t="s">
@@ -5746,7 +5851,7 @@
     </row>
     <row r="283" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L283" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M283" s="20" t="s">
@@ -5755,7 +5860,7 @@
     </row>
     <row r="284" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L284" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M284" s="20" t="s">
@@ -5764,7 +5869,7 @@
     </row>
     <row r="285" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L285" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M285" s="20" t="s">
@@ -5773,7 +5878,7 @@
     </row>
     <row r="286" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L286" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M286" s="20" t="s">
@@ -5782,7 +5887,7 @@
     </row>
     <row r="287" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L287" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M287" s="20" t="s">
@@ -5791,7 +5896,7 @@
     </row>
     <row r="288" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L288" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M288" s="20" t="s">
@@ -5800,7 +5905,7 @@
     </row>
     <row r="289" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L289" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M289" s="20" t="s">
@@ -5809,7 +5914,7 @@
     </row>
     <row r="290" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L290" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L290:L353" si="5">IF(C290="",CONCATENATE($F$1,F290,$F$1,$G$1,$F$1,B290,$F$1,$G$1,G290,$G$1,$F$1,H290,$F$1,$G$1,$F$1,$B$1,I290,$C$1,$F$1),CONCATENATE($F$1,C290,$F$1,$G$1, $F$1,B290,$F$1,$G$1,D290,$G$1,$F$1,$B$1,E290,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M290" s="20" t="s">
@@ -6070,7 +6175,7 @@
     </row>
     <row r="319" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L319" s="11" t="str">
-        <f t="shared" ref="L319:L327" si="6">IF(C319="",CONCATENATE($F$1,F319,$F$1,$G$1,$F$1,B319,$F$1,$G$1,G319,$G$1,$F$1,H319,$F$1,$G$1,$F$1,$B$1,I319,$C$1,$F$1),CONCATENATE($F$1,C319,$F$1,$G$1, $F$1,B319,$F$1,$G$1,D319,$G$1,$F$1,$B$1,E319,$C$1,$F$1))</f>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M319" s="20" t="s">
@@ -6079,7 +6184,7 @@
     </row>
     <row r="320" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L320" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M320" s="20" t="s">
@@ -6088,7 +6193,7 @@
     </row>
     <row r="321" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L321" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M321" s="20" t="s">
@@ -6097,7 +6202,7 @@
     </row>
     <row r="322" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L322" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M322" s="20" t="s">
@@ -6106,7 +6211,7 @@
     </row>
     <row r="323" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L323" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M323" s="20" t="s">
@@ -6115,7 +6220,7 @@
     </row>
     <row r="324" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L324" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M324" s="20" t="s">
@@ -6124,7 +6229,7 @@
     </row>
     <row r="325" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L325" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M325" s="20" t="s">
@@ -6133,7 +6238,7 @@
     </row>
     <row r="326" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L326" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M326" s="20" t="s">
@@ -6142,10 +6247,325 @@
     </row>
     <row r="327" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L327" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M327" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="328" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L328" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M328" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="329" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L329" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M329" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="330" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L330" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M330" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="331" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L331" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M331" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="332" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L332" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M332" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="333" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L333" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M333" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="334" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L334" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M334" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="335" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L335" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M335" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="336" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L336" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M336" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="337" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L337" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M337" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="338" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L338" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M338" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="339" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L339" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M339" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="340" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L340" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M340" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="341" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L341" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M341" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="342" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L342" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M342" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="343" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L343" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M343" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="344" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L344" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M344" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="345" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L345" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M345" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="346" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L346" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M346" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="347" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L347" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M347" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="348" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L348" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M348" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="349" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L349" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M349" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="350" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L350" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M350" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="351" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L351" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M351" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="352" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L352" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M352" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="353" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L353" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M353" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="354" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L354" s="11" t="str">
+        <f t="shared" ref="L354:L362" si="6">IF(C354="",CONCATENATE($F$1,F354,$F$1,$G$1,$F$1,B354,$F$1,$G$1,G354,$G$1,$F$1,H354,$F$1,$G$1,$F$1,$B$1,I354,$C$1,$F$1),CONCATENATE($F$1,C354,$F$1,$G$1, $F$1,B354,$F$1,$G$1,D354,$G$1,$F$1,$B$1,E354,$C$1,$F$1))</f>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M354" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="355" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L355" s="11" t="str">
         <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
-      <c r="M327" s="20" t="s">
+      <c r="M355" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="356" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L356" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M356" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="357" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L357" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M357" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="358" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L358" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M358" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="359" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L359" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M359" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="360" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L360" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M360" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="361" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L361" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M361" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="362" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L362" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M362" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10121,18 +10541,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10154,6 +10574,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10167,12 +10595,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A01A60D-DA1B-486A-AE21-20D2BF0DF679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681DD843-1EB6-4A4F-910D-EA4C5DEA419A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="516">
   <si>
     <t>Katowice</t>
   </si>
@@ -1006,6 +1006,576 @@
   </si>
   <si>
     <t>"Bry", "PODG", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>CB-CM_1_LK_131</t>
+  </si>
+  <si>
+    <t>CM-CB-2_LK_131</t>
+  </si>
+  <si>
+    <t>CB-CM</t>
+  </si>
+  <si>
+    <t>CM-CB</t>
+  </si>
+  <si>
+    <t>Chorzów Miasto</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>"CB-CM", "SBL+Sem(ST)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"CM", "ST", 1, "(1)"</t>
+  </si>
+  <si>
+    <t>"CM", "ST", 2, "(1)"</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>CB-RCB_2_LK_137</t>
+  </si>
+  <si>
+    <t>CB-RCB_1_LK_137</t>
+  </si>
+  <si>
+    <t>CB-RCB_3_LK_137</t>
+  </si>
+  <si>
+    <t>RCB-CB_1_LK_137</t>
+  </si>
+  <si>
+    <t>RCB-CB_2_LK_137</t>
+  </si>
+  <si>
+    <t>RCB-CB_3_LK_137</t>
+  </si>
+  <si>
+    <t>SBL+PO(Świętochłowice)</t>
+  </si>
+  <si>
+    <t>Ruda Chebzie</t>
+  </si>
+  <si>
+    <t>RCB</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>RCB-ZZ_1_LK_137</t>
+  </si>
+  <si>
+    <t>RCB-ZZ_2_LK_137</t>
+  </si>
+  <si>
+    <t>RCB-ZZ_3_LK_137</t>
+  </si>
+  <si>
+    <t>RCB-ZZ_4_LK_137</t>
+  </si>
+  <si>
+    <t>ZZ-RCB_1_LK_137</t>
+  </si>
+  <si>
+    <t>ZZ-RCB_2_LK_137</t>
+  </si>
+  <si>
+    <t>ZZ-RCB_3_LK_137</t>
+  </si>
+  <si>
+    <t>ZZ-RCB_4_LK_137</t>
+  </si>
+  <si>
+    <t>Zabrze</t>
+  </si>
+  <si>
+    <t>ZZ-GLC_1_LK_137</t>
+  </si>
+  <si>
+    <t>ZZ-GLC_2_LK_137</t>
+  </si>
+  <si>
+    <t>ZZ-GLC_3_LK_137</t>
+  </si>
+  <si>
+    <t>ZZ-GLC_4_LK_137</t>
+  </si>
+  <si>
+    <t>ZZ-GLC_5_LK_137</t>
+  </si>
+  <si>
+    <t>GLC-ZZ_1_LK_137</t>
+  </si>
+  <si>
+    <t>GLC-ZZ_2_LK_137</t>
+  </si>
+  <si>
+    <t>GLC-ZZ_3_LK_137</t>
+  </si>
+  <si>
+    <t>GLC-ZZ_4_LK_137</t>
+  </si>
+  <si>
+    <t>GLC-ZZ_5_LK_137</t>
+  </si>
+  <si>
+    <t>Gliwice</t>
+  </si>
+  <si>
+    <t>GLC</t>
+  </si>
+  <si>
+    <t>KL-MJ_1</t>
+  </si>
+  <si>
+    <t>KL-MJ_2</t>
+  </si>
+  <si>
+    <t>Sem(odstep)</t>
+  </si>
+  <si>
+    <t>KL-MJ-1</t>
+  </si>
+  <si>
+    <t>KL-MJ-2</t>
+  </si>
+  <si>
+    <t>CB-RCB-1</t>
+  </si>
+  <si>
+    <t>CB-RCB-2</t>
+  </si>
+  <si>
+    <t>CB-RCB-3</t>
+  </si>
+  <si>
+    <t>RCB-CB-1</t>
+  </si>
+  <si>
+    <t>RCB-CB-2</t>
+  </si>
+  <si>
+    <t>RCB-CB-3</t>
+  </si>
+  <si>
+    <t>RCB-ZZ-1</t>
+  </si>
+  <si>
+    <t>RCB-ZZ-2</t>
+  </si>
+  <si>
+    <t>RCB-ZZ-3</t>
+  </si>
+  <si>
+    <t>RCB-ZZ-4</t>
+  </si>
+  <si>
+    <t>ZZ-RCB-2</t>
+  </si>
+  <si>
+    <t>ZZ-RCB-1</t>
+  </si>
+  <si>
+    <t>ZZ-RCB-3</t>
+  </si>
+  <si>
+    <t>ZZ-RCB-4</t>
+  </si>
+  <si>
+    <t>ZZ-GLC-1</t>
+  </si>
+  <si>
+    <t>ZZ-GLC-2</t>
+  </si>
+  <si>
+    <t>ZZ-GLC-3</t>
+  </si>
+  <si>
+    <t>ZZ-GLC-4</t>
+  </si>
+  <si>
+    <t>ZZ-GLC-5</t>
+  </si>
+  <si>
+    <t>GLC-ZZ-1</t>
+  </si>
+  <si>
+    <t>GLC-ZZ-2</t>
+  </si>
+  <si>
+    <t>GLC-ZZ-3</t>
+  </si>
+  <si>
+    <t>GLC-ZZ-4</t>
+  </si>
+  <si>
+    <t>GLC-ZZ-5</t>
+  </si>
+  <si>
+    <t>Mikołów Jamna</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>MJ-Mi</t>
+  </si>
+  <si>
+    <t>Mikołów</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>KL-Mc_1</t>
+  </si>
+  <si>
+    <t>KL-Mc_2</t>
+  </si>
+  <si>
+    <t>KL-Mc_3</t>
+  </si>
+  <si>
+    <t>KL-Mc_4</t>
+  </si>
+  <si>
+    <t>KL-Mc_5</t>
+  </si>
+  <si>
+    <t>KL-Mc_6</t>
+  </si>
+  <si>
+    <t>Mc-KL_1</t>
+  </si>
+  <si>
+    <t>Mc-KL_2</t>
+  </si>
+  <si>
+    <t>Mc-KL_3</t>
+  </si>
+  <si>
+    <t>Mc-KL_4</t>
+  </si>
+  <si>
+    <t>Mc-KL_5</t>
+  </si>
+  <si>
+    <t>Sem(odstep)+PO(Piotrowice)</t>
+  </si>
+  <si>
+    <t>SBL+PO(Piotrowice)</t>
+  </si>
+  <si>
+    <t>SBL+PO(Podlesie)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>KL-Mc-1</t>
+  </si>
+  <si>
+    <t>KL-Mc-2</t>
+  </si>
+  <si>
+    <t>KL-Mc-3</t>
+  </si>
+  <si>
+    <t>KL-Mc-4</t>
+  </si>
+  <si>
+    <t>KL-Mc-5</t>
+  </si>
+  <si>
+    <t>KL-Mc-6</t>
+  </si>
+  <si>
+    <t>Sem(odstep)+Sem(ST)</t>
+  </si>
+  <si>
+    <t>Mc-Ty</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Tychy</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Sem(odstep)+Sem(PODG)</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Ty-Mc</t>
+  </si>
+  <si>
+    <t>Ty-Mc_LK_142</t>
+  </si>
+  <si>
+    <t>Ty-Mc_LK_139</t>
+  </si>
+  <si>
+    <t>Mc-Ty_LK_139</t>
+  </si>
+  <si>
+    <t>"CB-RCB-1", "SBL", 1, "1", "(3)"</t>
+  </si>
+  <si>
+    <t>"CB-RCB-2", "SBL+PO(Świętochłowice)", 1, "2", "(3)"</t>
+  </si>
+  <si>
+    <t>"CB-RCB-3", "SBL+Sem(ST)", 1, "3", "(3)"</t>
+  </si>
+  <si>
+    <t>"RCB-CB-1", "SBL", 2, "1", "(3)"</t>
+  </si>
+  <si>
+    <t>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</t>
+  </si>
+  <si>
+    <t>"RCB-CB-3", "SBL+Sem(ST)", 2, "3", "(3)"</t>
+  </si>
+  <si>
+    <t>"RCB", "ST", 1, "(1)"</t>
+  </si>
+  <si>
+    <t>"RCB", "ST", 2, "(1)"</t>
+  </si>
+  <si>
+    <t>"RCB-ZZ-1", "SBL", 1, "1", "(4)"</t>
+  </si>
+  <si>
+    <t>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</t>
+  </si>
+  <si>
+    <t>"RCB-ZZ-3", "SBL", 1, "3", "(4)"</t>
+  </si>
+  <si>
+    <t>"RCB-ZZ-4", "SBL+Sem(ST)", 1, "4", "(4)"</t>
+  </si>
+  <si>
+    <t>"ZZ-RCB-1", "SBL", 2, "1", "(4)"</t>
+  </si>
+  <si>
+    <t>"ZZ-RCB-2", "SBL", 2, "2", "(4)"</t>
+  </si>
+  <si>
+    <t>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</t>
+  </si>
+  <si>
+    <t>"ZZ-RCB-4", "SBL+Sem(ST)", 2, "4", "(4)"</t>
+  </si>
+  <si>
+    <t>"ZZ", "ST", 1, "(1)"</t>
+  </si>
+  <si>
+    <t>"ZZ", "ST", 2, "(1)"</t>
+  </si>
+  <si>
+    <t>"ZZ-GLC-1", "SBL", 1, "1", "(5)"</t>
+  </si>
+  <si>
+    <t>"ZZ-GLC-2", "SBL", 1, "2", "(5)"</t>
+  </si>
+  <si>
+    <t>"ZZ-GLC-3", "SBL", 1, "3", "(5)"</t>
+  </si>
+  <si>
+    <t>"ZZ-GLC-4", "SBL", 1, "4", "(5)"</t>
+  </si>
+  <si>
+    <t>"ZZ-GLC-5", "SBL+Sem(ST)", 1, "5", "(5)"</t>
+  </si>
+  <si>
+    <t>"GLC-ZZ-1", "SBL", 2, "1", "(5)"</t>
+  </si>
+  <si>
+    <t>"GLC-ZZ-2", "SBL", 2, "2", "(5)"</t>
+  </si>
+  <si>
+    <t>"GLC-ZZ-3", "SBL", 2, "3", "(5)"</t>
+  </si>
+  <si>
+    <t>"GLC-ZZ-4", "SBL", 2, "4", "(5)"</t>
+  </si>
+  <si>
+    <t>"GLC-ZZ-5", "SBL+Sem(ST)", 2, "5", "(5)"</t>
+  </si>
+  <si>
+    <t>"GLC", "", 3, "(1)"</t>
+  </si>
+  <si>
+    <t>"GLC", "", 4, "(1)"</t>
+  </si>
+  <si>
+    <t>"GLC", "", 5, "(2)"</t>
+  </si>
+  <si>
+    <t>"GLC", "", 6, "(2)"</t>
+  </si>
+  <si>
+    <t>"GLC", "", 7, "(3)"</t>
+  </si>
+  <si>
+    <t>"GLC", "", 8, "(3)"</t>
+  </si>
+  <si>
+    <t>"GLC", "", 9, "(4)"</t>
+  </si>
+  <si>
+    <t>"GLC", "", 11, "(4)"</t>
+  </si>
+  <si>
+    <t>"KL-MJ-1", "Sem(odstep)+PO(Piotrowice)", 1, "1", "(2)"</t>
+  </si>
+  <si>
+    <t>"KL-MJ-2", "Sem(odstep)", 1, "2", "(2)"</t>
+  </si>
+  <si>
+    <t>"MJ", "ST", 1, "(1)"</t>
+  </si>
+  <si>
+    <t>"MJ", "ST", 2, "(1)"</t>
+  </si>
+  <si>
+    <t>"MJ-Mi", "Sem(odstep)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"Mi", "ST", 1, "(1)"</t>
+  </si>
+  <si>
+    <t>"Mi", "ST", 2, "(1)"</t>
+  </si>
+  <si>
+    <t>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</t>
+  </si>
+  <si>
+    <t>"KL-Mc-2", "SBL", 1, "2", "(6)"</t>
+  </si>
+  <si>
+    <t>"KL-Mc-3", "SBL", 1, "3", "(6)"</t>
+  </si>
+  <si>
+    <t>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</t>
+  </si>
+  <si>
+    <t>"KL-Mc-5", "SBL", 1, "5", "(6)"</t>
+  </si>
+  <si>
+    <t>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</t>
+  </si>
+  <si>
+    <t>"Mc", "PODG", 1, "(N/A)"</t>
+  </si>
+  <si>
+    <t>"Mc", "PODG", 2, "(N/A)"</t>
+  </si>
+  <si>
+    <t>"Mc", "PODG", 3, "(N/A)"</t>
+  </si>
+  <si>
+    <t>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"Ty", "ST", 1, "(2)"</t>
+  </si>
+  <si>
+    <t>"Ty", "ST", 2, "(2)"</t>
+  </si>
+  <si>
+    <t>"Ty", "ST", 8, "(1)"</t>
+  </si>
+  <si>
+    <t>"Ty", "ST", 7, "(3)"</t>
+  </si>
+  <si>
+    <t>"Ty", "ST", 9, "(3)"</t>
+  </si>
+  <si>
+    <t>Mc-KL-1</t>
+  </si>
+  <si>
+    <t>Mc-KL-2</t>
+  </si>
+  <si>
+    <t>Mc-KL-3</t>
+  </si>
+  <si>
+    <t>Mc-KL-4</t>
+  </si>
+  <si>
+    <t>Mc-KL-5</t>
+  </si>
+  <si>
+    <t>"Mc-KL-1", "SBL", 2, "1", "(5)"</t>
+  </si>
+  <si>
+    <t>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</t>
+  </si>
+  <si>
+    <t>"Mc-KL-3", "SBL", 2, "3", "(5)"</t>
+  </si>
+  <si>
+    <t>"Mc-KL-4", "SBL", 2, "4", "(5)"</t>
+  </si>
+  <si>
+    <t>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>"Ty", "ST", 101, "(N/A)"</t>
+  </si>
+  <si>
+    <t>"Ty", "ST", 102, "(N/A)"</t>
+  </si>
+  <si>
+    <t>"Ty", "ST", 108, "(N/A)"</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1260,6 +1830,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1581,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL362"/>
+  <dimension ref="A1:AM399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,19 +2169,20 @@
     <col min="11" max="11" width="14.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="37.28515625" style="11" customWidth="1"/>
     <col min="13" max="13" width="63.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="16" customWidth="1"/>
-    <col min="16" max="18" width="21.5703125" style="11" customWidth="1"/>
-    <col min="19" max="21" width="21.5703125" style="12" customWidth="1"/>
-    <col min="22" max="22" width="23.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1"/>
-    <col min="24" max="24" width="140.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="4" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="16" customWidth="1"/>
+    <col min="17" max="19" width="21.5703125" style="11" customWidth="1"/>
+    <col min="20" max="22" width="21.5703125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="23.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" customWidth="1"/>
+    <col min="25" max="25" width="140.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>70</v>
       </c>
@@ -1631,22 +2204,22 @@
       <c r="G1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="14"/>
       <c r="O1" s="14"/>
-      <c r="P1" s="12"/>
+      <c r="P1" s="14"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
-      <c r="W1" t="s">
+      <c r="S1" s="12"/>
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1687,19 +2260,22 @@
       <c r="M2" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O2" s="14"/>
-      <c r="P2" s="12"/>
+      <c r="P2" s="14"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-      <c r="T2" s="13"/>
+      <c r="S2" s="12"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="X2" s="9" t="s">
+      <c r="W2" s="13"/>
+      <c r="Y2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -1728,17 +2304,20 @@
       <c r="M3" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="12"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
-      <c r="T3" s="13"/>
+      <c r="S3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
-      <c r="X3" s="9"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W3" s="13"/>
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -1767,17 +2346,20 @@
       <c r="M4" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="12"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-      <c r="T4" s="13"/>
+      <c r="S4" s="12"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
-      <c r="X4" s="9"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W4" s="13"/>
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1801,19 +2383,22 @@
       <c r="M5" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="12"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="W5" t="s">
+      <c r="S5" s="12"/>
+      <c r="X5" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="Y5" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1837,19 +2422,22 @@
       <c r="M6" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="12"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="W6" t="s">
+      <c r="S6" s="12"/>
+      <c r="X6" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1873,19 +2461,22 @@
       <c r="M7" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O7" s="14"/>
-      <c r="P7" s="12"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="W7" t="s">
+      <c r="S7" s="12"/>
+      <c r="X7" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="Y7" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1909,19 +2500,22 @@
       <c r="M8" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O8" s="14"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="W8" t="s">
+      <c r="S8" s="12"/>
+      <c r="X8" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="Y8" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1945,13 +2539,16 @@
       <c r="M9" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O9" s="14"/>
-      <c r="P9" s="12"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1975,13 +2572,16 @@
       <c r="M10" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O10" s="14"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2005,19 +2605,22 @@
       <c r="M11" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="N11" s="14"/>
+      <c r="N11" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="12"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="W11" t="s">
+      <c r="S11" s="12"/>
+      <c r="X11" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="Y11" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2041,19 +2644,22 @@
       <c r="M12" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="N12" s="14"/>
+      <c r="N12" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="12"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="W12" t="s">
+      <c r="S12" s="12"/>
+      <c r="X12" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="Y12" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2077,19 +2683,22 @@
       <c r="M13" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O13" s="14"/>
-      <c r="P13" s="12"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="W13" t="s">
+      <c r="S13" s="12"/>
+      <c r="X13" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="Y13" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2113,19 +2722,22 @@
       <c r="M14" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="N14" s="14"/>
+      <c r="N14" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O14" s="14"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="W14" t="s">
+      <c r="S14" s="12"/>
+      <c r="X14" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="Y14" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2149,13 +2761,16 @@
       <c r="M15" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="N15" s="14"/>
+      <c r="N15" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O15" s="14"/>
-      <c r="P15" s="12"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2179,13 +2794,16 @@
       <c r="M16" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="N16" s="14"/>
+      <c r="N16" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O16" s="14"/>
-      <c r="P16" s="12"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2209,13 +2827,16 @@
       <c r="M17" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="N17" s="14"/>
+      <c r="N17" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O17" s="14"/>
-      <c r="P17" s="12"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2239,13 +2860,16 @@
       <c r="M18" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="N18" s="14"/>
+      <c r="N18" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O18" s="14"/>
-      <c r="P18" s="12"/>
+      <c r="P18" s="14"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2893,9 @@
       <c r="M19" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="N19" s="14"/>
+      <c r="N19" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
@@ -2278,8 +2904,9 @@
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2930,9 @@
       <c r="M20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="N20" s="14"/>
+      <c r="N20" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
@@ -2312,8 +2941,9 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
-    </row>
-    <row r="21" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2972,9 @@
       <c r="M21" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="N21" s="14"/>
+      <c r="N21" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
@@ -2351,9 +2983,10 @@
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
-      <c r="X21" s="24"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W21" s="14"/>
+      <c r="Y21" s="24"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +3010,9 @@
       <c r="M22" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="N22" s="14"/>
+      <c r="N22" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -2386,8 +3021,9 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2405,13 +3041,15 @@
       </c>
       <c r="F23" s="17"/>
       <c r="L23" s="11" t="str">
-        <f t="shared" ref="L23:L97" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
+        <f t="shared" ref="L23:L134" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
         <v>"KO", "ST-M", 1114, "(N/A)"</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="N23" s="14"/>
+      <c r="N23" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
@@ -2420,8 +3058,9 @@
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2445,13 +3084,16 @@
       <c r="M24" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="N24" s="14"/>
+      <c r="N24" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="O24" s="14"/>
-      <c r="P24" s="12"/>
+      <c r="P24" s="14"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -2477,41 +3119,44 @@
       <c r="M25" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="34">
+        <v>137</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="P25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="Q25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="R25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="R25" s="14" t="s">
+      <c r="S25" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="T25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="U25" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="U25" s="14" t="s">
+      <c r="V25" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="V25" s="15" t="s">
+      <c r="W25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>14</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="Y25" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -2537,28 +3182,31 @@
       <c r="M26" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="34">
+        <v>137</v>
+      </c>
+      <c r="O26" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="O26" s="14" t="s">
+      <c r="P26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="Q26" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
-      <c r="W26" t="s">
+      <c r="V26" s="14"/>
+      <c r="X26" t="s">
         <v>14</v>
       </c>
-      <c r="X26" s="9" t="s">
+      <c r="Y26" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -2584,23 +3232,26 @@
       <c r="M27" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="34">
+        <v>137</v>
+      </c>
+      <c r="O27" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="P27" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="W27" t="s">
+      <c r="S27" s="12"/>
+      <c r="X27" t="s">
         <v>14</v>
       </c>
-      <c r="X27" s="9" t="s">
+      <c r="Y27" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -2626,41 +3277,44 @@
       <c r="M28" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="34">
+        <v>137</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="O28" s="14" t="s">
+      <c r="P28" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="Q28" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Q28" s="14" t="s">
+      <c r="R28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="R28" s="14" t="s">
+      <c r="S28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="14" t="s">
+      <c r="T28" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="T28" s="14" t="s">
+      <c r="U28" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="U28" s="14" t="s">
+      <c r="V28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="V28" s="15" t="s">
+      <c r="W28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>14</v>
       </c>
-      <c r="X28" s="9" t="s">
+      <c r="Y28" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -2686,17 +3340,20 @@
       <c r="M29" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="34">
+        <v>137</v>
+      </c>
+      <c r="O29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="P29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -2722,17 +3379,20 @@
       <c r="M30" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="N30" s="14" t="s">
-        <v>92</v>
+      <c r="N30" s="34">
+        <v>137</v>
       </c>
       <c r="O30" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="P30" s="12"/>
+      <c r="P30" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -2758,13 +3418,16 @@
       <c r="M31" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="N31" s="14"/>
+      <c r="N31" s="34">
+        <v>137</v>
+      </c>
       <c r="O31" s="14"/>
-      <c r="P31" s="12"/>
+      <c r="P31" s="14"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -2790,13 +3453,16 @@
       <c r="M32" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="N32" s="14"/>
+      <c r="N32" s="34">
+        <v>137</v>
+      </c>
       <c r="O32" s="14"/>
-      <c r="P32" s="12"/>
+      <c r="P32" s="14"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -2822,13 +3488,16 @@
       <c r="M33" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="N33" s="14"/>
+      <c r="N33" s="34">
+        <v>713</v>
+      </c>
       <c r="O33" s="14"/>
-      <c r="P33" s="12"/>
+      <c r="P33" s="14"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -2854,13 +3523,16 @@
       <c r="M34" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="N34" s="14"/>
+      <c r="N34" s="33" t="s">
+        <v>336</v>
+      </c>
       <c r="O34" s="14"/>
-      <c r="P34" s="12"/>
+      <c r="P34" s="14"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-    </row>
-    <row r="35" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2883,13 +3555,16 @@
       <c r="M35" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="N35" s="14"/>
+      <c r="N35" s="34">
+        <v>137</v>
+      </c>
       <c r="O35" s="14"/>
-      <c r="P35" s="12"/>
+      <c r="P35" s="14"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="12"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -2912,13 +3587,16 @@
       <c r="M36" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="N36" s="14"/>
+      <c r="N36" s="34">
+        <v>137</v>
+      </c>
       <c r="O36" s="14"/>
-      <c r="P36" s="12"/>
+      <c r="P36" s="14"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
-    </row>
-    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -2941,13 +3619,16 @@
       <c r="M37" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="N37" s="14"/>
+      <c r="N37" s="34">
+        <v>137</v>
+      </c>
       <c r="O37" s="14"/>
-      <c r="P37" s="12"/>
+      <c r="P37" s="14"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="12"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -2970,13 +3651,16 @@
       <c r="M38" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="14"/>
+      <c r="N38" s="34">
+        <v>137</v>
+      </c>
       <c r="O38" s="14"/>
-      <c r="P38" s="12"/>
+      <c r="P38" s="14"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="12"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -2999,13 +3683,16 @@
       <c r="M39" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="N39" s="14"/>
+      <c r="N39" s="34">
+        <v>137</v>
+      </c>
       <c r="O39" s="14"/>
-      <c r="P39" s="12"/>
+      <c r="P39" s="14"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="12"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3028,1723 +3715,3461 @@
       <c r="M40" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="N40" s="14"/>
+      <c r="N40" s="34">
+        <v>137</v>
+      </c>
       <c r="O40" s="14"/>
-      <c r="P40" s="12"/>
+      <c r="P40" s="14"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
       <c r="D41"/>
+      <c r="F41" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L41" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N41" s="14"/>
+        <v>"CB-CM", "SBL+Sem(ST)", 1, "1", "(1)"</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="N41" s="33" t="s">
+        <v>337</v>
+      </c>
       <c r="O41" s="14"/>
-      <c r="P41" s="12"/>
+      <c r="P41" s="14"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="12"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
       <c r="D42"/>
+      <c r="F42" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L42" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N42" s="14"/>
+        <v>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="N42" s="33" t="s">
+        <v>337</v>
+      </c>
       <c r="O42" s="14"/>
-      <c r="P42" s="12"/>
+      <c r="P42" s="14"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D43"/>
+      <c r="S42" s="12"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L43" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N43" s="14"/>
+        <v>"CM", "ST", 1, "(1)"</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="N43" s="33" t="s">
+        <v>337</v>
+      </c>
       <c r="O43" s="14"/>
-      <c r="P43" s="12"/>
+      <c r="P43" s="14"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D44"/>
+      <c r="S43" s="12"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L44" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N44" s="14"/>
+        <v>"CM", "ST", 2, "(1)"</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="N44" s="33" t="s">
+        <v>337</v>
+      </c>
       <c r="O44" s="14"/>
-      <c r="P44" s="12"/>
+      <c r="P44" s="14"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="12"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
       <c r="D45"/>
+      <c r="F45" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L45" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N45" s="14"/>
+        <v>"CB-RCB-1", "SBL", 1, "1", "(3)"</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="N45" s="34">
+        <v>137</v>
+      </c>
       <c r="O45" s="14"/>
-      <c r="P45" s="12"/>
+      <c r="P45" s="14"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="12"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" t="s">
+        <v>346</v>
+      </c>
       <c r="D46"/>
+      <c r="F46" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L46" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N46" s="14"/>
+        <v>"CB-RCB-2", "SBL+PO(Świętochłowice)", 1, "2", "(3)"</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="N46" s="34">
+        <v>137</v>
+      </c>
       <c r="O46" s="14"/>
-      <c r="P46" s="12"/>
+      <c r="P46" s="14"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="12"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
       <c r="D47"/>
+      <c r="F47" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L47" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N47" s="14"/>
+        <v>"CB-RCB-3", "SBL+Sem(ST)", 1, "3", "(3)"</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="N47" s="34">
+        <v>137</v>
+      </c>
       <c r="O47" s="14"/>
-      <c r="P47" s="12"/>
+      <c r="P47" s="14"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="12"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
       <c r="D48"/>
+      <c r="F48" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L48" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N48" s="14"/>
+        <v>"RCB-CB-1", "SBL", 2, "1", "(3)"</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="N48" s="34">
+        <v>137</v>
+      </c>
       <c r="O48" s="14"/>
-      <c r="P48" s="12"/>
+      <c r="P48" s="14"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
-    </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="12"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" t="s">
+        <v>346</v>
+      </c>
       <c r="D49"/>
+      <c r="F49" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L49" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N49" s="14"/>
+        <v>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="N49" s="34">
+        <v>137</v>
+      </c>
       <c r="O49" s="14"/>
-      <c r="P49" s="12"/>
+      <c r="P49" s="14"/>
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
-    </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="12"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
       <c r="D50"/>
+      <c r="F50" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L50" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N50" s="14"/>
+        <v>"RCB-CB-3", "SBL+Sem(ST)", 2, "3", "(3)"</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="N50" s="34">
+        <v>137</v>
+      </c>
       <c r="O50" s="14"/>
-      <c r="P50" s="12"/>
+      <c r="P50" s="14"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
-    </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D51"/>
+      <c r="S50" s="12"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L51" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N51" s="14"/>
+        <v>"RCB", "ST", 1, "(1)"</v>
+      </c>
+      <c r="M51" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="N51" s="34">
+        <v>137</v>
+      </c>
       <c r="O51" s="14"/>
-      <c r="P51" s="12"/>
+      <c r="P51" s="14"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
-    </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D52"/>
+      <c r="S51" s="12"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L52" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N52" s="14"/>
+        <v>"RCB", "ST", 2, "(1)"</v>
+      </c>
+      <c r="M52" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="N52" s="34">
+        <v>137</v>
+      </c>
       <c r="O52" s="14"/>
-      <c r="P52" s="12"/>
+      <c r="P52" s="14"/>
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
-    </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="12"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>350</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
       <c r="D53"/>
+      <c r="F53" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L53" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N53" s="14"/>
+        <v>"RCB-ZZ-1", "SBL", 1, "1", "(4)"</v>
+      </c>
+      <c r="M53" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="N53" s="34">
+        <v>137</v>
+      </c>
       <c r="O53" s="14"/>
-      <c r="P53" s="12"/>
+      <c r="P53" s="14"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
-    </row>
-    <row r="54" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="12"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>351</v>
+      </c>
+      <c r="B54" t="s">
+        <v>346</v>
+      </c>
       <c r="D54"/>
+      <c r="F54" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L54" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N54" s="14"/>
+        <v>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="N54" s="34">
+        <v>137</v>
+      </c>
       <c r="O54" s="14"/>
-      <c r="P54" s="12"/>
+      <c r="P54" s="14"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-    </row>
-    <row r="55" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="12"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
       <c r="D55"/>
+      <c r="F55" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L55" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N55" s="14"/>
+        <v>"RCB-ZZ-3", "SBL", 1, "3", "(4)"</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="N55" s="34">
+        <v>137</v>
+      </c>
       <c r="O55" s="14"/>
-      <c r="P55" s="12"/>
+      <c r="P55" s="14"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-    </row>
-    <row r="56" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="12"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
       <c r="D56"/>
+      <c r="F56" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L56" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N56" s="14"/>
+        <v>"RCB-ZZ-4", "SBL+Sem(ST)", 1, "4", "(4)"</v>
+      </c>
+      <c r="M56" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="N56" s="34">
+        <v>137</v>
+      </c>
       <c r="O56" s="14"/>
-      <c r="P56" s="12"/>
+      <c r="P56" s="14"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
-    </row>
-    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="12"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
       <c r="D57"/>
+      <c r="F57" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L57" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N57" s="14"/>
+        <v>"ZZ-RCB-1", "SBL", 2, "1", "(4)"</v>
+      </c>
+      <c r="M57" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="N57" s="34">
+        <v>137</v>
+      </c>
       <c r="O57" s="14"/>
-      <c r="P57" s="12"/>
+      <c r="P57" s="14"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
-    </row>
-    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="12"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
       <c r="D58"/>
+      <c r="F58" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L58" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N58" s="14"/>
+        <v>"ZZ-RCB-2", "SBL", 2, "2", "(4)"</v>
+      </c>
+      <c r="M58" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="N58" s="34">
+        <v>137</v>
+      </c>
       <c r="O58" s="14"/>
-      <c r="P58" s="12"/>
+      <c r="P58" s="14"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="12"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" t="s">
+        <v>346</v>
+      </c>
       <c r="D59"/>
+      <c r="F59" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L59" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N59" s="14"/>
+        <v>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</v>
+      </c>
+      <c r="M59" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="N59" s="34">
+        <v>137</v>
+      </c>
       <c r="O59" s="14"/>
-      <c r="P59" s="12"/>
+      <c r="P59" s="14"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
-    </row>
-    <row r="60" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="12"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
       <c r="D60"/>
+      <c r="F60" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L60" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N60" s="14"/>
+        <v>"ZZ-RCB-4", "SBL+Sem(ST)", 2, "4", "(4)"</v>
+      </c>
+      <c r="M60" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="N60" s="34">
+        <v>137</v>
+      </c>
       <c r="O60" s="14"/>
-      <c r="P60" s="12"/>
+      <c r="P60" s="14"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
-    </row>
-    <row r="61" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D61"/>
+      <c r="S60" s="12"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>358</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L61" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N61" s="14"/>
+        <v>"ZZ", "ST", 1, "(1)"</v>
+      </c>
+      <c r="M61" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="N61" s="34">
+        <v>137</v>
+      </c>
       <c r="O61" s="14"/>
-      <c r="P61" s="12"/>
+      <c r="P61" s="14"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
-    </row>
-    <row r="62" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D62"/>
+      <c r="S61" s="12"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>358</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L62" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N62" s="14"/>
+        <v>"ZZ", "ST", 2, "(1)"</v>
+      </c>
+      <c r="M62" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="N62" s="34">
+        <v>137</v>
+      </c>
       <c r="O62" s="14"/>
-      <c r="P62" s="12"/>
+      <c r="P62" s="14"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
-    </row>
-    <row r="63" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="12"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>359</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
       <c r="D63"/>
+      <c r="F63" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L63" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N63" s="14"/>
+        <v>"ZZ-GLC-1", "SBL", 1, "1", "(5)"</v>
+      </c>
+      <c r="M63" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="N63" s="34">
+        <v>137</v>
+      </c>
       <c r="O63" s="14"/>
-      <c r="P63" s="12"/>
+      <c r="P63" s="14"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
-    </row>
-    <row r="64" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="12"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
       <c r="D64"/>
+      <c r="F64" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L64" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N64" s="14"/>
+        <v>"ZZ-GLC-2", "SBL", 1, "2", "(5)"</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="N64" s="34">
+        <v>137</v>
+      </c>
       <c r="O64" s="14"/>
-      <c r="P64" s="12"/>
+      <c r="P64" s="14"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="12"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>361</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
       <c r="D65"/>
+      <c r="F65" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L65" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N65" s="14"/>
+        <v>"ZZ-GLC-3", "SBL", 1, "3", "(5)"</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="N65" s="34"/>
       <c r="O65" s="14"/>
-      <c r="P65" s="12"/>
+      <c r="P65" s="14"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="12"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>362</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
       <c r="D66"/>
+      <c r="F66" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L66" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N66" s="14"/>
+        <v>"ZZ-GLC-4", "SBL", 1, "4", "(5)"</v>
+      </c>
+      <c r="M66" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="N66" s="34"/>
       <c r="O66" s="14"/>
-      <c r="P66" s="12"/>
+      <c r="P66" s="14"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="12"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
       <c r="D67"/>
+      <c r="F67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L67" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N67" s="14"/>
+        <v>"ZZ-GLC-5", "SBL+Sem(ST)", 1, "5", "(5)"</v>
+      </c>
+      <c r="M67" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="N67" s="34"/>
       <c r="O67" s="14"/>
-      <c r="P67" s="12"/>
+      <c r="P67" s="14"/>
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="12"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>364</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
       <c r="D68"/>
+      <c r="F68" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L68" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N68" s="14"/>
+        <v>"GLC-ZZ-1", "SBL", 2, "1", "(5)"</v>
+      </c>
+      <c r="M68" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="N68" s="34"/>
       <c r="O68" s="14"/>
-      <c r="P68" s="12"/>
+      <c r="P68" s="14"/>
       <c r="Q68" s="12"/>
       <c r="R68" s="12"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="12"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>365</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
       <c r="D69"/>
+      <c r="F69" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L69" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N69" s="14"/>
+        <v>"GLC-ZZ-2", "SBL", 2, "2", "(5)"</v>
+      </c>
+      <c r="M69" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="N69" s="34"/>
       <c r="O69" s="14"/>
-      <c r="P69" s="12"/>
+      <c r="P69" s="14"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="12"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
       <c r="D70"/>
+      <c r="F70" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L70" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N70" s="14"/>
+        <v>"GLC-ZZ-3", "SBL", 2, "3", "(5)"</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="N70" s="34"/>
       <c r="O70" s="14"/>
-      <c r="P70" s="12"/>
+      <c r="P70" s="14"/>
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="12"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
       <c r="D71"/>
+      <c r="F71" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L71" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N71" s="14"/>
+        <v>"GLC-ZZ-4", "SBL", 2, "4", "(5)"</v>
+      </c>
+      <c r="M71" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="N71" s="34"/>
       <c r="O71" s="14"/>
-      <c r="P71" s="12"/>
+      <c r="P71" s="14"/>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="12"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
       <c r="D72"/>
+      <c r="F72" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L72" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N72" s="14"/>
+        <v>"GLC-ZZ-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
+      </c>
+      <c r="M72" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="N72" s="34"/>
       <c r="O72" s="14"/>
-      <c r="P72" s="12"/>
+      <c r="P72" s="14"/>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D73"/>
+      <c r="S72" s="12"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>369</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L73" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N73" s="14"/>
+        <v>"GLC", "ST", 3, "(1)"</v>
+      </c>
+      <c r="M73" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="N73" s="34"/>
       <c r="O73" s="14"/>
-      <c r="P73" s="12"/>
+      <c r="P73" s="14"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D74"/>
+      <c r="S73" s="12"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>369</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L74" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N74" s="14"/>
+        <v>"GLC", "ST", 4, "(1)"</v>
+      </c>
+      <c r="M74" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="N74" s="34"/>
       <c r="O74" s="14"/>
-      <c r="P74" s="12"/>
+      <c r="P74" s="14"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D75"/>
+      <c r="S74" s="12"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>369</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L75" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="N75" s="14"/>
+        <v>"GLC", "ST", 5, "(2)"</v>
+      </c>
+      <c r="M75" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="N75" s="34"/>
       <c r="O75" s="14"/>
-      <c r="P75" s="12"/>
+      <c r="P75" s="14"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="12"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L76" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bugla-Bry-1", "Sem(ST)+SBL", 1, "1", "(2)"</v>
+        <v>"GLC", "ST", 6, "(2)"</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="N76" s="14"/>
+        <v>471</v>
+      </c>
+      <c r="N76" s="34"/>
       <c r="O76" s="14"/>
-      <c r="P76" s="12"/>
+      <c r="P76" s="14"/>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="12"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77">
         <v>7</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>8</v>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L77" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bugla-Bry-2", "SBL+Sem(PODG)", 1, "2", "(2)"</v>
+        <v>"GLC", "ST", 7, "(3)"</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="N77" s="14"/>
+        <v>472</v>
+      </c>
+      <c r="N77" s="34"/>
       <c r="O77" s="14"/>
-      <c r="P77" s="12"/>
+      <c r="P77" s="14"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="12"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D78">
         <v>8</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>7</v>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L78" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry", "PODG", 2, "1", "(1)"</v>
+        <v>"GLC", "ST", 8, "(3)"</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="N78" s="14"/>
+        <v>473</v>
+      </c>
+      <c r="N78" s="34"/>
       <c r="O78" s="14"/>
-      <c r="P78" s="12"/>
+      <c r="P78" s="14"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="12"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L79" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry", "PODG", 1, "1", "(1)"</v>
+        <v>"GLC", "ST", 9, "(4)"</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="N79" s="14"/>
+        <v>474</v>
+      </c>
+      <c r="N79" s="34">
+        <v>137</v>
+      </c>
       <c r="O79" s="14"/>
-      <c r="P79" s="12"/>
+      <c r="P79" s="14"/>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79" s="12"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L80" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KO", "PODG+Sem(ST)", 2, "1", "(1)"</v>
+        <v>"GLC", "ST", 11, "(4)"</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="N80" s="14"/>
+        <v>475</v>
+      </c>
+      <c r="N80" s="34">
+        <v>137</v>
+      </c>
       <c r="O80" s="14"/>
-      <c r="P80" s="12"/>
+      <c r="P80" s="14"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="12"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L81" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bry", "ST+Sem(PODG)", 3, "1", "(1)"</v>
+        <v>"KO-Bugla-Bry-1", "Sem(ST)+SBL", 1, "1", "(2)"</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="N81" s="14"/>
+        <v>280</v>
+      </c>
+      <c r="N81" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O81" s="14"/>
-      <c r="P81" s="12"/>
+      <c r="P81" s="14"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="12"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L82" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KL-1", "SBL+POGP", 1, "1", "(2)"</v>
+        <v>"KO-Bugla-Bry-2", "SBL+Sem(PODG)", 1, "2", "(2)"</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="N82" s="14"/>
+        <v>281</v>
+      </c>
+      <c r="N82" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O82" s="14"/>
-      <c r="P82" s="12"/>
+      <c r="P82" s="14"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="12"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>223</v>
+        <v>312</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L83" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KL-2", "SBL+Sem(ST)", 1, "2", "(2)"</v>
+        <v>"Bry", "PODG", 2, "1", "(1)"</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="N83" s="14"/>
+        <v>314</v>
+      </c>
+      <c r="N83" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O83" s="14"/>
-      <c r="P83" s="12"/>
+      <c r="P83" s="14"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="12"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L84" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-Bry-1", "SBL", 2, "1", "(2)"</v>
+        <v>"Bry", "PODG", 1, "1", "(1)"</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="N84" s="14"/>
+        <v>325</v>
+      </c>
+      <c r="N84" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O84" s="14"/>
-      <c r="P84" s="12"/>
+      <c r="P84" s="14"/>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="12"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L85" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-Bry-2", "SBL+Sem(PODG)", 2, "2", "(2)"</v>
+        <v>"Bry-KO", "PODG+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="N85" s="14"/>
+        <v>315</v>
+      </c>
+      <c r="N85" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O85" s="14"/>
-      <c r="P85" s="12"/>
+      <c r="P85" s="14"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="12"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>8</v>
+      <c r="I86" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L86" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 1, "(2)"</v>
+        <v>"KO-Bry", "ST+Sem(PODG)", 3, "1", "(1)"</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="N86" s="14"/>
+        <v>316</v>
+      </c>
+      <c r="N86" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O86" s="14"/>
-      <c r="P86" s="12"/>
+      <c r="P86" s="14"/>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="12"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L87" s="11" t="str">
-        <f>IF(C87="",CONCATENATE($F$1,F87,$F$1,$G$1,$F$1,B87,$F$1,$G$1,G87,$G$1,$F$1,H87,$F$1,$G$1,$F$1,$B$1,I87,$C$1,$F$1),CONCATENATE($F$1,C87,$F$1,$G$1, $F$1,B87,$F$1,$G$1,D87,$G$1,$F$1,$B$1,E87,$C$1,$F$1))</f>
-        <v>"KL", "ST", 2, "(2)"</v>
+        <f t="shared" si="1"/>
+        <v>"Bry-KL-1", "SBL+POGP", 1, "1", "(2)"</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="N87" s="14"/>
+        <v>283</v>
+      </c>
+      <c r="N87" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O87" s="14"/>
-      <c r="P87" s="12"/>
+      <c r="P87" s="14"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="12"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L88" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 3, "(1)"</v>
+        <v>"Bry-KL-2", "SBL+Sem(ST)", 1, "2", "(2)"</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="N88" s="14"/>
+        <v>284</v>
+      </c>
+      <c r="N88" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O88" s="14"/>
-      <c r="P88" s="12"/>
+      <c r="P88" s="14"/>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="12"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
-      </c>
-      <c r="F89" s="31" t="s">
-        <v>114</v>
+        <v>67</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L89" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
+        <v>"KL-Bry-1", "SBL", 2, "1", "(2)"</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="N89" s="14"/>
+        <v>285</v>
+      </c>
+      <c r="N89" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O89" s="14"/>
-      <c r="P89" s="12"/>
+      <c r="P89" s="14"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="12"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L90" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
+        <v>"KL-Bry-2", "SBL+Sem(PODG)", 2, "2", "(2)"</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="N90" s="14"/>
+        <v>286</v>
+      </c>
+      <c r="N90" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O90" s="14"/>
-      <c r="P90" s="12"/>
+      <c r="P90" s="14"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="12"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
-      </c>
-      <c r="F91" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>7</v>
+      <c r="E91" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
+        <v>"KL", "ST", 1, "(2)"</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="N91" s="14"/>
+        <v>287</v>
+      </c>
+      <c r="N91" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O91" s="14"/>
-      <c r="P91" s="12"/>
+      <c r="P91" s="14"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="12"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L92" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
+        <v>"KL", "ST", 2, "(2)"</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="N92" s="14"/>
+        <v>288</v>
+      </c>
+      <c r="N92" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O92" s="14"/>
-      <c r="P92" s="12"/>
+      <c r="P92" s="14"/>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="12"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
-      <c r="C93" t="s">
-        <v>144</v>
+      <c r="C93" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L93" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 1, "(1)"</v>
+        <v>"KL", "ST", 3, "(1)"</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="N93" s="14"/>
+        <v>289</v>
+      </c>
+      <c r="N93" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="O93" s="14"/>
-      <c r="P93" s="12"/>
+      <c r="P93" s="14"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="12"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>371</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" t="s">
-        <v>144</v>
-      </c>
-      <c r="D94" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="L94" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 2, "(1)"</v>
+        <v>"KL-MJ-1", "Sem(odstep)+PO(Piotrowice)", 1, "1", "(2)"</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="N94" s="14"/>
+        <v>476</v>
+      </c>
+      <c r="N94" s="33" t="s">
+        <v>404</v>
+      </c>
       <c r="O94" s="14"/>
-      <c r="P94" s="12"/>
+      <c r="P94" s="14"/>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="12"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>372</v>
+      </c>
+      <c r="B95" t="s">
+        <v>373</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L95" s="11" t="str">
+        <f t="shared" ref="L95:L121" si="2">IF(C95="",CONCATENATE($F$1,F95,$F$1,$G$1,$F$1,B95,$F$1,$G$1,G95,$G$1,$F$1,H95,$F$1,$G$1,$F$1,$B$1,I95,$C$1,$F$1),CONCATENATE($F$1,C95,$F$1,$G$1, $F$1,B95,$F$1,$G$1,D95,$G$1,$F$1,$B$1,E95,$C$1,$F$1))</f>
+        <v>"KL-MJ-2", "Sem(odstep)", 1, "2", "(2)"</v>
+      </c>
+      <c r="M95" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="N95" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>400</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L96" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"MJ", "ST", 1, "(1)"</v>
+      </c>
+      <c r="M96" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="N96" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>400</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"MJ", "ST", 2, "(1)"</v>
+      </c>
+      <c r="M97" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="N97" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>402</v>
+      </c>
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"MJ-Mi", "Sem(odstep)", 1, "1", "(1)"</v>
+      </c>
+      <c r="M98" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="N98" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>403</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mi", "ST", 1, "(1)"</v>
+      </c>
+      <c r="M99" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="N99" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>403</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L100" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mi", "ST", 2, "(1)"</v>
+      </c>
+      <c r="M100" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="N100" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>406</v>
+      </c>
+      <c r="B101" t="s">
+        <v>418</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L101" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</v>
+      </c>
+      <c r="M101" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="N101" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>407</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L102" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"KL-Mc-2", "SBL", 1, "2", "(6)"</v>
+      </c>
+      <c r="M102" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="N102" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L103" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"KL-Mc-3", "SBL", 1, "3", "(6)"</v>
+      </c>
+      <c r="M103" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="N103" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>409</v>
+      </c>
+      <c r="B104" t="s">
+        <v>419</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L104" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</v>
+      </c>
+      <c r="M104" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="N104" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>410</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L105" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"KL-Mc-5", "SBL", 1, "5", "(6)"</v>
+      </c>
+      <c r="M105" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="N105" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L106" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</v>
+      </c>
+      <c r="M106" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="N106" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L107" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc-KL-1", "SBL", 2, "1", "(5)"</v>
+      </c>
+      <c r="M107" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="N107" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>413</v>
+      </c>
+      <c r="B108" t="s">
+        <v>419</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L108" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</v>
+      </c>
+      <c r="M108" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="N108" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>414</v>
+      </c>
+      <c r="B109" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L109" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc-KL-3", "SBL", 2, "3", "(5)"</v>
+      </c>
+      <c r="M109" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="N109" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>415</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L110" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc-KL-4", "SBL", 2, "4", "(5)"</v>
+      </c>
+      <c r="M110" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="N110" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>416</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L111" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
+      </c>
+      <c r="M111" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="N111" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>405</v>
+      </c>
+      <c r="B112" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L112" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc", "PODG", 1, "(N/A)"</v>
+      </c>
+      <c r="M112" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="N112" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>405</v>
+      </c>
+      <c r="B113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L113" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc", "PODG", 2, "(N/A)"</v>
+      </c>
+      <c r="M113" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>405</v>
+      </c>
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L114" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc", "PODG", 3, "(N/A)"</v>
+      </c>
+      <c r="M114" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>439</v>
+      </c>
+      <c r="B115" t="s">
+        <v>427</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L115" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</v>
+      </c>
+      <c r="M115" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="N115" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" t="s">
+        <v>373</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L116" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</v>
+      </c>
+      <c r="M116" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="N116" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>437</v>
+      </c>
+      <c r="B117" t="s">
+        <v>434</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L117" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</v>
+      </c>
+      <c r="M117" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="N117" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>430</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L118" s="11" t="str">
+        <f t="shared" ref="L118:L120" si="3">IF(C118="",CONCATENATE($F$1,F118,$F$1,$G$1,$F$1,B118,$F$1,$G$1,G118,$G$1,$F$1,H118,$F$1,$G$1,$F$1,$B$1,I118,$C$1,$F$1),CONCATENATE($F$1,C118,$F$1,$G$1, $F$1,B118,$F$1,$G$1,D118,$G$1,$F$1,$B$1,E118,$C$1,$F$1))</f>
+        <v>"Ty", "ST", 101, "(N/A)"</v>
+      </c>
+      <c r="M118" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="N118" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>430</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L119" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>"Ty", "ST", 102, "(N/A)"</v>
+      </c>
+      <c r="M119" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="N119" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L120" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>"Ty", "ST", 108, "(N/A)"</v>
+      </c>
+      <c r="M120" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="N120" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O120" s="14"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>430</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L121" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Ty", "ST", 1, "(2)"</v>
+      </c>
+      <c r="M121" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="N121" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O121" s="14"/>
+      <c r="P121" s="14"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>430</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L122" s="11" t="str">
+        <f t="shared" ref="L122:L125" si="4">IF(C122="",CONCATENATE($F$1,F122,$F$1,$G$1,$F$1,B122,$F$1,$G$1,G122,$G$1,$F$1,H122,$F$1,$G$1,$F$1,$B$1,I122,$C$1,$F$1),CONCATENATE($F$1,C122,$F$1,$G$1, $F$1,B122,$F$1,$G$1,D122,$G$1,$F$1,$B$1,E122,$C$1,$F$1))</f>
+        <v>"Ty", "ST", 2, "(2)"</v>
+      </c>
+      <c r="M122" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="N122" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O122" s="14"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>430</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L123" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>"Ty", "ST", 8, "(1)"</v>
+      </c>
+      <c r="M123" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="N123" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>430</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>"Ty", "ST", 7, "(3)"</v>
+      </c>
+      <c r="M124" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="N124" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O124" s="14"/>
+      <c r="P124" s="14"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>430</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>"Ty", "ST", 9, "(3)"</v>
+      </c>
+      <c r="M125" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="N125" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="O125" s="14"/>
+      <c r="P125" s="14"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" t="s">
+        <v>77</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L126" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
+      </c>
+      <c r="M126" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="N126" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" t="s">
+        <v>77</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L127" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
+      </c>
+      <c r="M127" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="N127" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L128" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
+      </c>
+      <c r="M128" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="N128" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" t="s">
+        <v>77</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L129" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
+      </c>
+      <c r="M129" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="N129" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>143</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B130" t="s">
         <v>20</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C130" t="s">
         <v>144</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L130" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 1, "(1)"</v>
+      </c>
+      <c r="M130" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="N130" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="12"/>
+      <c r="R130" s="12"/>
+      <c r="S130" s="12"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L131" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 2, "(1)"</v>
+      </c>
+      <c r="M131" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="N131" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>144</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L95" s="11" t="str">
+      <c r="L132" s="11" t="str">
         <f t="shared" si="1"/>
         <v>"KZ", "ST", 3, "(2)"</v>
       </c>
-      <c r="M95" s="20" t="s">
+      <c r="M132" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="N132" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="12"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>143</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B133" t="s">
         <v>20</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C133" t="s">
         <v>144</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L96" s="11" t="str">
+      <c r="L133" s="11" t="str">
         <f t="shared" si="1"/>
         <v>"KZ", "ST", 4, "(2)"</v>
       </c>
-      <c r="M96" s="20" t="s">
+      <c r="M133" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-    </row>
-    <row r="97" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L97" s="11" t="str">
+      <c r="N133" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L134" s="11" t="str">
         <f t="shared" si="1"/>
         <v>"", "", , "", "()"</v>
       </c>
-      <c r="M97" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-    </row>
-    <row r="98" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L98" s="11" t="str">
-        <f t="shared" ref="L98:L161" si="2">IF(C98="",CONCATENATE($F$1,F98,$F$1,$G$1,$F$1,B98,$F$1,$G$1,G98,$G$1,$F$1,H98,$F$1,$G$1,$F$1,$B$1,I98,$C$1,$F$1),CONCATENATE($F$1,C98,$F$1,$G$1, $F$1,B98,$F$1,$G$1,D98,$G$1,$F$1,$B$1,E98,$C$1,$F$1))</f>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M98" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
-    </row>
-    <row r="99" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L99" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M99" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-    </row>
-    <row r="100" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L100" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M100" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-    </row>
-    <row r="101" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L101" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M101" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="12"/>
-    </row>
-    <row r="102" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L102" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M102" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
-    </row>
-    <row r="103" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L103" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M103" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
-    </row>
-    <row r="104" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L104" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M104" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-    </row>
-    <row r="105" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L105" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M105" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N105" s="14"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-    </row>
-    <row r="106" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L106" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M106" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-    </row>
-    <row r="107" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L107" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M107" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N107" s="14"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-    </row>
-    <row r="108" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L108" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M108" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-    </row>
-    <row r="109" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L109" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M109" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-    </row>
-    <row r="110" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L110" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M110" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-    </row>
-    <row r="111" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L111" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M111" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="112" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L112" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M112" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="113" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L113" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M113" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="114" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L114" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M114" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L115" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M115" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L116" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M116" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L117" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M117" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="118" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L118" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M118" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L119" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M119" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L120" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M120" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L121" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M121" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L122" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M122" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L123" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M123" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L124" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M124" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L125" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M125" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L126" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M126" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="127" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L127" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M127" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="128" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L128" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M128" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="129" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L129" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M129" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L130" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M130" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L131" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M131" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="132" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L132" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M132" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L133" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
-      <c r="M133" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L134" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"", "", , "", "()"</v>
-      </c>
       <c r="M134" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="135" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O134" s="14"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L135" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L135:L198" si="5">IF(C135="",CONCATENATE($F$1,F135,$F$1,$G$1,$F$1,B135,$F$1,$G$1,G135,$G$1,$F$1,H135,$F$1,$G$1,$F$1,$B$1,I135,$C$1,$F$1),CONCATENATE($F$1,C135,$F$1,$G$1, $F$1,B135,$F$1,$G$1,D135,$G$1,$F$1,$B$1,E135,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M135" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="136" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O135" s="14"/>
+      <c r="P135" s="14"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L136" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M136" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="137" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L137" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M137" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="138" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L138" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M138" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="139" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L139" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M139" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="140" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L140" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M140" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="141" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L141" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M141" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="142" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O141" s="14"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L142" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M142" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="143" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O142" s="14"/>
+      <c r="P142" s="14"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L143" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M143" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="144" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O143" s="14"/>
+      <c r="P143" s="14"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L144" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M144" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="145" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O144" s="14"/>
+      <c r="P144" s="14"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+    </row>
+    <row r="145" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L145" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M145" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="146" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+    </row>
+    <row r="146" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L146" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M146" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="147" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+    </row>
+    <row r="147" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L147" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M147" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="148" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+    </row>
+    <row r="148" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L148" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M148" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="149" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L149" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M149" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L150" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M150" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L151" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M151" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L152" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M152" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L153" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M153" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L154" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M154" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L155" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M155" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="156" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L156" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M156" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L157" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M157" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="158" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L158" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M158" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="159" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L159" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M159" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L160" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M160" s="20" t="s">
@@ -4753,7 +7178,7 @@
     </row>
     <row r="161" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L161" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M161" s="20" t="s">
@@ -4762,7 +7187,7 @@
     </row>
     <row r="162" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L162" s="11" t="str">
-        <f t="shared" ref="L162:L225" si="3">IF(C162="",CONCATENATE($F$1,F162,$F$1,$G$1,$F$1,B162,$F$1,$G$1,G162,$G$1,$F$1,H162,$F$1,$G$1,$F$1,$B$1,I162,$C$1,$F$1),CONCATENATE($F$1,C162,$F$1,$G$1, $F$1,B162,$F$1,$G$1,D162,$G$1,$F$1,$B$1,E162,$C$1,$F$1))</f>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M162" s="20" t="s">
@@ -4771,7 +7196,7 @@
     </row>
     <row r="163" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L163" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M163" s="20" t="s">
@@ -4780,7 +7205,7 @@
     </row>
     <row r="164" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L164" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M164" s="20" t="s">
@@ -4789,7 +7214,7 @@
     </row>
     <row r="165" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L165" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M165" s="20" t="s">
@@ -4798,7 +7223,7 @@
     </row>
     <row r="166" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L166" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M166" s="20" t="s">
@@ -4807,7 +7232,7 @@
     </row>
     <row r="167" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L167" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M167" s="20" t="s">
@@ -4816,7 +7241,7 @@
     </row>
     <row r="168" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L168" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M168" s="20" t="s">
@@ -4825,7 +7250,7 @@
     </row>
     <row r="169" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L169" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M169" s="20" t="s">
@@ -4834,7 +7259,7 @@
     </row>
     <row r="170" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L170" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M170" s="20" t="s">
@@ -4843,7 +7268,7 @@
     </row>
     <row r="171" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L171" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M171" s="20" t="s">
@@ -4852,7 +7277,7 @@
     </row>
     <row r="172" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L172" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M172" s="20" t="s">
@@ -4861,7 +7286,7 @@
     </row>
     <row r="173" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L173" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M173" s="20" t="s">
@@ -4870,7 +7295,7 @@
     </row>
     <row r="174" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L174" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M174" s="20" t="s">
@@ -4879,7 +7304,7 @@
     </row>
     <row r="175" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L175" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M175" s="20" t="s">
@@ -4888,7 +7313,7 @@
     </row>
     <row r="176" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L176" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M176" s="20" t="s">
@@ -4897,7 +7322,7 @@
     </row>
     <row r="177" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L177" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M177" s="20" t="s">
@@ -4906,7 +7331,7 @@
     </row>
     <row r="178" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L178" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M178" s="20" t="s">
@@ -4915,7 +7340,7 @@
     </row>
     <row r="179" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L179" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M179" s="20" t="s">
@@ -4924,7 +7349,7 @@
     </row>
     <row r="180" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L180" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M180" s="20" t="s">
@@ -4933,7 +7358,7 @@
     </row>
     <row r="181" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L181" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M181" s="20" t="s">
@@ -4942,7 +7367,7 @@
     </row>
     <row r="182" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L182" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M182" s="20" t="s">
@@ -4951,7 +7376,7 @@
     </row>
     <row r="183" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L183" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M183" s="20" t="s">
@@ -4960,7 +7385,7 @@
     </row>
     <row r="184" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L184" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M184" s="20" t="s">
@@ -4969,7 +7394,7 @@
     </row>
     <row r="185" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L185" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M185" s="20" t="s">
@@ -4978,7 +7403,7 @@
     </row>
     <row r="186" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L186" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M186" s="20" t="s">
@@ -4987,7 +7412,7 @@
     </row>
     <row r="187" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L187" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M187" s="20" t="s">
@@ -4996,7 +7421,7 @@
     </row>
     <row r="188" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L188" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M188" s="20" t="s">
@@ -5005,7 +7430,7 @@
     </row>
     <row r="189" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L189" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M189" s="20" t="s">
@@ -5014,7 +7439,7 @@
     </row>
     <row r="190" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L190" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M190" s="20" t="s">
@@ -5023,7 +7448,7 @@
     </row>
     <row r="191" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L191" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M191" s="20" t="s">
@@ -5032,7 +7457,7 @@
     </row>
     <row r="192" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L192" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M192" s="20" t="s">
@@ -5041,7 +7466,7 @@
     </row>
     <row r="193" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L193" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M193" s="20" t="s">
@@ -5050,7 +7475,7 @@
     </row>
     <row r="194" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L194" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M194" s="20" t="s">
@@ -5059,7 +7484,7 @@
     </row>
     <row r="195" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L195" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M195" s="20" t="s">
@@ -5068,7 +7493,7 @@
     </row>
     <row r="196" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L196" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M196" s="20" t="s">
@@ -5077,7 +7502,7 @@
     </row>
     <row r="197" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L197" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M197" s="20" t="s">
@@ -5086,7 +7511,7 @@
     </row>
     <row r="198" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L198" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M198" s="20" t="s">
@@ -5095,7 +7520,7 @@
     </row>
     <row r="199" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L199" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L199:L262" si="6">IF(C199="",CONCATENATE($F$1,F199,$F$1,$G$1,$F$1,B199,$F$1,$G$1,G199,$G$1,$F$1,H199,$F$1,$G$1,$F$1,$B$1,I199,$C$1,$F$1),CONCATENATE($F$1,C199,$F$1,$G$1, $F$1,B199,$F$1,$G$1,D199,$G$1,$F$1,$B$1,E199,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M199" s="20" t="s">
@@ -5104,7 +7529,7 @@
     </row>
     <row r="200" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L200" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M200" s="20" t="s">
@@ -5113,7 +7538,7 @@
     </row>
     <row r="201" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L201" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M201" s="20" t="s">
@@ -5122,7 +7547,7 @@
     </row>
     <row r="202" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L202" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M202" s="20" t="s">
@@ -5131,7 +7556,7 @@
     </row>
     <row r="203" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L203" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M203" s="20" t="s">
@@ -5140,7 +7565,7 @@
     </row>
     <row r="204" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L204" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M204" s="20" t="s">
@@ -5149,7 +7574,7 @@
     </row>
     <row r="205" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L205" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M205" s="20" t="s">
@@ -5158,7 +7583,7 @@
     </row>
     <row r="206" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L206" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M206" s="20" t="s">
@@ -5167,7 +7592,7 @@
     </row>
     <row r="207" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L207" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M207" s="20" t="s">
@@ -5176,7 +7601,7 @@
     </row>
     <row r="208" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L208" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M208" s="20" t="s">
@@ -5185,7 +7610,7 @@
     </row>
     <row r="209" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L209" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M209" s="20" t="s">
@@ -5194,7 +7619,7 @@
     </row>
     <row r="210" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L210" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M210" s="20" t="s">
@@ -5203,7 +7628,7 @@
     </row>
     <row r="211" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L211" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M211" s="20" t="s">
@@ -5212,7 +7637,7 @@
     </row>
     <row r="212" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L212" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M212" s="20" t="s">
@@ -5221,7 +7646,7 @@
     </row>
     <row r="213" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L213" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M213" s="20" t="s">
@@ -5230,7 +7655,7 @@
     </row>
     <row r="214" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L214" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M214" s="20" t="s">
@@ -5239,7 +7664,7 @@
     </row>
     <row r="215" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L215" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M215" s="20" t="s">
@@ -5248,7 +7673,7 @@
     </row>
     <row r="216" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L216" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M216" s="20" t="s">
@@ -5257,7 +7682,7 @@
     </row>
     <row r="217" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L217" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M217" s="20" t="s">
@@ -5266,7 +7691,7 @@
     </row>
     <row r="218" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L218" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M218" s="20" t="s">
@@ -5275,7 +7700,7 @@
     </row>
     <row r="219" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L219" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M219" s="20" t="s">
@@ -5284,7 +7709,7 @@
     </row>
     <row r="220" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L220" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M220" s="20" t="s">
@@ -5293,7 +7718,7 @@
     </row>
     <row r="221" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L221" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M221" s="20" t="s">
@@ -5302,7 +7727,7 @@
     </row>
     <row r="222" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L222" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M222" s="20" t="s">
@@ -5311,7 +7736,7 @@
     </row>
     <row r="223" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L223" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M223" s="20" t="s">
@@ -5320,7 +7745,7 @@
     </row>
     <row r="224" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L224" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M224" s="20" t="s">
@@ -5329,7 +7754,7 @@
     </row>
     <row r="225" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L225" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M225" s="20" t="s">
@@ -5338,7 +7763,7 @@
     </row>
     <row r="226" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L226" s="11" t="str">
-        <f t="shared" ref="L226:L289" si="4">IF(C226="",CONCATENATE($F$1,F226,$F$1,$G$1,$F$1,B226,$F$1,$G$1,G226,$G$1,$F$1,H226,$F$1,$G$1,$F$1,$B$1,I226,$C$1,$F$1),CONCATENATE($F$1,C226,$F$1,$G$1, $F$1,B226,$F$1,$G$1,D226,$G$1,$F$1,$B$1,E226,$C$1,$F$1))</f>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M226" s="20" t="s">
@@ -5347,7 +7772,7 @@
     </row>
     <row r="227" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L227" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M227" s="20" t="s">
@@ -5356,7 +7781,7 @@
     </row>
     <row r="228" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L228" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M228" s="20" t="s">
@@ -5365,7 +7790,7 @@
     </row>
     <row r="229" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L229" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M229" s="20" t="s">
@@ -5374,7 +7799,7 @@
     </row>
     <row r="230" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L230" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M230" s="20" t="s">
@@ -5383,7 +7808,7 @@
     </row>
     <row r="231" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L231" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M231" s="20" t="s">
@@ -5392,7 +7817,7 @@
     </row>
     <row r="232" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L232" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M232" s="20" t="s">
@@ -5401,7 +7826,7 @@
     </row>
     <row r="233" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L233" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M233" s="20" t="s">
@@ -5410,7 +7835,7 @@
     </row>
     <row r="234" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L234" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M234" s="20" t="s">
@@ -5419,7 +7844,7 @@
     </row>
     <row r="235" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L235" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M235" s="20" t="s">
@@ -5428,7 +7853,7 @@
     </row>
     <row r="236" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L236" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M236" s="20" t="s">
@@ -5437,7 +7862,7 @@
     </row>
     <row r="237" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L237" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M237" s="20" t="s">
@@ -5446,7 +7871,7 @@
     </row>
     <row r="238" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L238" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M238" s="20" t="s">
@@ -5455,7 +7880,7 @@
     </row>
     <row r="239" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L239" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M239" s="20" t="s">
@@ -5464,7 +7889,7 @@
     </row>
     <row r="240" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L240" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M240" s="20" t="s">
@@ -5473,7 +7898,7 @@
     </row>
     <row r="241" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L241" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M241" s="20" t="s">
@@ -5482,7 +7907,7 @@
     </row>
     <row r="242" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L242" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M242" s="20" t="s">
@@ -5491,7 +7916,7 @@
     </row>
     <row r="243" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L243" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M243" s="20" t="s">
@@ -5500,7 +7925,7 @@
     </row>
     <row r="244" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L244" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M244" s="20" t="s">
@@ -5509,7 +7934,7 @@
     </row>
     <row r="245" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L245" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M245" s="20" t="s">
@@ -5518,7 +7943,7 @@
     </row>
     <row r="246" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L246" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M246" s="20" t="s">
@@ -5527,7 +7952,7 @@
     </row>
     <row r="247" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L247" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M247" s="20" t="s">
@@ -5536,7 +7961,7 @@
     </row>
     <row r="248" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L248" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M248" s="20" t="s">
@@ -5545,7 +7970,7 @@
     </row>
     <row r="249" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L249" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M249" s="20" t="s">
@@ -5554,7 +7979,7 @@
     </row>
     <row r="250" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L250" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M250" s="20" t="s">
@@ -5563,7 +7988,7 @@
     </row>
     <row r="251" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L251" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M251" s="20" t="s">
@@ -5572,7 +7997,7 @@
     </row>
     <row r="252" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L252" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M252" s="20" t="s">
@@ -5581,7 +8006,7 @@
     </row>
     <row r="253" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L253" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M253" s="20" t="s">
@@ -5590,7 +8015,7 @@
     </row>
     <row r="254" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L254" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M254" s="20" t="s">
@@ -5599,7 +8024,7 @@
     </row>
     <row r="255" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L255" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M255" s="20" t="s">
@@ -5608,7 +8033,7 @@
     </row>
     <row r="256" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L256" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M256" s="20" t="s">
@@ -5617,7 +8042,7 @@
     </row>
     <row r="257" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L257" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M257" s="20" t="s">
@@ -5626,7 +8051,7 @@
     </row>
     <row r="258" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L258" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M258" s="20" t="s">
@@ -5635,7 +8060,7 @@
     </row>
     <row r="259" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L259" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M259" s="20" t="s">
@@ -5644,7 +8069,7 @@
     </row>
     <row r="260" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L260" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M260" s="20" t="s">
@@ -5653,7 +8078,7 @@
     </row>
     <row r="261" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L261" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M261" s="20" t="s">
@@ -5662,7 +8087,7 @@
     </row>
     <row r="262" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L262" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M262" s="20" t="s">
@@ -5671,7 +8096,7 @@
     </row>
     <row r="263" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L263" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L263:L326" si="7">IF(C263="",CONCATENATE($F$1,F263,$F$1,$G$1,$F$1,B263,$F$1,$G$1,G263,$G$1,$F$1,H263,$F$1,$G$1,$F$1,$B$1,I263,$C$1,$F$1),CONCATENATE($F$1,C263,$F$1,$G$1, $F$1,B263,$F$1,$G$1,D263,$G$1,$F$1,$B$1,E263,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M263" s="20" t="s">
@@ -5680,7 +8105,7 @@
     </row>
     <row r="264" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L264" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M264" s="20" t="s">
@@ -5689,7 +8114,7 @@
     </row>
     <row r="265" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L265" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M265" s="20" t="s">
@@ -5698,7 +8123,7 @@
     </row>
     <row r="266" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L266" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M266" s="20" t="s">
@@ -5707,7 +8132,7 @@
     </row>
     <row r="267" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L267" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M267" s="20" t="s">
@@ -5716,7 +8141,7 @@
     </row>
     <row r="268" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L268" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M268" s="20" t="s">
@@ -5725,7 +8150,7 @@
     </row>
     <row r="269" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L269" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M269" s="20" t="s">
@@ -5734,7 +8159,7 @@
     </row>
     <row r="270" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L270" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M270" s="20" t="s">
@@ -5743,7 +8168,7 @@
     </row>
     <row r="271" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L271" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M271" s="20" t="s">
@@ -5752,7 +8177,7 @@
     </row>
     <row r="272" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L272" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M272" s="20" t="s">
@@ -5761,7 +8186,7 @@
     </row>
     <row r="273" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L273" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M273" s="20" t="s">
@@ -5770,7 +8195,7 @@
     </row>
     <row r="274" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L274" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M274" s="20" t="s">
@@ -5779,7 +8204,7 @@
     </row>
     <row r="275" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L275" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M275" s="20" t="s">
@@ -5788,7 +8213,7 @@
     </row>
     <row r="276" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L276" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M276" s="20" t="s">
@@ -5797,7 +8222,7 @@
     </row>
     <row r="277" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L277" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M277" s="20" t="s">
@@ -5806,7 +8231,7 @@
     </row>
     <row r="278" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L278" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M278" s="20" t="s">
@@ -5815,7 +8240,7 @@
     </row>
     <row r="279" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L279" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M279" s="20" t="s">
@@ -5824,7 +8249,7 @@
     </row>
     <row r="280" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L280" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M280" s="20" t="s">
@@ -5833,7 +8258,7 @@
     </row>
     <row r="281" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L281" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M281" s="20" t="s">
@@ -5842,7 +8267,7 @@
     </row>
     <row r="282" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L282" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M282" s="20" t="s">
@@ -5851,7 +8276,7 @@
     </row>
     <row r="283" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L283" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M283" s="20" t="s">
@@ -5860,7 +8285,7 @@
     </row>
     <row r="284" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L284" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M284" s="20" t="s">
@@ -5869,7 +8294,7 @@
     </row>
     <row r="285" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L285" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M285" s="20" t="s">
@@ -5878,7 +8303,7 @@
     </row>
     <row r="286" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L286" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M286" s="20" t="s">
@@ -5887,7 +8312,7 @@
     </row>
     <row r="287" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L287" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M287" s="20" t="s">
@@ -5896,7 +8321,7 @@
     </row>
     <row r="288" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L288" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M288" s="20" t="s">
@@ -5905,7 +8330,7 @@
     </row>
     <row r="289" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L289" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M289" s="20" t="s">
@@ -5914,7 +8339,7 @@
     </row>
     <row r="290" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L290" s="11" t="str">
-        <f t="shared" ref="L290:L353" si="5">IF(C290="",CONCATENATE($F$1,F290,$F$1,$G$1,$F$1,B290,$F$1,$G$1,G290,$G$1,$F$1,H290,$F$1,$G$1,$F$1,$B$1,I290,$C$1,$F$1),CONCATENATE($F$1,C290,$F$1,$G$1, $F$1,B290,$F$1,$G$1,D290,$G$1,$F$1,$B$1,E290,$C$1,$F$1))</f>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M290" s="20" t="s">
@@ -5923,7 +8348,7 @@
     </row>
     <row r="291" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L291" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M291" s="20" t="s">
@@ -5932,7 +8357,7 @@
     </row>
     <row r="292" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L292" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M292" s="20" t="s">
@@ -5941,7 +8366,7 @@
     </row>
     <row r="293" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L293" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M293" s="20" t="s">
@@ -5950,7 +8375,7 @@
     </row>
     <row r="294" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L294" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M294" s="20" t="s">
@@ -5959,7 +8384,7 @@
     </row>
     <row r="295" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L295" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M295" s="20" t="s">
@@ -5968,7 +8393,7 @@
     </row>
     <row r="296" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L296" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M296" s="20" t="s">
@@ -5977,7 +8402,7 @@
     </row>
     <row r="297" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L297" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M297" s="20" t="s">
@@ -5986,7 +8411,7 @@
     </row>
     <row r="298" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L298" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M298" s="20" t="s">
@@ -5995,7 +8420,7 @@
     </row>
     <row r="299" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L299" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M299" s="20" t="s">
@@ -6004,7 +8429,7 @@
     </row>
     <row r="300" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L300" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M300" s="20" t="s">
@@ -6013,7 +8438,7 @@
     </row>
     <row r="301" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L301" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M301" s="20" t="s">
@@ -6022,7 +8447,7 @@
     </row>
     <row r="302" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L302" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M302" s="20" t="s">
@@ -6031,7 +8456,7 @@
     </row>
     <row r="303" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L303" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M303" s="20" t="s">
@@ -6040,7 +8465,7 @@
     </row>
     <row r="304" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L304" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M304" s="20" t="s">
@@ -6049,7 +8474,7 @@
     </row>
     <row r="305" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L305" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M305" s="20" t="s">
@@ -6058,7 +8483,7 @@
     </row>
     <row r="306" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L306" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M306" s="20" t="s">
@@ -6067,7 +8492,7 @@
     </row>
     <row r="307" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L307" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M307" s="20" t="s">
@@ -6076,7 +8501,7 @@
     </row>
     <row r="308" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L308" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M308" s="20" t="s">
@@ -6085,7 +8510,7 @@
     </row>
     <row r="309" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L309" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M309" s="20" t="s">
@@ -6094,7 +8519,7 @@
     </row>
     <row r="310" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L310" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M310" s="20" t="s">
@@ -6103,7 +8528,7 @@
     </row>
     <row r="311" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L311" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M311" s="20" t="s">
@@ -6112,7 +8537,7 @@
     </row>
     <row r="312" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L312" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M312" s="20" t="s">
@@ -6121,7 +8546,7 @@
     </row>
     <row r="313" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L313" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M313" s="20" t="s">
@@ -6130,7 +8555,7 @@
     </row>
     <row r="314" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L314" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M314" s="20" t="s">
@@ -6139,7 +8564,7 @@
     </row>
     <row r="315" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L315" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M315" s="20" t="s">
@@ -6148,7 +8573,7 @@
     </row>
     <row r="316" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L316" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M316" s="20" t="s">
@@ -6157,7 +8582,7 @@
     </row>
     <row r="317" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L317" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M317" s="20" t="s">
@@ -6166,7 +8591,7 @@
     </row>
     <row r="318" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L318" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M318" s="20" t="s">
@@ -6175,7 +8600,7 @@
     </row>
     <row r="319" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L319" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M319" s="20" t="s">
@@ -6184,7 +8609,7 @@
     </row>
     <row r="320" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L320" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M320" s="20" t="s">
@@ -6193,7 +8618,7 @@
     </row>
     <row r="321" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L321" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M321" s="20" t="s">
@@ -6202,7 +8627,7 @@
     </row>
     <row r="322" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L322" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M322" s="20" t="s">
@@ -6211,7 +8636,7 @@
     </row>
     <row r="323" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L323" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M323" s="20" t="s">
@@ -6220,7 +8645,7 @@
     </row>
     <row r="324" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L324" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M324" s="20" t="s">
@@ -6229,7 +8654,7 @@
     </row>
     <row r="325" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L325" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M325" s="20" t="s">
@@ -6238,7 +8663,7 @@
     </row>
     <row r="326" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L326" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M326" s="20" t="s">
@@ -6247,7 +8672,7 @@
     </row>
     <row r="327" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L327" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L327:L390" si="8">IF(C327="",CONCATENATE($F$1,F327,$F$1,$G$1,$F$1,B327,$F$1,$G$1,G327,$G$1,$F$1,H327,$F$1,$G$1,$F$1,$B$1,I327,$C$1,$F$1),CONCATENATE($F$1,C327,$F$1,$G$1, $F$1,B327,$F$1,$G$1,D327,$G$1,$F$1,$B$1,E327,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M327" s="20" t="s">
@@ -6256,7 +8681,7 @@
     </row>
     <row r="328" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L328" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M328" s="20" t="s">
@@ -6265,7 +8690,7 @@
     </row>
     <row r="329" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L329" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M329" s="20" t="s">
@@ -6274,7 +8699,7 @@
     </row>
     <row r="330" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L330" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M330" s="20" t="s">
@@ -6283,7 +8708,7 @@
     </row>
     <row r="331" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L331" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M331" s="20" t="s">
@@ -6292,7 +8717,7 @@
     </row>
     <row r="332" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L332" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M332" s="20" t="s">
@@ -6301,7 +8726,7 @@
     </row>
     <row r="333" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L333" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M333" s="20" t="s">
@@ -6310,7 +8735,7 @@
     </row>
     <row r="334" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L334" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M334" s="20" t="s">
@@ -6319,7 +8744,7 @@
     </row>
     <row r="335" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L335" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M335" s="20" t="s">
@@ -6328,7 +8753,7 @@
     </row>
     <row r="336" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L336" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M336" s="20" t="s">
@@ -6337,7 +8762,7 @@
     </row>
     <row r="337" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L337" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M337" s="20" t="s">
@@ -6346,7 +8771,7 @@
     </row>
     <row r="338" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L338" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M338" s="20" t="s">
@@ -6355,7 +8780,7 @@
     </row>
     <row r="339" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L339" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M339" s="20" t="s">
@@ -6364,7 +8789,7 @@
     </row>
     <row r="340" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L340" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M340" s="20" t="s">
@@ -6373,7 +8798,7 @@
     </row>
     <row r="341" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L341" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M341" s="20" t="s">
@@ -6382,7 +8807,7 @@
     </row>
     <row r="342" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L342" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M342" s="20" t="s">
@@ -6391,7 +8816,7 @@
     </row>
     <row r="343" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L343" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M343" s="20" t="s">
@@ -6400,7 +8825,7 @@
     </row>
     <row r="344" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L344" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M344" s="20" t="s">
@@ -6409,7 +8834,7 @@
     </row>
     <row r="345" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L345" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M345" s="20" t="s">
@@ -6418,7 +8843,7 @@
     </row>
     <row r="346" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L346" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M346" s="20" t="s">
@@ -6427,7 +8852,7 @@
     </row>
     <row r="347" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L347" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M347" s="20" t="s">
@@ -6436,7 +8861,7 @@
     </row>
     <row r="348" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L348" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M348" s="20" t="s">
@@ -6445,7 +8870,7 @@
     </row>
     <row r="349" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L349" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M349" s="20" t="s">
@@ -6454,7 +8879,7 @@
     </row>
     <row r="350" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L350" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M350" s="20" t="s">
@@ -6463,7 +8888,7 @@
     </row>
     <row r="351" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L351" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M351" s="20" t="s">
@@ -6472,7 +8897,7 @@
     </row>
     <row r="352" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L352" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M352" s="20" t="s">
@@ -6481,7 +8906,7 @@
     </row>
     <row r="353" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L353" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M353" s="20" t="s">
@@ -6490,7 +8915,7 @@
     </row>
     <row r="354" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L354" s="11" t="str">
-        <f t="shared" ref="L354:L362" si="6">IF(C354="",CONCATENATE($F$1,F354,$F$1,$G$1,$F$1,B354,$F$1,$G$1,G354,$G$1,$F$1,H354,$F$1,$G$1,$F$1,$B$1,I354,$C$1,$F$1),CONCATENATE($F$1,C354,$F$1,$G$1, $F$1,B354,$F$1,$G$1,D354,$G$1,$F$1,$B$1,E354,$C$1,$F$1))</f>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M354" s="20" t="s">
@@ -6499,7 +8924,7 @@
     </row>
     <row r="355" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L355" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M355" s="20" t="s">
@@ -6508,7 +8933,7 @@
     </row>
     <row r="356" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L356" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M356" s="20" t="s">
@@ -6517,7 +8942,7 @@
     </row>
     <row r="357" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L357" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M357" s="20" t="s">
@@ -6526,7 +8951,7 @@
     </row>
     <row r="358" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L358" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M358" s="20" t="s">
@@ -6535,7 +8960,7 @@
     </row>
     <row r="359" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L359" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M359" s="20" t="s">
@@ -6544,7 +8969,7 @@
     </row>
     <row r="360" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L360" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M360" s="20" t="s">
@@ -6553,7 +8978,7 @@
     </row>
     <row r="361" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L361" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M361" s="20" t="s">
@@ -6562,16 +8987,349 @@
     </row>
     <row r="362" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L362" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M362" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="363" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L363" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M363" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="364" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L364" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M364" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="365" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L365" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M365" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="366" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L366" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M366" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="367" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L367" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M367" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="368" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L368" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M368" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="369" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L369" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M369" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="370" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L370" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M370" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="371" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L371" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M371" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="372" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L372" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M372" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="373" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L373" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M373" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="374" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L374" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M374" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="375" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L375" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M375" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="376" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L376" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M376" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="377" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L377" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M377" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="378" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L378" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M378" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="379" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L379" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M379" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="380" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L380" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M380" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="381" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L381" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M381" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="382" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L382" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M382" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="383" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L383" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M383" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="384" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L384" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M384" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="385" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L385" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M385" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="386" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L386" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M386" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="387" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L387" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M387" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="388" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L388" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M388" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="389" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L389" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M389" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="390" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L390" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M390" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="391" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L391" s="11" t="str">
+        <f t="shared" ref="L391:L399" si="9">IF(C391="",CONCATENATE($F$1,F391,$F$1,$G$1,$F$1,B391,$F$1,$G$1,G391,$G$1,$F$1,H391,$F$1,$G$1,$F$1,$B$1,I391,$C$1,$F$1),CONCATENATE($F$1,C391,$F$1,$G$1, $F$1,B391,$F$1,$G$1,D391,$G$1,$F$1,$B$1,E391,$C$1,$F$1))</f>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M391" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="392" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L392" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M392" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="393" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L393" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M393" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="394" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L394" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M394" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="395" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L395" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M395" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="396" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L396" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M396" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="397" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L397" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M397" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="398" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L398" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M398" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="399" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L399" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M399" s="20" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AL1" r:id="rId1" display="https://semaforek.kolej.org.pl/wiki/index.php?title=Samoczynna_blokada_liniowa_w_Polsce" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AM1" r:id="rId1" display="https://semaforek.kolej.org.pl/wiki/index.php?title=Samoczynna_blokada_liniowa_w_Polsce" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -10156,10 +12914,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -10194,10 +12952,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -10251,10 +13009,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -10289,10 +13047,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="36"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -10357,6 +13115,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CD5458B81A8B2B4B92FF87D810305C72" ma:contentTypeVersion="10" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="94af6a530ab954c472b36ae778f182c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcc645c8-4b47-4a2e-89eb-d5bbcced8466" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ef69444b0b6df3a2aca9b298e9665c5" ns3:_="">
     <xsd:import namespace="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
@@ -10540,22 +13313,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBCE1FC-4F3C-4CE6-A38A-EF0D12121C1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10571,28 +13353,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681DD843-1EB6-4A4F-910D-EA4C5DEA419A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6E5DBA-3A0F-455B-856F-4084B54F9D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="517">
   <si>
     <t>Katowice</t>
   </si>
@@ -1029,9 +1029,6 @@
     <t>"CB-CM", "SBL+Sem(ST)", 1, "1", "(1)"</t>
   </si>
   <si>
-    <t>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</t>
-  </si>
-  <si>
     <t>"CM", "ST", 1, "(1)"</t>
   </si>
   <si>
@@ -1377,9 +1374,6 @@
     <t>"RCB-ZZ-1", "SBL", 1, "1", "(4)"</t>
   </si>
   <si>
-    <t>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</t>
-  </si>
-  <si>
     <t>"RCB-ZZ-3", "SBL", 1, "3", "(4)"</t>
   </si>
   <si>
@@ -1392,9 +1386,6 @@
     <t>"ZZ-RCB-2", "SBL", 2, "2", "(4)"</t>
   </si>
   <si>
-    <t>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</t>
-  </si>
-  <si>
     <t>"ZZ-RCB-4", "SBL+Sem(ST)", 2, "4", "(4)"</t>
   </si>
   <si>
@@ -1434,30 +1425,6 @@
     <t>"GLC-ZZ-5", "SBL+Sem(ST)", 2, "5", "(5)"</t>
   </si>
   <si>
-    <t>"GLC", "", 3, "(1)"</t>
-  </si>
-  <si>
-    <t>"GLC", "", 4, "(1)"</t>
-  </si>
-  <si>
-    <t>"GLC", "", 5, "(2)"</t>
-  </si>
-  <si>
-    <t>"GLC", "", 6, "(2)"</t>
-  </si>
-  <si>
-    <t>"GLC", "", 7, "(3)"</t>
-  </si>
-  <si>
-    <t>"GLC", "", 8, "(3)"</t>
-  </si>
-  <si>
-    <t>"GLC", "", 9, "(4)"</t>
-  </si>
-  <si>
-    <t>"GLC", "", 11, "(4)"</t>
-  </si>
-  <si>
     <t>"KL-MJ-1", "Sem(odstep)+PO(Piotrowice)", 1, "1", "(2)"</t>
   </si>
   <si>
@@ -1576,6 +1543,42 @@
   </si>
   <si>
     <t>"Ty", "ST", 108, "(N/A)"</t>
+  </si>
+  <si>
+    <t>"GLC", "ST", 3, "(1)"</t>
+  </si>
+  <si>
+    <t>"GLC", "ST", 4, "(1)"</t>
+  </si>
+  <si>
+    <t>"GLC", "ST", 5, "(2)"</t>
+  </si>
+  <si>
+    <t>"GLC", "ST", 6, "(2)"</t>
+  </si>
+  <si>
+    <t>"GLC", "ST", 7, "(3)"</t>
+  </si>
+  <si>
+    <t>"GLC", "ST", 8, "(3)"</t>
+  </si>
+  <si>
+    <t>"GLC", "ST", 9, "(4)"</t>
+  </si>
+  <si>
+    <t>"GLC", "ST", 11, "(4)"</t>
+  </si>
+  <si>
+    <t>"CM-CB", "SBL+Sem(ST)", 2, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"RCB-ZZ-2", "SBL+PO(Ruda Śląska)", 1, "2", "(4)"</t>
+  </si>
+  <si>
+    <t>"ZZ-RCB-3", "SBL+PO(Ruda Śląska)", 2, "3", "(4)"</t>
+  </si>
+  <si>
+    <t>"GLC(KS)", "B-M", 200, "(N/A)"</t>
   </si>
 </sst>
 </file>
@@ -2153,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM399"/>
+  <dimension ref="A1:AM400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="M52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,7 +2419,7 @@
       </c>
       <c r="F6" s="17"/>
       <c r="L6" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C6="",CONCATENATE($F$1,F6,$F$1,$G$1,$F$1,B6,$F$1,$G$1,G6,$G$1,$F$1,H6,$F$1,$G$1,$F$1,$B$1,I6,$C$1,$F$1),CONCATENATE($F$1,C6,$F$1,$G$1, $F$1,B6,$F$1,$G$1,D6,$G$1,$F$1,$B$1,E6,$C$1,$F$1))</f>
         <v>"KO", "ST", 2, "(3)"</v>
       </c>
       <c r="M6" s="20" t="s">
@@ -3041,7 +3044,7 @@
       </c>
       <c r="F23" s="17"/>
       <c r="L23" s="11" t="str">
-        <f t="shared" ref="L23:L134" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
+        <f t="shared" ref="L23:L135" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
         <v>"KO", "ST-M", 1114, "(N/A)"</v>
       </c>
       <c r="M23" s="11" t="s">
@@ -3524,7 +3527,7 @@
         <v>273</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
@@ -3752,7 +3755,7 @@
         <v>332</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
@@ -3785,10 +3788,10 @@
         <v>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>333</v>
+        <v>513</v>
       </c>
       <c r="N42" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
@@ -3817,10 +3820,10 @@
         <v>"CM", "ST", 1, "(1)"</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N43" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
@@ -3849,10 +3852,10 @@
         <v>"CM", "ST", 2, "(1)"</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N44" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
@@ -3862,14 +3865,14 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
       </c>
       <c r="D45"/>
       <c r="F45" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>7</v>
@@ -3885,7 +3888,7 @@
         <v>"CB-RCB-1", "SBL", 1, "1", "(3)"</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N45" s="34">
         <v>137</v>
@@ -3898,14 +3901,14 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D46"/>
       <c r="F46" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>7</v>
@@ -3921,7 +3924,7 @@
         <v>"CB-RCB-2", "SBL+PO(Świętochłowice)", 1, "2", "(3)"</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N46" s="34">
         <v>137</v>
@@ -3934,14 +3937,14 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
       </c>
       <c r="D47"/>
       <c r="F47" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>7</v>
@@ -3957,7 +3960,7 @@
         <v>"CB-RCB-3", "SBL+Sem(ST)", 1, "3", "(3)"</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N47" s="34">
         <v>137</v>
@@ -3970,14 +3973,14 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
       </c>
       <c r="D48"/>
       <c r="F48" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
@@ -3993,7 +3996,7 @@
         <v>"RCB-CB-1", "SBL", 2, "1", "(3)"</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N48" s="34">
         <v>137</v>
@@ -4006,14 +4009,14 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D49"/>
       <c r="F49" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
@@ -4029,7 +4032,7 @@
         <v>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N49" s="34">
         <v>137</v>
@@ -4042,14 +4045,14 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
       </c>
       <c r="D50"/>
       <c r="F50" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
@@ -4065,7 +4068,7 @@
         <v>"RCB-CB-3", "SBL+Sem(ST)", 2, "3", "(3)"</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N50" s="34">
         <v>137</v>
@@ -4078,13 +4081,13 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4097,7 +4100,7 @@
         <v>"RCB", "ST", 1, "(1)"</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N51" s="34">
         <v>137</v>
@@ -4110,13 +4113,13 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -4129,7 +4132,7 @@
         <v>"RCB", "ST", 2, "(1)"</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N52" s="34">
         <v>137</v>
@@ -4142,14 +4145,14 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
       </c>
       <c r="D53"/>
       <c r="F53" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>7</v>
@@ -4165,7 +4168,7 @@
         <v>"RCB-ZZ-1", "SBL", 1, "1", "(4)"</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N53" s="34">
         <v>137</v>
@@ -4178,14 +4181,14 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D54"/>
       <c r="F54" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>7</v>
@@ -4201,7 +4204,7 @@
         <v>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="N54" s="34">
         <v>137</v>
@@ -4214,14 +4217,14 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s">
         <v>67</v>
       </c>
       <c r="D55"/>
       <c r="F55" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>7</v>
@@ -4237,7 +4240,7 @@
         <v>"RCB-ZZ-3", "SBL", 1, "3", "(4)"</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N55" s="34">
         <v>137</v>
@@ -4250,14 +4253,14 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
       </c>
       <c r="D56"/>
       <c r="F56" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>7</v>
@@ -4273,7 +4276,7 @@
         <v>"RCB-ZZ-4", "SBL+Sem(ST)", 1, "4", "(4)"</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N56" s="34">
         <v>137</v>
@@ -4286,14 +4289,14 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
       </c>
       <c r="D57"/>
       <c r="F57" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>8</v>
@@ -4309,7 +4312,7 @@
         <v>"ZZ-RCB-1", "SBL", 2, "1", "(4)"</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N57" s="34">
         <v>137</v>
@@ -4322,14 +4325,14 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s">
         <v>67</v>
       </c>
       <c r="D58"/>
       <c r="F58" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>8</v>
@@ -4345,7 +4348,7 @@
         <v>"ZZ-RCB-2", "SBL", 2, "2", "(4)"</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N58" s="34">
         <v>137</v>
@@ -4358,14 +4361,14 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D59"/>
       <c r="F59" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>8</v>
@@ -4381,7 +4384,7 @@
         <v>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="N59" s="34">
         <v>137</v>
@@ -4394,14 +4397,14 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
       </c>
       <c r="D60"/>
       <c r="F60" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>8</v>
@@ -4417,7 +4420,7 @@
         <v>"ZZ-RCB-4", "SBL+Sem(ST)", 2, "4", "(4)"</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N60" s="34">
         <v>137</v>
@@ -4430,13 +4433,13 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4449,7 +4452,7 @@
         <v>"ZZ", "ST", 1, "(1)"</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="N61" s="34">
         <v>137</v>
@@ -4462,13 +4465,13 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -4481,7 +4484,7 @@
         <v>"ZZ", "ST", 2, "(1)"</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N62" s="34">
         <v>137</v>
@@ -4494,14 +4497,14 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="D63"/>
       <c r="F63" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>7</v>
@@ -4517,7 +4520,7 @@
         <v>"ZZ-GLC-1", "SBL", 1, "1", "(5)"</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N63" s="34">
         <v>137</v>
@@ -4530,14 +4533,14 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
       <c r="D64"/>
       <c r="F64" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>7</v>
@@ -4553,7 +4556,7 @@
         <v>"ZZ-GLC-2", "SBL", 1, "2", "(5)"</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N64" s="34">
         <v>137</v>
@@ -4566,14 +4569,14 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
       </c>
       <c r="D65"/>
       <c r="F65" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>7</v>
@@ -4589,7 +4592,7 @@
         <v>"ZZ-GLC-3", "SBL", 1, "3", "(5)"</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N65" s="34"/>
       <c r="O65" s="14"/>
@@ -4600,14 +4603,14 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="D66"/>
       <c r="F66" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>7</v>
@@ -4623,7 +4626,7 @@
         <v>"ZZ-GLC-4", "SBL", 1, "4", "(5)"</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N66" s="34"/>
       <c r="O66" s="14"/>
@@ -4634,14 +4637,14 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
       </c>
       <c r="D67"/>
       <c r="F67" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>7</v>
@@ -4657,7 +4660,7 @@
         <v>"ZZ-GLC-5", "SBL+Sem(ST)", 1, "5", "(5)"</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N67" s="34"/>
       <c r="O67" s="14"/>
@@ -4668,14 +4671,14 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
       <c r="D68"/>
       <c r="F68" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>8</v>
@@ -4691,7 +4694,7 @@
         <v>"GLC-ZZ-1", "SBL", 2, "1", "(5)"</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N68" s="34"/>
       <c r="O68" s="14"/>
@@ -4702,14 +4705,14 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
       </c>
       <c r="D69"/>
       <c r="F69" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>8</v>
@@ -4725,7 +4728,7 @@
         <v>"GLC-ZZ-2", "SBL", 2, "2", "(5)"</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N69" s="34"/>
       <c r="O69" s="14"/>
@@ -4736,14 +4739,14 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" t="s">
         <v>67</v>
       </c>
       <c r="D70"/>
       <c r="F70" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>8</v>
@@ -4759,7 +4762,7 @@
         <v>"GLC-ZZ-3", "SBL", 2, "3", "(5)"</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N70" s="34"/>
       <c r="O70" s="14"/>
@@ -4770,14 +4773,14 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
       </c>
       <c r="D71"/>
       <c r="F71" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>8</v>
@@ -4793,7 +4796,7 @@
         <v>"GLC-ZZ-4", "SBL", 2, "4", "(5)"</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N71" s="34"/>
       <c r="O71" s="14"/>
@@ -4804,14 +4807,14 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
       <c r="D72"/>
       <c r="F72" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>8</v>
@@ -4827,7 +4830,7 @@
         <v>"GLC-ZZ-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="N72" s="34"/>
       <c r="O72" s="14"/>
@@ -4838,13 +4841,13 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4857,7 +4860,7 @@
         <v>"GLC", "ST", 3, "(1)"</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="N73" s="34"/>
       <c r="O73" s="14"/>
@@ -4868,13 +4871,13 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4887,7 +4890,7 @@
         <v>"GLC", "ST", 4, "(1)"</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="N74" s="34"/>
       <c r="O74" s="14"/>
@@ -4898,13 +4901,13 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -4917,7 +4920,7 @@
         <v>"GLC", "ST", 5, "(2)"</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="N75" s="34"/>
       <c r="O75" s="14"/>
@@ -4928,13 +4931,13 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -4947,7 +4950,7 @@
         <v>"GLC", "ST", 6, "(2)"</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="N76" s="34"/>
       <c r="O76" s="14"/>
@@ -4958,13 +4961,13 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D77">
         <v>7</v>
@@ -4977,7 +4980,7 @@
         <v>"GLC", "ST", 7, "(3)"</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="N77" s="34"/>
       <c r="O77" s="14"/>
@@ -4988,13 +4991,13 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -5007,7 +5010,7 @@
         <v>"GLC", "ST", 8, "(3)"</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="N78" s="34"/>
       <c r="O78" s="14"/>
@@ -5018,13 +5021,13 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D79">
         <v>9</v>
@@ -5037,7 +5040,7 @@
         <v>"GLC", "ST", 9, "(4)"</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="N79" s="34">
         <v>137</v>
@@ -5050,13 +5053,13 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D80">
         <v>11</v>
@@ -5069,7 +5072,7 @@
         <v>"GLC", "ST", 11, "(4)"</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="N80" s="34">
         <v>137</v>
@@ -5081,34 +5084,11 @@
       <c r="S80" s="12"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>210</v>
-      </c>
-      <c r="B81" t="s">
-        <v>202</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KO-Bugla-Bry-1", "Sem(ST)+SBL", 1, "1", "(2)"</v>
-      </c>
+      <c r="D81"/>
       <c r="M81" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="N81" s="33" t="s">
-        <v>338</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N81" s="34"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="12"/>
@@ -5117,32 +5097,32 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L82" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bugla-Bry-2", "SBL+Sem(PODG)", 1, "2", "(2)"</v>
+        <v>"KO-Bugla-Bry-1", "Sem(ST)+SBL", 1, "1", "(2)"</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N82" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
@@ -5152,32 +5132,32 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I83" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L83" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry", "PODG", 2, "1", "(1)"</v>
+        <v>"KO-Bugla-Bry-2", "SBL+Sem(PODG)", 1, "2", "(2)"</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="N83" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
@@ -5196,7 +5176,7 @@
         <v>312</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>7</v>
@@ -5206,13 +5186,13 @@
       </c>
       <c r="L84" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry", "PODG", 1, "1", "(1)"</v>
+        <v>"Bry", "PODG", 2, "1", "(1)"</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
@@ -5222,16 +5202,16 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>7</v>
@@ -5241,13 +5221,13 @@
       </c>
       <c r="L85" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KO", "PODG+Sem(ST)", 2, "1", "(1)"</v>
+        <v>"Bry", "PODG", 1, "1", "(1)"</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="N85" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
@@ -5257,16 +5237,16 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>7</v>
@@ -5276,13 +5256,13 @@
       </c>
       <c r="L86" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bry", "ST+Sem(PODG)", 3, "1", "(1)"</v>
+        <v>"Bry-KO", "PODG+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N86" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
@@ -5292,32 +5272,32 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>305</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L87" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KL-1", "SBL+POGP", 1, "1", "(2)"</v>
+        <v>"KO-Bry", "ST+Sem(PODG)", 3, "1", "(1)"</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="N87" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
@@ -5327,32 +5307,32 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L88" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KL-2", "SBL+Sem(ST)", 1, "2", "(2)"</v>
+        <v>"Bry-KL-1", "SBL+POGP", 1, "1", "(2)"</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N88" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
@@ -5362,32 +5342,32 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L89" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-Bry-1", "SBL", 2, "1", "(2)"</v>
+        <v>"Bry-KL-2", "SBL+Sem(ST)", 1, "2", "(2)"</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N89" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
@@ -5397,32 +5377,32 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L90" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-Bry-2", "SBL+Sem(PODG)", 2, "2", "(2)"</v>
+        <v>"KL-Bry-1", "SBL", 2, "1", "(2)"</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N90" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
@@ -5432,29 +5412,32 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L91" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 1, "(2)"</v>
+        <v>"KL-Bry-2", "SBL+Sem(PODG)", 2, "2", "(2)"</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N91" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
@@ -5473,20 +5456,20 @@
         <v>112</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L92" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 2, "(2)"</v>
+        <v>"KL", "ST", 1, "(2)"</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N92" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
@@ -5505,20 +5488,20 @@
         <v>112</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L93" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 3, "(1)"</v>
+        <v>"KL", "ST", 2, "(2)"</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N93" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
@@ -5528,32 +5511,29 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>371</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>417</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="L94" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-MJ-1", "Sem(odstep)+PO(Piotrowice)", 1, "1", "(2)"</v>
+        <v>"KL", "ST", 3, "(1)"</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>476</v>
+        <v>289</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
@@ -5563,32 +5543,32 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s">
+        <v>416</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L95" s="11" t="str">
-        <f t="shared" ref="L95:L121" si="2">IF(C95="",CONCATENATE($F$1,F95,$F$1,$G$1,$F$1,B95,$F$1,$G$1,G95,$G$1,$F$1,H95,$F$1,$G$1,$F$1,$B$1,I95,$C$1,$F$1),CONCATENATE($F$1,C95,$F$1,$G$1, $F$1,B95,$F$1,$G$1,D95,$G$1,$F$1,$B$1,E95,$C$1,$F$1))</f>
-        <v>"KL-MJ-2", "Sem(odstep)", 1, "2", "(2)"</v>
+        <f t="shared" si="1"/>
+        <v>"KL-MJ-1", "Sem(odstep)+PO(Piotrowice)", 1, "1", "(2)"</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
@@ -5598,29 +5578,32 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D96" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>7</v>
+      <c r="H96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L96" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"MJ", "ST", 1, "(1)"</v>
+        <f t="shared" ref="L96:L122" si="2">IF(C96="",CONCATENATE($F$1,F96,$F$1,$G$1,$F$1,B96,$F$1,$G$1,G96,$G$1,$F$1,H96,$F$1,$G$1,$F$1,$B$1,I96,$C$1,$F$1),CONCATENATE($F$1,C96,$F$1,$G$1, $F$1,B96,$F$1,$G$1,D96,$G$1,$F$1,$B$1,E96,$C$1,$F$1))</f>
+        <v>"KL-MJ-2", "Sem(odstep)", 1, "2", "(2)"</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
@@ -5630,29 +5613,29 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L97" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"MJ", "ST", 2, "(1)"</v>
+        <v>"MJ", "ST", 1, "(1)"</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="N97" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
@@ -5662,32 +5645,29 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L98" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"MJ-Mi", "Sem(odstep)", 1, "1", "(1)"</v>
+        <v>"MJ", "ST", 2, "(1)"</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="N98" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O98" s="14"/>
       <c r="P98" s="14"/>
@@ -5697,29 +5677,32 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D99" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="H99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L99" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mi", "ST", 1, "(1)"</v>
+        <v>"MJ-Mi", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="N99" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O99" s="14"/>
       <c r="P99" s="14"/>
@@ -5729,29 +5712,29 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L100" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mi", "ST", 2, "(1)"</v>
+        <v>"Mi", "ST", 1, "(1)"</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="N100" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O100" s="14"/>
       <c r="P100" s="14"/>
@@ -5761,32 +5744,29 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B101" t="s">
-        <v>418</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="L101" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</v>
+        <v>"Mi", "ST", 2, "(1)"</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="N101" s="33" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
@@ -5796,32 +5776,32 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L102" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-2", "SBL", 1, "2", "(6)"</v>
+        <v>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N102" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O102" s="14"/>
       <c r="P102" s="14"/>
@@ -5831,32 +5811,32 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B103" t="s">
         <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L103" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-3", "SBL", 1, "3", "(6)"</v>
+        <v>"KL-Mc-2", "SBL", 1, "2", "(6)"</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="N103" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O103" s="14"/>
       <c r="P103" s="14"/>
@@ -5866,32 +5846,32 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B104" t="s">
-        <v>419</v>
+        <v>67</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L104" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</v>
+        <v>"KL-Mc-3", "SBL", 1, "3", "(6)"</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="N104" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O104" s="14"/>
       <c r="P104" s="14"/>
@@ -5901,32 +5881,32 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>418</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L105" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-5", "SBL", 1, "5", "(6)"</v>
+        <v>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="N105" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O105" s="14"/>
       <c r="P105" s="14"/>
@@ -5936,32 +5916,32 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>420</v>
+        <v>113</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L106" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</v>
+        <v>"KL-Mc-5", "SBL", 1, "5", "(6)"</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="N106" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
@@ -5971,32 +5951,32 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="L107" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-1", "SBL", 2, "1", "(5)"</v>
+        <v>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="N107" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O107" s="14"/>
       <c r="P107" s="14"/>
@@ -6006,32 +5986,32 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B108" t="s">
-        <v>419</v>
+        <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L108" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</v>
+        <v>"Mc-KL-1", "SBL", 2, "1", "(5)"</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="N108" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O108" s="14"/>
       <c r="P108" s="14"/>
@@ -6041,32 +6021,32 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>418</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L109" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-3", "SBL", 2, "3", "(5)"</v>
+        <v>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="N109" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
@@ -6076,32 +6056,32 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B110" t="s">
         <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L110" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-4", "SBL", 2, "4", "(5)"</v>
+        <v>"Mc-KL-3", "SBL", 2, "3", "(5)"</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="N110" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O110" s="14"/>
       <c r="P110" s="14"/>
@@ -6111,32 +6091,32 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L111" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
+        <v>"Mc-KL-4", "SBL", 2, "4", "(5)"</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="N111" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O111" s="14"/>
       <c r="P111" s="14"/>
@@ -6146,29 +6126,32 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="L112" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 1, "(N/A)"</v>
+        <v>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="N112" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O112" s="14"/>
       <c r="P112" s="14"/>
@@ -6178,26 +6161,29 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L113" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 2, "(N/A)"</v>
+        <v>"Mc", "PODG", 1, "(N/A)"</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>490</v>
+        <v>478</v>
+      </c>
+      <c r="N113" s="33" t="s">
+        <v>337</v>
       </c>
       <c r="O113" s="14"/>
       <c r="P113" s="14"/>
@@ -6207,26 +6193,26 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L114" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 3, "(N/A)"</v>
+        <v>"Mc", "PODG", 2, "(N/A)"</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="O114" s="14"/>
       <c r="P114" s="14"/>
@@ -6236,32 +6222,26 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="B115" t="s">
-        <v>427</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="L115" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</v>
+        <v>"Mc", "PODG", 3, "(N/A)"</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="N115" s="33" t="s">
-        <v>338</v>
+        <v>480</v>
       </c>
       <c r="O115" s="14"/>
       <c r="P115" s="14"/>
@@ -6274,13 +6254,13 @@
         <v>438</v>
       </c>
       <c r="B116" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>7</v>
@@ -6290,13 +6270,13 @@
       </c>
       <c r="L116" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</v>
+        <v>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="N116" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O116" s="14"/>
       <c r="P116" s="14"/>
@@ -6309,13 +6289,13 @@
         <v>437</v>
       </c>
       <c r="B117" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>7</v>
@@ -6325,13 +6305,13 @@
       </c>
       <c r="L117" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</v>
+        <v>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="N117" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O117" s="14"/>
       <c r="P117" s="14"/>
@@ -6341,29 +6321,32 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>105</v>
+        <v>433</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L118" s="11" t="str">
-        <f t="shared" ref="L118:L120" si="3">IF(C118="",CONCATENATE($F$1,F118,$F$1,$G$1,$F$1,B118,$F$1,$G$1,G118,$G$1,$F$1,H118,$F$1,$G$1,$F$1,$B$1,I118,$C$1,$F$1),CONCATENATE($F$1,C118,$F$1,$G$1, $F$1,B118,$F$1,$G$1,D118,$G$1,$F$1,$B$1,E118,$C$1,$F$1))</f>
-        <v>"Ty", "ST", 101, "(N/A)"</v>
+        <f t="shared" si="2"/>
+        <v>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="N118" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O118" s="14"/>
       <c r="P118" s="14"/>
@@ -6373,29 +6356,29 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L119" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>"Ty", "ST", 102, "(N/A)"</v>
+        <f t="shared" ref="L119:L121" si="3">IF(C119="",CONCATENATE($F$1,F119,$F$1,$G$1,$F$1,B119,$F$1,$G$1,G119,$G$1,$F$1,H119,$F$1,$G$1,$F$1,$B$1,I119,$C$1,$F$1),CONCATENATE($F$1,C119,$F$1,$G$1, $F$1,B119,$F$1,$G$1,D119,$G$1,$F$1,$B$1,E119,$C$1,$F$1))</f>
+        <v>"Ty", "ST", 101, "(N/A)"</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="N119" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O119" s="14"/>
       <c r="P119" s="14"/>
@@ -6405,29 +6388,29 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L120" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>"Ty", "ST", 108, "(N/A)"</v>
+        <v>"Ty", "ST", 102, "(N/A)"</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="N120" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O120" s="14"/>
       <c r="P120" s="14"/>
@@ -6437,29 +6420,29 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="L121" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"Ty", "ST", 1, "(2)"</v>
+        <f t="shared" si="3"/>
+        <v>"Ty", "ST", 108, "(N/A)"</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="N121" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O121" s="14"/>
       <c r="P121" s="14"/>
@@ -6469,29 +6452,29 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L122" s="11" t="str">
-        <f t="shared" ref="L122:L125" si="4">IF(C122="",CONCATENATE($F$1,F122,$F$1,$G$1,$F$1,B122,$F$1,$G$1,G122,$G$1,$F$1,H122,$F$1,$G$1,$F$1,$B$1,I122,$C$1,$F$1),CONCATENATE($F$1,C122,$F$1,$G$1, $F$1,B122,$F$1,$G$1,D122,$G$1,$F$1,$B$1,E122,$C$1,$F$1))</f>
-        <v>"Ty", "ST", 2, "(2)"</v>
+        <f t="shared" si="2"/>
+        <v>"Ty", "ST", 1, "(2)"</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="N122" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O122" s="14"/>
       <c r="P122" s="14"/>
@@ -6501,29 +6484,29 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L123" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>"Ty", "ST", 8, "(1)"</v>
+        <f t="shared" ref="L123:L126" si="4">IF(C123="",CONCATENATE($F$1,F123,$F$1,$G$1,$F$1,B123,$F$1,$G$1,G123,$G$1,$F$1,H123,$F$1,$G$1,$F$1,$B$1,I123,$C$1,$F$1),CONCATENATE($F$1,C123,$F$1,$G$1, $F$1,B123,$F$1,$G$1,D123,$G$1,$F$1,$B$1,E123,$C$1,$F$1))</f>
+        <v>"Ty", "ST", 2, "(2)"</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="N123" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O123" s="14"/>
       <c r="P123" s="14"/>
@@ -6533,29 +6516,29 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L124" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>"Ty", "ST", 7, "(3)"</v>
+        <v>"Ty", "ST", 8, "(1)"</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="N124" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O124" s="14"/>
       <c r="P124" s="14"/>
@@ -6565,29 +6548,29 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L125" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>"Ty", "ST", 9, "(3)"</v>
+        <v>"Ty", "ST", 7, "(3)"</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="N125" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O125" s="14"/>
       <c r="P125" s="14"/>
@@ -6597,32 +6580,29 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>429</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
-      </c>
-      <c r="F126" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L126" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Ty", "ST", 9, "(3)"</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="N126" s="33" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="O126" s="14"/>
       <c r="P126" s="14"/>
@@ -6632,16 +6612,16 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B127" t="s">
         <v>77</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>7</v>
@@ -6651,10 +6631,10 @@
       </c>
       <c r="L127" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
+        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N127" s="33" t="s">
         <v>7</v>
@@ -6667,16 +6647,16 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
         <v>77</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>7</v>
@@ -6686,13 +6666,13 @@
       </c>
       <c r="L128" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
+        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N128" s="33" t="s">
-        <v>339</v>
+        <v>7</v>
       </c>
       <c r="O128" s="14"/>
       <c r="P128" s="14"/>
@@ -6702,16 +6682,16 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129" t="s">
         <v>77</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>7</v>
@@ -6721,13 +6701,13 @@
       </c>
       <c r="L129" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
+        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N129" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O129" s="14"/>
       <c r="P129" s="14"/>
@@ -6737,29 +6717,32 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" t="s">
-        <v>144</v>
-      </c>
-      <c r="D130" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L130" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 1, "(1)"</v>
+        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N130" s="33" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="O130" s="14"/>
       <c r="P130" s="14"/>
@@ -6778,17 +6761,17 @@
         <v>144</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L131" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 2, "(1)"</v>
+        <v>"KZ", "ST", 1, "(1)"</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N131" s="33" t="s">
         <v>7</v>
@@ -6810,20 +6793,20 @@
         <v>144</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L132" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 3, "(2)"</v>
+        <v>"KZ", "ST", 2, "(1)"</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N132" s="33" t="s">
-        <v>339</v>
+        <v>7</v>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
@@ -6842,20 +6825,20 @@
         <v>144</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L133" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 4, "(2)"</v>
+        <v>"KZ", "ST", 3, "(2)"</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N133" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="14"/>
@@ -6864,12 +6847,30 @@
       <c r="S133" s="12"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L134" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
+        <v>"KZ", "ST", 4, "(2)"</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>184</v>
+        <v>297</v>
+      </c>
+      <c r="N134" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="14"/>
@@ -6879,7 +6880,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L135" s="11" t="str">
-        <f t="shared" ref="L135:L198" si="5">IF(C135="",CONCATENATE($F$1,F135,$F$1,$G$1,$F$1,B135,$F$1,$G$1,G135,$G$1,$F$1,H135,$F$1,$G$1,$F$1,$B$1,I135,$C$1,$F$1),CONCATENATE($F$1,C135,$F$1,$G$1, $F$1,B135,$F$1,$G$1,D135,$G$1,$F$1,$B$1,E135,$C$1,$F$1))</f>
+        <f t="shared" si="1"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M135" s="20" t="s">
@@ -6893,7 +6894,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L136" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L136:L199" si="5">IF(C136="",CONCATENATE($F$1,F136,$F$1,$G$1,$F$1,B136,$F$1,$G$1,G136,$G$1,$F$1,H136,$F$1,$G$1,$F$1,$B$1,I136,$C$1,$F$1),CONCATENATE($F$1,C136,$F$1,$G$1, $F$1,B136,$F$1,$G$1,D136,$G$1,$F$1,$B$1,E136,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M136" s="20" t="s">
@@ -7067,6 +7068,11 @@
       <c r="M148" s="20" t="s">
         <v>184</v>
       </c>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
     </row>
     <row r="149" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L149" s="11" t="str">
@@ -7520,7 +7526,7 @@
     </row>
     <row r="199" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L199" s="11" t="str">
-        <f t="shared" ref="L199:L262" si="6">IF(C199="",CONCATENATE($F$1,F199,$F$1,$G$1,$F$1,B199,$F$1,$G$1,G199,$G$1,$F$1,H199,$F$1,$G$1,$F$1,$B$1,I199,$C$1,$F$1),CONCATENATE($F$1,C199,$F$1,$G$1, $F$1,B199,$F$1,$G$1,D199,$G$1,$F$1,$B$1,E199,$C$1,$F$1))</f>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M199" s="20" t="s">
@@ -7529,7 +7535,7 @@
     </row>
     <row r="200" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L200" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L200:L263" si="6">IF(C200="",CONCATENATE($F$1,F200,$F$1,$G$1,$F$1,B200,$F$1,$G$1,G200,$G$1,$F$1,H200,$F$1,$G$1,$F$1,$B$1,I200,$C$1,$F$1),CONCATENATE($F$1,C200,$F$1,$G$1, $F$1,B200,$F$1,$G$1,D200,$G$1,$F$1,$B$1,E200,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M200" s="20" t="s">
@@ -8096,7 +8102,7 @@
     </row>
     <row r="263" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L263" s="11" t="str">
-        <f t="shared" ref="L263:L326" si="7">IF(C263="",CONCATENATE($F$1,F263,$F$1,$G$1,$F$1,B263,$F$1,$G$1,G263,$G$1,$F$1,H263,$F$1,$G$1,$F$1,$B$1,I263,$C$1,$F$1),CONCATENATE($F$1,C263,$F$1,$G$1, $F$1,B263,$F$1,$G$1,D263,$G$1,$F$1,$B$1,E263,$C$1,$F$1))</f>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M263" s="20" t="s">
@@ -8105,7 +8111,7 @@
     </row>
     <row r="264" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L264" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L264:L327" si="7">IF(C264="",CONCATENATE($F$1,F264,$F$1,$G$1,$F$1,B264,$F$1,$G$1,G264,$G$1,$F$1,H264,$F$1,$G$1,$F$1,$B$1,I264,$C$1,$F$1),CONCATENATE($F$1,C264,$F$1,$G$1, $F$1,B264,$F$1,$G$1,D264,$G$1,$F$1,$B$1,E264,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M264" s="20" t="s">
@@ -8672,7 +8678,7 @@
     </row>
     <row r="327" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L327" s="11" t="str">
-        <f t="shared" ref="L327:L390" si="8">IF(C327="",CONCATENATE($F$1,F327,$F$1,$G$1,$F$1,B327,$F$1,$G$1,G327,$G$1,$F$1,H327,$F$1,$G$1,$F$1,$B$1,I327,$C$1,$F$1),CONCATENATE($F$1,C327,$F$1,$G$1, $F$1,B327,$F$1,$G$1,D327,$G$1,$F$1,$B$1,E327,$C$1,$F$1))</f>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M327" s="20" t="s">
@@ -8681,7 +8687,7 @@
     </row>
     <row r="328" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L328" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L328:L391" si="8">IF(C328="",CONCATENATE($F$1,F328,$F$1,$G$1,$F$1,B328,$F$1,$G$1,G328,$G$1,$F$1,H328,$F$1,$G$1,$F$1,$B$1,I328,$C$1,$F$1),CONCATENATE($F$1,C328,$F$1,$G$1, $F$1,B328,$F$1,$G$1,D328,$G$1,$F$1,$B$1,E328,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M328" s="20" t="s">
@@ -9248,7 +9254,7 @@
     </row>
     <row r="391" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L391" s="11" t="str">
-        <f t="shared" ref="L391:L399" si="9">IF(C391="",CONCATENATE($F$1,F391,$F$1,$G$1,$F$1,B391,$F$1,$G$1,G391,$G$1,$F$1,H391,$F$1,$G$1,$F$1,$B$1,I391,$C$1,$F$1),CONCATENATE($F$1,C391,$F$1,$G$1, $F$1,B391,$F$1,$G$1,D391,$G$1,$F$1,$B$1,E391,$C$1,$F$1))</f>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M391" s="20" t="s">
@@ -9257,7 +9263,7 @@
     </row>
     <row r="392" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L392" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L392:L400" si="9">IF(C392="",CONCATENATE($F$1,F392,$F$1,$G$1,$F$1,B392,$F$1,$G$1,G392,$G$1,$F$1,H392,$F$1,$G$1,$F$1,$B$1,I392,$C$1,$F$1),CONCATENATE($F$1,C392,$F$1,$G$1, $F$1,B392,$F$1,$G$1,D392,$G$1,$F$1,$B$1,E392,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M392" s="20" t="s">
@@ -9324,6 +9330,15 @@
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M399" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="400" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L400" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M400" s="20" t="s">
         <v>184</v>
       </c>
     </row>

--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6E5DBA-3A0F-455B-856F-4084B54F9D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADCE2CA-8EEA-457B-9A50-D8AD2AB9B8A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="538">
   <si>
     <t>Katowice</t>
   </si>
@@ -1434,15 +1434,9 @@
     <t>"MJ", "ST", 1, "(1)"</t>
   </si>
   <si>
-    <t>"MJ", "ST", 2, "(1)"</t>
-  </si>
-  <si>
     <t>"MJ-Mi", "Sem(odstep)", 1, "1", "(1)"</t>
   </si>
   <si>
-    <t>"Mi", "ST", 1, "(1)"</t>
-  </si>
-  <si>
     <t>"Mi", "ST", 2, "(1)"</t>
   </si>
   <si>
@@ -1579,6 +1573,75 @@
   </si>
   <si>
     <t>"GLC(KS)", "B-M", 200, "(N/A)"</t>
+  </si>
+  <si>
+    <t>"MJ", "ST", 3, "(2)"</t>
+  </si>
+  <si>
+    <t>"Mi", "ST", 1, "(2)"</t>
+  </si>
+  <si>
+    <t>GLC(KS)</t>
+  </si>
+  <si>
+    <t>GLC-Szo</t>
+  </si>
+  <si>
+    <t>Szo-GLC</t>
+  </si>
+  <si>
+    <t>SBL(odstep)</t>
+  </si>
+  <si>
+    <t>"GLC-Szo", "Sem(odstep)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"Szo-GLC", "SBL(odstep)", 2, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>KZ-Szb</t>
+  </si>
+  <si>
+    <t>Szb-KZ</t>
+  </si>
+  <si>
+    <t>KZ-Szb_1</t>
+  </si>
+  <si>
+    <t>Szb-KZ_3</t>
+  </si>
+  <si>
+    <t>KZ-SG</t>
+  </si>
+  <si>
+    <t>SG-KZ</t>
+  </si>
+  <si>
+    <t>"KZ-SG", "", 1, "1", "(3)"</t>
+  </si>
+  <si>
+    <t>"SG-KZ", "", 2, "3", "(3)"</t>
+  </si>
+  <si>
+    <t>"KZ-Szb_1", "SBL", 3, "2", "(2)"</t>
+  </si>
+  <si>
+    <t>"Szb-KZ_3", "SBL+Sem(ST)", 4, "1", "(3)"</t>
+  </si>
+  <si>
+    <t>CM-CS</t>
+  </si>
+  <si>
+    <t>CS-CM</t>
+  </si>
+  <si>
+    <t>Sem(odstęp)</t>
+  </si>
+  <si>
+    <t>"CM-CS", "Sem(odstęp)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"CS-CM", "Sem(odstęp)", 2, "1", "(1)"</t>
   </si>
 </sst>
 </file>
@@ -2156,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM400"/>
+  <dimension ref="A1:AM404"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+      <selection activeCell="M84" sqref="M84:M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2230,9 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="37.28515625" style="11" customWidth="1"/>
@@ -3044,7 +3109,7 @@
       </c>
       <c r="F23" s="17"/>
       <c r="L23" s="11" t="str">
-        <f t="shared" ref="L23:L135" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
+        <f t="shared" ref="L23:L139" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
         <v>"KO", "ST-M", 1114, "(N/A)"</v>
       </c>
       <c r="M23" s="11" t="s">
@@ -3788,7 +3853,7 @@
         <v>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N42" s="33" t="s">
         <v>336</v>
@@ -3865,14 +3930,14 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>340</v>
+        <v>533</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>535</v>
       </c>
       <c r="D45"/>
       <c r="F45" s="2" t="s">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>7</v>
@@ -3881,17 +3946,14 @@
         <v>7</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L45" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"CB-RCB-1", "SBL", 1, "1", "(3)"</v>
+        <v>"CM-CS", "Sem(odstęp)", 1, "1", "(1)"</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="N45" s="34">
-        <v>137</v>
+        <v>536</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -3901,33 +3963,30 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>339</v>
+        <v>534</v>
       </c>
       <c r="B46" t="s">
-        <v>345</v>
+        <v>535</v>
       </c>
       <c r="D46"/>
       <c r="F46" s="2" t="s">
-        <v>376</v>
+        <v>534</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L46" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"CB-RCB-2", "SBL+PO(Świętochłowice)", 1, "2", "(3)"</v>
+        <v>"CS-CM", "Sem(odstęp)", 2, "1", "(1)"</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="N46" s="34">
-        <v>137</v>
+        <v>537</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -3937,30 +3996,30 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D47"/>
       <c r="F47" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"CB-RCB-3", "SBL+Sem(ST)", 1, "3", "(3)"</v>
+        <v>"CB-RCB-1", "SBL", 1, "1", "(3)"</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N47" s="34">
         <v>137</v>
@@ -3973,30 +4032,30 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>345</v>
       </c>
       <c r="D48"/>
       <c r="F48" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB-CB-1", "SBL", 2, "1", "(3)"</v>
+        <v>"CB-RCB-2", "SBL+PO(Świętochłowice)", 1, "2", "(3)"</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N48" s="34">
         <v>137</v>
@@ -4009,30 +4068,30 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="D49"/>
       <c r="F49" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</v>
+        <v>"CB-RCB-3", "SBL+Sem(ST)", 1, "3", "(3)"</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N49" s="34">
         <v>137</v>
@@ -4045,30 +4104,30 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D50"/>
       <c r="F50" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB-CB-3", "SBL+Sem(ST)", 2, "3", "(3)"</v>
+        <v>"RCB-CB-1", "SBL", 2, "1", "(3)"</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N50" s="34">
         <v>137</v>
@@ -4081,26 +4140,30 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>7</v>
+        <v>345</v>
+      </c>
+      <c r="D51"/>
+      <c r="F51" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L51" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB", "ST", 1, "(1)"</v>
+        <v>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N51" s="34">
         <v>137</v>
@@ -4113,26 +4176,30 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="D52"/>
+      <c r="F52" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L52" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB", "ST", 2, "(1)"</v>
+        <v>"RCB-CB-3", "SBL+Sem(ST)", 2, "3", "(3)"</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N52" s="34">
         <v>137</v>
@@ -4145,30 +4212,26 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53"/>
-      <c r="F53" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="L53" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB-ZZ-1", "SBL", 1, "1", "(4)"</v>
+        <v>"RCB", "ST", 1, "(1)"</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N53" s="34">
         <v>137</v>
@@ -4181,30 +4244,26 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
-      </c>
-      <c r="D54"/>
-      <c r="F54" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="L54" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</v>
+        <v>"RCB", "ST", 2, "(1)"</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="N54" s="34">
         <v>137</v>
@@ -4217,30 +4276,30 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s">
         <v>67</v>
       </c>
       <c r="D55"/>
       <c r="F55" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB-ZZ-3", "SBL", 1, "3", "(4)"</v>
+        <v>"RCB-ZZ-1", "SBL", 1, "1", "(4)"</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N55" s="34">
         <v>137</v>
@@ -4253,30 +4312,30 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="D56"/>
       <c r="F56" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L56" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"RCB-ZZ-4", "SBL+Sem(ST)", 1, "4", "(4)"</v>
+        <v>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="N56" s="34">
         <v>137</v>
@@ -4289,30 +4348,30 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
       </c>
       <c r="D57"/>
       <c r="F57" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L57" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-RCB-1", "SBL", 2, "1", "(4)"</v>
+        <v>"RCB-ZZ-3", "SBL", 1, "3", "(4)"</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N57" s="34">
         <v>137</v>
@@ -4325,30 +4384,30 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D58"/>
       <c r="F58" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L58" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-RCB-2", "SBL", 2, "2", "(4)"</v>
+        <v>"RCB-ZZ-4", "SBL+Sem(ST)", 1, "4", "(4)"</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N58" s="34">
         <v>137</v>
@@ -4361,30 +4420,30 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s">
-        <v>345</v>
+        <v>67</v>
       </c>
       <c r="D59"/>
       <c r="F59" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L59" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</v>
+        <v>"ZZ-RCB-1", "SBL", 2, "1", "(4)"</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="N59" s="34">
         <v>137</v>
@@ -4397,30 +4456,30 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D60"/>
       <c r="F60" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L60" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-RCB-4", "SBL+Sem(ST)", 2, "4", "(4)"</v>
+        <v>"ZZ-RCB-2", "SBL", 2, "2", "(4)"</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N60" s="34">
         <v>137</v>
@@ -4433,26 +4492,30 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>7</v>
+        <v>345</v>
+      </c>
+      <c r="D61"/>
+      <c r="F61" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L61" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ", "ST", 1, "(1)"</v>
+        <v>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="N61" s="34">
         <v>137</v>
@@ -4465,26 +4528,30 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="D62"/>
+      <c r="F62" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L62" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ", "ST", 2, "(1)"</v>
+        <v>"ZZ-RCB-4", "SBL+Sem(ST)", 2, "4", "(4)"</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N62" s="34">
         <v>137</v>
@@ -4497,30 +4564,26 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63"/>
-      <c r="F63" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="L63" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-GLC-1", "SBL", 1, "1", "(5)"</v>
+        <v>"ZZ", "ST", 1, "(1)"</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N63" s="34">
         <v>137</v>
@@ -4533,30 +4596,26 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64"/>
-      <c r="F64" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="L64" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-GLC-2", "SBL", 1, "2", "(5)"</v>
+        <v>"ZZ", "ST", 2, "(1)"</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N64" s="34">
         <v>137</v>
@@ -4569,32 +4628,34 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
       </c>
       <c r="D65"/>
       <c r="F65" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L65" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-GLC-3", "SBL", 1, "3", "(5)"</v>
+        <v>"ZZ-GLC-1", "SBL", 1, "1", "(5)"</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="N65" s="34"/>
+        <v>455</v>
+      </c>
+      <c r="N65" s="34">
+        <v>137</v>
+      </c>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="12"/>
@@ -4603,32 +4664,34 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="D66"/>
       <c r="F66" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L66" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-GLC-4", "SBL", 1, "4", "(5)"</v>
+        <v>"ZZ-GLC-2", "SBL", 1, "2", "(5)"</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="N66" s="34"/>
+        <v>456</v>
+      </c>
+      <c r="N66" s="34">
+        <v>137</v>
+      </c>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="12"/>
@@ -4637,32 +4700,34 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D67"/>
       <c r="F67" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L67" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"ZZ-GLC-5", "SBL+Sem(ST)", 1, "5", "(5)"</v>
+        <v>"ZZ-GLC-3", "SBL", 1, "3", "(5)"</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="N67" s="34"/>
+        <v>457</v>
+      </c>
+      <c r="N67" s="34">
+        <v>137</v>
+      </c>
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
       <c r="Q67" s="12"/>
@@ -4671,32 +4736,34 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
       <c r="D68"/>
       <c r="F68" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L68" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC-ZZ-1", "SBL", 2, "1", "(5)"</v>
+        <v>"ZZ-GLC-4", "SBL", 1, "4", "(5)"</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="N68" s="34"/>
+        <v>458</v>
+      </c>
+      <c r="N68" s="34">
+        <v>137</v>
+      </c>
       <c r="O68" s="14"/>
       <c r="P68" s="14"/>
       <c r="Q68" s="12"/>
@@ -4705,32 +4772,34 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D69"/>
       <c r="F69" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L69" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC-ZZ-2", "SBL", 2, "2", "(5)"</v>
+        <v>"ZZ-GLC-5", "SBL+Sem(ST)", 1, "5", "(5)"</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="N69" s="34"/>
+        <v>459</v>
+      </c>
+      <c r="N69" s="34">
+        <v>137</v>
+      </c>
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
       <c r="Q69" s="12"/>
@@ -4739,32 +4808,34 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B70" t="s">
         <v>67</v>
       </c>
       <c r="D70"/>
       <c r="F70" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L70" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC-ZZ-3", "SBL", 2, "3", "(5)"</v>
+        <v>"GLC-ZZ-1", "SBL", 2, "1", "(5)"</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="N70" s="34"/>
+        <v>460</v>
+      </c>
+      <c r="N70" s="34">
+        <v>137</v>
+      </c>
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
       <c r="Q70" s="12"/>
@@ -4773,32 +4844,34 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
       </c>
       <c r="D71"/>
       <c r="F71" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L71" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC-ZZ-4", "SBL", 2, "4", "(5)"</v>
+        <v>"GLC-ZZ-2", "SBL", 2, "2", "(5)"</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="N71" s="34"/>
+        <v>461</v>
+      </c>
+      <c r="N71" s="34">
+        <v>137</v>
+      </c>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="12"/>
@@ -4807,32 +4880,34 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D72"/>
       <c r="F72" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L72" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC-ZZ-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
+        <v>"GLC-ZZ-3", "SBL", 2, "3", "(5)"</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="N72" s="34"/>
+        <v>462</v>
+      </c>
+      <c r="N72" s="34">
+        <v>137</v>
+      </c>
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
       <c r="Q72" s="12"/>
@@ -4841,28 +4916,34 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="D73"/>
+      <c r="F73" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="L73" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC", "ST", 3, "(1)"</v>
+        <v>"GLC-ZZ-4", "SBL", 2, "4", "(5)"</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="N73" s="34"/>
+        <v>463</v>
+      </c>
+      <c r="N73" s="34">
+        <v>137</v>
+      </c>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="12"/>
@@ -4871,28 +4952,34 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="D74"/>
+      <c r="F74" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="L74" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC", "ST", 4, "(1)"</v>
+        <v>"GLC-ZZ-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="N74" s="34"/>
+        <v>464</v>
+      </c>
+      <c r="N74" s="34">
+        <v>137</v>
+      </c>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="12"/>
@@ -4910,19 +4997,21 @@
         <v>369</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L75" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC", "ST", 5, "(2)"</v>
+        <v>"GLC", "ST", 3, "(1)"</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="N75" s="34"/>
+        <v>503</v>
+      </c>
+      <c r="N75" s="34">
+        <v>137</v>
+      </c>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
       <c r="Q75" s="12"/>
@@ -4940,19 +5029,21 @@
         <v>369</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L76" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC", "ST", 6, "(2)"</v>
+        <v>"GLC", "ST", 4, "(1)"</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="N76" s="34"/>
+        <v>504</v>
+      </c>
+      <c r="N76" s="34">
+        <v>137</v>
+      </c>
       <c r="O76" s="14"/>
       <c r="P76" s="14"/>
       <c r="Q76" s="12"/>
@@ -4970,19 +5061,21 @@
         <v>369</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L77" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC", "ST", 7, "(3)"</v>
+        <v>"GLC", "ST", 5, "(2)"</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="N77" s="34"/>
+        <v>505</v>
+      </c>
+      <c r="N77" s="34">
+        <v>137</v>
+      </c>
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
       <c r="Q77" s="12"/>
@@ -5000,19 +5093,21 @@
         <v>369</v>
       </c>
       <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="L78" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC", "ST", 8, "(3)"</v>
+        <v>"GLC", "ST", 6, "(2)"</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="N78" s="34"/>
+        <v>506</v>
+      </c>
+      <c r="N78" s="34">
+        <v>137</v>
+      </c>
       <c r="O78" s="14"/>
       <c r="P78" s="14"/>
       <c r="Q78" s="12"/>
@@ -5030,17 +5125,17 @@
         <v>369</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L79" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC", "ST", 9, "(4)"</v>
+        <v>"GLC", "ST", 7, "(3)"</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="N79" s="34">
         <v>137</v>
@@ -5062,17 +5157,17 @@
         <v>369</v>
       </c>
       <c r="D80">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L80" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"GLC", "ST", 11, "(4)"</v>
+        <v>"GLC", "ST", 8, "(3)"</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N80" s="34">
         <v>137</v>
@@ -5084,11 +5179,31 @@
       <c r="S80" s="12"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D81"/>
+      <c r="A81" t="s">
+        <v>368</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>"GLC", "ST", 9, "(4)"</v>
+      </c>
       <c r="M81" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="N81" s="34"/>
+        <v>509</v>
+      </c>
+      <c r="N81" s="34">
+        <v>137</v>
+      </c>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="12"/>
@@ -5097,32 +5212,29 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L82" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bugla-Bry-1", "Sem(ST)+SBL", 1, "1", "(2)"</v>
+        <v>"GLC", "ST", 11, "(4)"</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="N82" s="33" t="s">
-        <v>337</v>
+        <v>510</v>
+      </c>
+      <c r="N82" s="34">
+        <v>137</v>
       </c>
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
@@ -5132,32 +5244,29 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>517</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>8</v>
+        <v>149</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D83">
+        <v>200</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="L83" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bugla-Bry-2", "SBL+Sem(PODG)", 1, "2", "(2)"</v>
+        <v>"GLC", "B-M", 200, "(N/A)"</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="N83" s="33" t="s">
-        <v>337</v>
+        <v>514</v>
+      </c>
+      <c r="N83" s="34">
+        <v>137</v>
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
@@ -5167,16 +5276,17 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>312</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="D84"/>
       <c r="F84" s="2" t="s">
-        <v>312</v>
+        <v>518</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>7</v>
@@ -5186,13 +5296,13 @@
       </c>
       <c r="L84" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry", "PODG", 2, "1", "(1)"</v>
+        <v>"GLC-Szo", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="N84" s="33" t="s">
-        <v>337</v>
+        <v>521</v>
+      </c>
+      <c r="N84" s="34">
+        <v>137</v>
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
@@ -5202,16 +5312,17 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="D85"/>
       <c r="F85" s="2" t="s">
-        <v>312</v>
+        <v>519</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>7</v>
@@ -5221,13 +5332,13 @@
       </c>
       <c r="L85" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry", "PODG", 1, "1", "(1)"</v>
+        <v>"Szo-GLC", "SBL(odstep)", 2, "1", "(1)"</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="N85" s="33" t="s">
-        <v>337</v>
+        <v>522</v>
+      </c>
+      <c r="N85" s="34">
+        <v>137</v>
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
@@ -5237,29 +5348,29 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="B86" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L86" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KO", "PODG+Sem(ST)", 2, "1", "(1)"</v>
+        <v>"KO-Bugla-Bry-1", "Sem(ST)+SBL", 1, "1", "(2)"</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="N86" s="33" t="s">
         <v>337</v>
@@ -5272,29 +5383,29 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L87" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KO-Bry", "ST+Sem(PODG)", 3, "1", "(1)"</v>
+        <v>"KO-Bugla-Bry-2", "SBL+Sem(PODG)", 1, "2", "(2)"</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="N87" s="33" t="s">
         <v>337</v>
@@ -5307,29 +5418,29 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L88" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KL-1", "SBL+POGP", 1, "1", "(2)"</v>
+        <v>"Bry", "PODG", 2, "1", "(1)"</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="N88" s="33" t="s">
         <v>337</v>
@@ -5342,29 +5453,29 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>223</v>
+        <v>312</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L89" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"Bry-KL-2", "SBL+Sem(ST)", 1, "2", "(2)"</v>
+        <v>"Bry", "PODG", 1, "1", "(1)"</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="N89" s="33" t="s">
         <v>337</v>
@@ -5377,13 +5488,13 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>8</v>
@@ -5392,14 +5503,14 @@
         <v>7</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L90" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-Bry-1", "SBL", 2, "1", "(2)"</v>
+        <v>"Bry-KO", "PODG+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="N90" s="33" t="s">
         <v>337</v>
@@ -5412,29 +5523,29 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L91" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-Bry-2", "SBL+Sem(PODG)", 2, "2", "(2)"</v>
+        <v>"KO-Bry", "ST+Sem(PODG)", 3, "1", "(1)"</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="N91" s="33" t="s">
         <v>337</v>
@@ -5447,26 +5558,29 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="H92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L92" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 1, "(2)"</v>
+        <v>"Bry-KL-1", "SBL+POGP", 1, "1", "(2)"</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N92" s="33" t="s">
         <v>337</v>
@@ -5479,26 +5593,29 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L93" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 2, "(2)"</v>
+        <v>"Bry-KL-2", "SBL+Sem(ST)", 1, "2", "(2)"</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N93" s="33" t="s">
         <v>337</v>
@@ -5511,26 +5628,29 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL", "ST", 3, "(1)"</v>
+        <v>"KL-Bry-1", "SBL", 2, "1", "(2)"</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N94" s="33" t="s">
         <v>337</v>
@@ -5543,32 +5663,32 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>416</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>373</v>
+        <v>225</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L95" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KL-MJ-1", "Sem(odstep)+PO(Piotrowice)", 1, "1", "(2)"</v>
+        <v>"KL-Bry-2", "SBL+Sem(PODG)", 2, "2", "(2)"</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>465</v>
+        <v>286</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
@@ -5578,32 +5698,29 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>371</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>372</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L96" s="11" t="str">
-        <f t="shared" ref="L96:L122" si="2">IF(C96="",CONCATENATE($F$1,F96,$F$1,$G$1,$F$1,B96,$F$1,$G$1,G96,$G$1,$F$1,H96,$F$1,$G$1,$F$1,$B$1,I96,$C$1,$F$1),CONCATENATE($F$1,C96,$F$1,$G$1, $F$1,B96,$F$1,$G$1,D96,$G$1,$F$1,$B$1,E96,$C$1,$F$1))</f>
-        <v>"KL-MJ-2", "Sem(odstep)", 1, "2", "(2)"</v>
+        <f t="shared" si="1"/>
+        <v>"KL", "ST", 1, "(2)"</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>466</v>
+        <v>287</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
@@ -5613,29 +5730,29 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>399</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>400</v>
+        <v>112</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L97" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"MJ", "ST", 1, "(1)"</v>
+        <f t="shared" si="1"/>
+        <v>"KL", "ST", 2, "(2)"</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>467</v>
+        <v>288</v>
       </c>
       <c r="N97" s="33" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
@@ -5645,29 +5762,29 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>399</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>400</v>
+        <v>112</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L98" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"MJ", "ST", 2, "(1)"</v>
+        <f t="shared" si="1"/>
+        <v>"KL", "ST", 3, "(1)"</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>468</v>
+        <v>289</v>
       </c>
       <c r="N98" s="33" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="O98" s="14"/>
       <c r="P98" s="14"/>
@@ -5677,13 +5794,13 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B99" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>7</v>
@@ -5692,14 +5809,14 @@
         <v>7</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L99" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"MJ-Mi", "Sem(odstep)", 1, "1", "(1)"</v>
+        <f t="shared" si="1"/>
+        <v>"KL-MJ-1", "Sem(odstep)+PO(Piotrowice)", 1, "1", "(2)"</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N99" s="33" t="s">
         <v>403</v>
@@ -5712,26 +5829,29 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D100" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>7</v>
+      <c r="H100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L100" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"Mi", "ST", 1, "(1)"</v>
+        <f t="shared" ref="L100:L126" si="2">IF(C100="",CONCATENATE($F$1,F100,$F$1,$G$1,$F$1,B100,$F$1,$G$1,G100,$G$1,$F$1,H100,$F$1,$G$1,$F$1,$B$1,I100,$C$1,$F$1),CONCATENATE($F$1,C100,$F$1,$G$1, $F$1,B100,$F$1,$G$1,D100,$G$1,$F$1,$B$1,E100,$C$1,$F$1))</f>
+        <v>"KL-MJ-2", "Sem(odstep)", 1, "2", "(2)"</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N100" s="33" t="s">
         <v>403</v>
@@ -5744,26 +5864,26 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L101" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mi", "ST", 2, "(1)"</v>
+        <v>"MJ", "ST", 1, "(1)"</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N101" s="33" t="s">
         <v>403</v>
@@ -5776,32 +5896,29 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B102" t="s">
-        <v>417</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="L102" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</v>
+        <v>"MJ", "ST", 2, "(1)"</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="N102" s="33" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="O102" s="14"/>
       <c r="P102" s="14"/>
@@ -5811,32 +5928,32 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>419</v>
+        <v>7</v>
       </c>
       <c r="L103" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-2", "SBL", 1, "2", "(6)"</v>
+        <v>"MJ-Mi", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N103" s="33" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="O103" s="14"/>
       <c r="P103" s="14"/>
@@ -5846,32 +5963,29 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>419</v>
+      <c r="E104" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L104" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-3", "SBL", 1, "3", "(6)"</v>
+        <v>"Mi", "ST", 1, "(2)"</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="N104" s="33" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="O104" s="14"/>
       <c r="P104" s="14"/>
@@ -5881,32 +5995,29 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B105" t="s">
-        <v>418</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="L105" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</v>
+        <v>"Mi", "ST", 2, "(1)"</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N105" s="33" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="O105" s="14"/>
       <c r="P105" s="14"/>
@@ -5916,29 +6027,29 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>419</v>
       </c>
       <c r="L106" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-5", "SBL", 1, "5", "(6)"</v>
+        <v>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N106" s="33" t="s">
         <v>337</v>
@@ -5951,29 +6062,29 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>419</v>
+        <v>8</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>419</v>
       </c>
       <c r="L107" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</v>
+        <v>"KL-Mc-2", "SBL", 1, "2", "(6)"</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="N107" s="33" t="s">
         <v>337</v>
@@ -5986,29 +6097,29 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B108" t="s">
         <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="L108" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-1", "SBL", 2, "1", "(5)"</v>
+        <v>"KL-Mc-3", "SBL", 1, "3", "(6)"</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="N108" s="33" t="s">
         <v>337</v>
@@ -6021,29 +6132,29 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B109" t="s">
         <v>418</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="L109" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</v>
+        <v>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="N109" s="33" t="s">
         <v>337</v>
@@ -6056,29 +6167,29 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B110" t="s">
         <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="L110" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-3", "SBL", 2, "3", "(5)"</v>
+        <v>"KL-Mc-5", "SBL", 1, "5", "(6)"</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="N110" s="33" t="s">
         <v>337</v>
@@ -6091,29 +6202,29 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>9</v>
+        <v>419</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="L111" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-4", "SBL", 2, "4", "(5)"</v>
+        <v>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="N111" s="33" t="s">
         <v>337</v>
@@ -6126,29 +6237,29 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L112" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
+        <v>"Mc-KL-1", "SBL", 2, "1", "(5)"</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="N112" s="33" t="s">
         <v>337</v>
@@ -6161,26 +6272,29 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>418</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="L113" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 1, "(N/A)"</v>
+        <v>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="N113" s="33" t="s">
         <v>337</v>
@@ -6193,26 +6307,32 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D114" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>105</v>
+      <c r="H114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="L114" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 2, "(N/A)"</v>
+        <v>"Mc-KL-3", "SBL", 2, "3", "(5)"</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>479</v>
+        <v>494</v>
+      </c>
+      <c r="N114" s="33" t="s">
+        <v>337</v>
       </c>
       <c r="O114" s="14"/>
       <c r="P114" s="14"/>
@@ -6222,26 +6342,32 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="L115" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 3, "(N/A)"</v>
+        <v>"Mc-KL-4", "SBL", 2, "4", "(5)"</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>480</v>
+        <v>495</v>
+      </c>
+      <c r="N115" s="33" t="s">
+        <v>337</v>
       </c>
       <c r="O115" s="14"/>
       <c r="P115" s="14"/>
@@ -6251,29 +6377,29 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B116" t="s">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="L116" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</v>
+        <v>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="N116" s="33" t="s">
         <v>337</v>
@@ -6286,29 +6412,26 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="B117" t="s">
-        <v>372</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>7</v>
+      <c r="E117" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="L117" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</v>
+        <v>"Mc", "PODG", 1, "(N/A)"</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="N117" s="33" t="s">
         <v>337</v>
@@ -6321,29 +6444,26 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="B118" t="s">
-        <v>433</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="L118" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</v>
+        <v>"Mc", "PODG", 2, "(N/A)"</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="N118" s="33" t="s">
         <v>337</v>
@@ -6356,26 +6476,26 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>499</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L119" s="11" t="str">
-        <f t="shared" ref="L119:L121" si="3">IF(C119="",CONCATENATE($F$1,F119,$F$1,$G$1,$F$1,B119,$F$1,$G$1,G119,$G$1,$F$1,H119,$F$1,$G$1,$F$1,$B$1,I119,$C$1,$F$1),CONCATENATE($F$1,C119,$F$1,$G$1, $F$1,B119,$F$1,$G$1,D119,$G$1,$F$1,$B$1,E119,$C$1,$F$1))</f>
-        <v>"Ty", "ST", 101, "(N/A)"</v>
+        <f t="shared" si="2"/>
+        <v>"Mc", "PODG", 3, "(N/A)"</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="N119" s="33" t="s">
         <v>337</v>
@@ -6388,26 +6508,29 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>426</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L120" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>"Ty", "ST", 102, "(N/A)"</v>
+        <f t="shared" si="2"/>
+        <v>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="N120" s="33" t="s">
         <v>337</v>
@@ -6420,26 +6543,29 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>105</v>
+        <v>372</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L121" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>"Ty", "ST", 108, "(N/A)"</v>
+        <f t="shared" si="2"/>
+        <v>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="N121" s="33" t="s">
         <v>337</v>
@@ -6452,26 +6578,29 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D122" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>8</v>
+      <c r="I122" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L122" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Ty", "ST", 1, "(2)"</v>
+        <v>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N122" s="33" t="s">
         <v>337</v>
@@ -6493,17 +6622,17 @@
         <v>428</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>8</v>
+        <v>497</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="L123" s="11" t="str">
-        <f t="shared" ref="L123:L126" si="4">IF(C123="",CONCATENATE($F$1,F123,$F$1,$G$1,$F$1,B123,$F$1,$G$1,G123,$G$1,$F$1,H123,$F$1,$G$1,$F$1,$B$1,I123,$C$1,$F$1),CONCATENATE($F$1,C123,$F$1,$G$1, $F$1,B123,$F$1,$G$1,D123,$G$1,$F$1,$B$1,E123,$C$1,$F$1))</f>
-        <v>"Ty", "ST", 2, "(2)"</v>
+        <f t="shared" ref="L123:L125" si="3">IF(C123="",CONCATENATE($F$1,F123,$F$1,$G$1,$F$1,B123,$F$1,$G$1,G123,$G$1,$F$1,H123,$F$1,$G$1,$F$1,$B$1,I123,$C$1,$F$1),CONCATENATE($F$1,C123,$F$1,$G$1, $F$1,B123,$F$1,$G$1,D123,$G$1,$F$1,$B$1,E123,$C$1,$F$1))</f>
+        <v>"Ty", "ST", 101, "(N/A)"</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="N123" s="33" t="s">
         <v>337</v>
@@ -6525,17 +6654,17 @@
         <v>428</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="L124" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>"Ty", "ST", 8, "(1)"</v>
+        <f t="shared" si="3"/>
+        <v>"Ty", "ST", 102, "(N/A)"</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="N124" s="33" t="s">
         <v>337</v>
@@ -6557,17 +6686,17 @@
         <v>428</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="L125" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>"Ty", "ST", 7, "(3)"</v>
+        <f t="shared" si="3"/>
+        <v>"Ty", "ST", 108, "(N/A)"</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="N125" s="33" t="s">
         <v>337</v>
@@ -6589,17 +6718,17 @@
         <v>428</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L126" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>"Ty", "ST", 9, "(3)"</v>
+        <f t="shared" si="2"/>
+        <v>"Ty", "ST", 1, "(2)"</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="N126" s="33" t="s">
         <v>337</v>
@@ -6612,32 +6741,29 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>116</v>
+        <v>429</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
-      </c>
-      <c r="F127" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L127" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
+        <f t="shared" ref="L127:L130" si="4">IF(C127="",CONCATENATE($F$1,F127,$F$1,$G$1,$F$1,B127,$F$1,$G$1,G127,$G$1,$F$1,H127,$F$1,$G$1,$F$1,$B$1,I127,$C$1,$F$1),CONCATENATE($F$1,C127,$F$1,$G$1, $F$1,B127,$F$1,$G$1,D127,$G$1,$F$1,$B$1,E127,$C$1,$F$1))</f>
+        <v>"Ty", "ST", 2, "(2)"</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="N127" s="33" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="O127" s="14"/>
       <c r="P127" s="14"/>
@@ -6647,32 +6773,29 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>117</v>
+        <v>429</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
-      </c>
-      <c r="F128" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I128" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="L128" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Ty", "ST", 8, "(1)"</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>291</v>
+        <v>484</v>
       </c>
       <c r="N128" s="33" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="O128" s="14"/>
       <c r="P128" s="14"/>
@@ -6682,32 +6805,29 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>429</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
-      </c>
-      <c r="F129" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H129" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="L129" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Ty", "ST", 7, "(3)"</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>292</v>
+        <v>485</v>
       </c>
       <c r="N129" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O129" s="14"/>
       <c r="P129" s="14"/>
@@ -6717,32 +6837,29 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>429</v>
       </c>
       <c r="B130" t="s">
-        <v>77</v>
-      </c>
-      <c r="F130" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L130" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Ty", "ST", 9, "(3)"</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>293</v>
+        <v>486</v>
       </c>
       <c r="N130" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O130" s="14"/>
       <c r="P130" s="14"/>
@@ -6752,26 +6869,29 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" t="s">
-        <v>144</v>
-      </c>
-      <c r="D131" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="H131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L131" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 1, "(1)"</v>
+        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N131" s="33" t="s">
         <v>7</v>
@@ -6784,26 +6904,29 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" t="s">
-        <v>144</v>
-      </c>
-      <c r="D132" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="H132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L132" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 2, "(1)"</v>
+        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N132" s="33" t="s">
         <v>7</v>
@@ -6816,26 +6939,29 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" t="s">
-        <v>144</v>
-      </c>
-      <c r="D133" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>8</v>
+      <c r="H133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L133" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 3, "(2)"</v>
+        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N133" s="33" t="s">
         <v>338</v>
@@ -6848,26 +6974,29 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" t="s">
-        <v>144</v>
-      </c>
-      <c r="D134" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>8</v>
+      <c r="H134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L134" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 4, "(2)"</v>
+        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N134" s="33" t="s">
         <v>338</v>
@@ -6879,12 +7008,30 @@
       <c r="S134" s="12"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>144</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L135" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"", "", , "", "()"</v>
+        <v>"KZ", "ST", 1, "(1)"</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>184</v>
+        <v>294</v>
+      </c>
+      <c r="N135" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
@@ -6893,12 +7040,30 @@
       <c r="S135" s="12"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L136" s="11" t="str">
-        <f t="shared" ref="L136:L199" si="5">IF(C136="",CONCATENATE($F$1,F136,$F$1,$G$1,$F$1,B136,$F$1,$G$1,G136,$G$1,$F$1,H136,$F$1,$G$1,$F$1,$B$1,I136,$C$1,$F$1),CONCATENATE($F$1,C136,$F$1,$G$1, $F$1,B136,$F$1,$G$1,D136,$G$1,$F$1,$B$1,E136,$C$1,$F$1))</f>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 2, "(1)"</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>184</v>
+        <v>295</v>
+      </c>
+      <c r="N136" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
@@ -6907,12 +7072,30 @@
       <c r="S136" s="12"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>144</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L137" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 3, "(2)"</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>184</v>
+        <v>296</v>
+      </c>
+      <c r="N137" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="O137" s="14"/>
       <c r="P137" s="14"/>
@@ -6921,12 +7104,30 @@
       <c r="S137" s="12"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L138" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 4, "(2)"</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>184</v>
+        <v>297</v>
+      </c>
+      <c r="N138" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="O138" s="14"/>
       <c r="P138" s="14"/>
@@ -6935,12 +7136,27 @@
       <c r="S138" s="12"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>527</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L139" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ-SG", "", 1, "1", "(3)"</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>184</v>
+        <v>529</v>
       </c>
       <c r="O139" s="14"/>
       <c r="P139" s="14"/>
@@ -6949,12 +7165,27 @@
       <c r="S139" s="12"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>528</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L140" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" ref="L140:L203" si="5">IF(C140="",CONCATENATE($F$1,F140,$F$1,$G$1,$F$1,B140,$F$1,$G$1,G140,$G$1,$F$1,H140,$F$1,$G$1,$F$1,$B$1,I140,$C$1,$F$1),CONCATENATE($F$1,C140,$F$1,$G$1, $F$1,B140,$F$1,$G$1,D140,$G$1,$F$1,$B$1,E140,$C$1,$F$1))</f>
+        <v>"SG-KZ", "", 2, "3", "(3)"</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>184</v>
+        <v>530</v>
       </c>
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
@@ -6963,12 +7194,30 @@
       <c r="S140" s="12"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>523</v>
+      </c>
+      <c r="B141" t="s">
+        <v>67</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L141" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <v>"KZ-Szb_1", "SBL", 3, "2", "(2)"</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>184</v>
+        <v>531</v>
       </c>
       <c r="O141" s="14"/>
       <c r="P141" s="14"/>
@@ -6977,12 +7226,30 @@
       <c r="S141" s="12"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>524</v>
+      </c>
+      <c r="B142" t="s">
+        <v>77</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L142" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <v>"Szb-KZ_3", "SBL+Sem(ST)", 4, "1", "(3)"</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>184</v>
+        <v>532</v>
       </c>
       <c r="O142" s="14"/>
       <c r="P142" s="14"/>
@@ -7082,6 +7349,11 @@
       <c r="M149" s="20" t="s">
         <v>184</v>
       </c>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
     </row>
     <row r="150" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L150" s="11" t="str">
@@ -7091,6 +7363,11 @@
       <c r="M150" s="20" t="s">
         <v>184</v>
       </c>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
     </row>
     <row r="151" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L151" s="11" t="str">
@@ -7100,6 +7377,11 @@
       <c r="M151" s="20" t="s">
         <v>184</v>
       </c>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
     </row>
     <row r="152" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L152" s="11" t="str">
@@ -7109,6 +7391,11 @@
       <c r="M152" s="20" t="s">
         <v>184</v>
       </c>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
     </row>
     <row r="153" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L153" s="11" t="str">
@@ -7535,7 +7822,7 @@
     </row>
     <row r="200" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L200" s="11" t="str">
-        <f t="shared" ref="L200:L263" si="6">IF(C200="",CONCATENATE($F$1,F200,$F$1,$G$1,$F$1,B200,$F$1,$G$1,G200,$G$1,$F$1,H200,$F$1,$G$1,$F$1,$B$1,I200,$C$1,$F$1),CONCATENATE($F$1,C200,$F$1,$G$1, $F$1,B200,$F$1,$G$1,D200,$G$1,$F$1,$B$1,E200,$C$1,$F$1))</f>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M200" s="20" t="s">
@@ -7544,7 +7831,7 @@
     </row>
     <row r="201" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L201" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M201" s="20" t="s">
@@ -7553,7 +7840,7 @@
     </row>
     <row r="202" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L202" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M202" s="20" t="s">
@@ -7562,7 +7849,7 @@
     </row>
     <row r="203" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L203" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M203" s="20" t="s">
@@ -7571,7 +7858,7 @@
     </row>
     <row r="204" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L204" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L204:L267" si="6">IF(C204="",CONCATENATE($F$1,F204,$F$1,$G$1,$F$1,B204,$F$1,$G$1,G204,$G$1,$F$1,H204,$F$1,$G$1,$F$1,$B$1,I204,$C$1,$F$1),CONCATENATE($F$1,C204,$F$1,$G$1, $F$1,B204,$F$1,$G$1,D204,$G$1,$F$1,$B$1,E204,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M204" s="20" t="s">
@@ -8111,7 +8398,7 @@
     </row>
     <row r="264" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L264" s="11" t="str">
-        <f t="shared" ref="L264:L327" si="7">IF(C264="",CONCATENATE($F$1,F264,$F$1,$G$1,$F$1,B264,$F$1,$G$1,G264,$G$1,$F$1,H264,$F$1,$G$1,$F$1,$B$1,I264,$C$1,$F$1),CONCATENATE($F$1,C264,$F$1,$G$1, $F$1,B264,$F$1,$G$1,D264,$G$1,$F$1,$B$1,E264,$C$1,$F$1))</f>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M264" s="20" t="s">
@@ -8120,7 +8407,7 @@
     </row>
     <row r="265" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L265" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M265" s="20" t="s">
@@ -8129,7 +8416,7 @@
     </row>
     <row r="266" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L266" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M266" s="20" t="s">
@@ -8138,7 +8425,7 @@
     </row>
     <row r="267" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L267" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M267" s="20" t="s">
@@ -8147,7 +8434,7 @@
     </row>
     <row r="268" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L268" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L268:L331" si="7">IF(C268="",CONCATENATE($F$1,F268,$F$1,$G$1,$F$1,B268,$F$1,$G$1,G268,$G$1,$F$1,H268,$F$1,$G$1,$F$1,$B$1,I268,$C$1,$F$1),CONCATENATE($F$1,C268,$F$1,$G$1, $F$1,B268,$F$1,$G$1,D268,$G$1,$F$1,$B$1,E268,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M268" s="20" t="s">
@@ -8687,7 +8974,7 @@
     </row>
     <row r="328" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L328" s="11" t="str">
-        <f t="shared" ref="L328:L391" si="8">IF(C328="",CONCATENATE($F$1,F328,$F$1,$G$1,$F$1,B328,$F$1,$G$1,G328,$G$1,$F$1,H328,$F$1,$G$1,$F$1,$B$1,I328,$C$1,$F$1),CONCATENATE($F$1,C328,$F$1,$G$1, $F$1,B328,$F$1,$G$1,D328,$G$1,$F$1,$B$1,E328,$C$1,$F$1))</f>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M328" s="20" t="s">
@@ -8696,7 +8983,7 @@
     </row>
     <row r="329" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L329" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M329" s="20" t="s">
@@ -8705,7 +8992,7 @@
     </row>
     <row r="330" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L330" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M330" s="20" t="s">
@@ -8714,7 +9001,7 @@
     </row>
     <row r="331" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L331" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M331" s="20" t="s">
@@ -8723,7 +9010,7 @@
     </row>
     <row r="332" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L332" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L332:L395" si="8">IF(C332="",CONCATENATE($F$1,F332,$F$1,$G$1,$F$1,B332,$F$1,$G$1,G332,$G$1,$F$1,H332,$F$1,$G$1,$F$1,$B$1,I332,$C$1,$F$1),CONCATENATE($F$1,C332,$F$1,$G$1, $F$1,B332,$F$1,$G$1,D332,$G$1,$F$1,$B$1,E332,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M332" s="20" t="s">
@@ -9263,7 +9550,7 @@
     </row>
     <row r="392" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L392" s="11" t="str">
-        <f t="shared" ref="L392:L400" si="9">IF(C392="",CONCATENATE($F$1,F392,$F$1,$G$1,$F$1,B392,$F$1,$G$1,G392,$G$1,$F$1,H392,$F$1,$G$1,$F$1,$B$1,I392,$C$1,$F$1),CONCATENATE($F$1,C392,$F$1,$G$1, $F$1,B392,$F$1,$G$1,D392,$G$1,$F$1,$B$1,E392,$C$1,$F$1))</f>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M392" s="20" t="s">
@@ -9272,7 +9559,7 @@
     </row>
     <row r="393" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L393" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M393" s="20" t="s">
@@ -9281,7 +9568,7 @@
     </row>
     <row r="394" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L394" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M394" s="20" t="s">
@@ -9290,7 +9577,7 @@
     </row>
     <row r="395" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L395" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M395" s="20" t="s">
@@ -9299,7 +9586,7 @@
     </row>
     <row r="396" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L396" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L396:L404" si="9">IF(C396="",CONCATENATE($F$1,F396,$F$1,$G$1,$F$1,B396,$F$1,$G$1,G396,$G$1,$F$1,H396,$F$1,$G$1,$F$1,$B$1,I396,$C$1,$F$1),CONCATENATE($F$1,C396,$F$1,$G$1, $F$1,B396,$F$1,$G$1,D396,$G$1,$F$1,$B$1,E396,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M396" s="20" t="s">
@@ -9339,6 +9626,42 @@
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M400" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="401" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L401" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M401" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="402" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L402" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M402" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="403" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L403" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M403" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="404" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L404" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M404" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -13139,12 +13462,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CD5458B81A8B2B4B92FF87D810305C72" ma:contentTypeVersion="10" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="94af6a530ab954c472b36ae778f182c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcc645c8-4b47-4a2e-89eb-d5bbcced8466" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ef69444b0b6df3a2aca9b298e9665c5" ns3:_="">
     <xsd:import namespace="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
@@ -13328,6 +13645,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
   <ds:schemaRefs>
@@ -13337,22 +13660,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBCE1FC-4F3C-4CE6-A38A-EF0D12121C1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13368,4 +13675,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADCE2CA-8EEA-457B-9A50-D8AD2AB9B8A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF151E6-60FE-45D9-B42E-AD889AE151D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="555">
   <si>
     <t>Katowice</t>
   </si>
@@ -1563,21 +1563,6 @@
     <t>"GLC", "ST", 11, "(4)"</t>
   </si>
   <si>
-    <t>"CM-CB", "SBL+Sem(ST)", 2, "1", "(1)"</t>
-  </si>
-  <si>
-    <t>"RCB-ZZ-2", "SBL+PO(Ruda Śląska)", 1, "2", "(4)"</t>
-  </si>
-  <si>
-    <t>"ZZ-RCB-3", "SBL+PO(Ruda Śląska)", 2, "3", "(4)"</t>
-  </si>
-  <si>
-    <t>"GLC(KS)", "B-M", 200, "(N/A)"</t>
-  </si>
-  <si>
-    <t>"MJ", "ST", 3, "(2)"</t>
-  </si>
-  <si>
     <t>"Mi", "ST", 1, "(2)"</t>
   </si>
   <si>
@@ -1605,30 +1590,12 @@
     <t>Szb-KZ</t>
   </si>
   <si>
-    <t>KZ-Szb_1</t>
-  </si>
-  <si>
-    <t>Szb-KZ_3</t>
-  </si>
-  <si>
     <t>KZ-SG</t>
   </si>
   <si>
     <t>SG-KZ</t>
   </si>
   <si>
-    <t>"KZ-SG", "", 1, "1", "(3)"</t>
-  </si>
-  <si>
-    <t>"SG-KZ", "", 2, "3", "(3)"</t>
-  </si>
-  <si>
-    <t>"KZ-Szb_1", "SBL", 3, "2", "(2)"</t>
-  </si>
-  <si>
-    <t>"Szb-KZ_3", "SBL+Sem(ST)", 4, "1", "(3)"</t>
-  </si>
-  <si>
     <t>CM-CS</t>
   </si>
   <si>
@@ -1642,6 +1609,90 @@
   </si>
   <si>
     <t>"CS-CM", "Sem(odstęp)", 2, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"SG-KZ", "SBL", 1, "1", "(3)"</t>
+  </si>
+  <si>
+    <t>"KZ-SG", "SBL+Sem(ST)", 2, "3", "(3)"</t>
+  </si>
+  <si>
+    <t>Szb-KZ-3</t>
+  </si>
+  <si>
+    <t>"Szb-KZ-3", "SBL", 3, "2", "(2)"</t>
+  </si>
+  <si>
+    <t>KZ-Szb-1</t>
+  </si>
+  <si>
+    <t>"KZ-Szb-1", "SBL+Sem(ST)", 4, "1", "(3)"</t>
+  </si>
+  <si>
+    <t>Mi-ŁGB</t>
+  </si>
+  <si>
+    <t>Mi_ŁGB</t>
+  </si>
+  <si>
+    <t>"Mi_ŁGB", "Sem(odstęp)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</t>
+  </si>
+  <si>
+    <t>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</t>
+  </si>
+  <si>
+    <t>"GLC", "B-M", 200, "(N/A)"</t>
+  </si>
+  <si>
+    <t>"MJ", "ST", 2, "(1)"</t>
+  </si>
+  <si>
+    <t>Ty-Kob</t>
+  </si>
+  <si>
+    <t>Kob-Ty</t>
+  </si>
+  <si>
+    <t>Ty-Kob-1</t>
+  </si>
+  <si>
+    <t>Kob-Ty-6</t>
+  </si>
+  <si>
+    <t>Ty-ŁŚ</t>
+  </si>
+  <si>
+    <t>Ty-Tmo</t>
+  </si>
+  <si>
+    <t>Tmo</t>
+  </si>
+  <si>
+    <t>TMo-Ty</t>
+  </si>
+  <si>
+    <t>"Ty-Kob-1", "SBL", 1, "1", "(6)"</t>
+  </si>
+  <si>
+    <t>"Kob-Ty-6", "SBL+Sem(ST)", 2, "6", "(6)"</t>
+  </si>
+  <si>
+    <t>"Ty-ŁŚ", "Sem(odstep)", 1, "1", "(1)"</t>
+  </si>
+  <si>
+    <t>"TMo-Ty", "Sem(odstęp)", 2, "1", "(1)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ty-TMo </t>
+  </si>
+  <si>
+    <t>"Ty-TMo ", "SBL", 1, "1", "(2)"</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1904,6 +1955,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -2219,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM404"/>
+  <dimension ref="A1:AM410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84:M85"/>
+    <sheetView tabSelected="1" topLeftCell="M118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M132" sqref="M132:M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,7 +3161,7 @@
       </c>
       <c r="F23" s="17"/>
       <c r="L23" s="11" t="str">
-        <f t="shared" ref="L23:L139" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
+        <f t="shared" ref="L23:L145" si="1">IF(C23="",CONCATENATE($F$1,F23,$F$1,$G$1,$F$1,B23,$F$1,$G$1,G23,$G$1,$F$1,H23,$F$1,$G$1,$F$1,$B$1,I23,$C$1,$F$1),CONCATENATE($F$1,C23,$F$1,$G$1, $F$1,B23,$F$1,$G$1,D23,$G$1,$F$1,$B$1,E23,$C$1,$F$1))</f>
         <v>"KO", "ST-M", 1114, "(N/A)"</v>
       </c>
       <c r="M23" s="11" t="s">
@@ -3853,7 +3905,7 @@
         <v>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="N42" s="33" t="s">
         <v>336</v>
@@ -3930,14 +3982,14 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B45" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D45"/>
       <c r="F45" s="2" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>7</v>
@@ -3953,7 +4005,7 @@
         <v>"CM-CS", "Sem(odstęp)", 1, "1", "(1)"</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -3963,14 +4015,14 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B46" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D46"/>
       <c r="F46" s="2" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
@@ -3986,7 +4038,7 @@
         <v>"CS-CM", "Sem(odstęp)", 2, "1", "(1)"</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -4335,7 +4387,7 @@
         <v>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="N56" s="34">
         <v>137</v>
@@ -4515,7 +4567,7 @@
         <v>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="N61" s="34">
         <v>137</v>
@@ -5244,7 +5296,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B83" t="s">
         <v>149</v>
@@ -5263,7 +5315,7 @@
         <v>"GLC", "B-M", 200, "(N/A)"</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="N83" s="34">
         <v>137</v>
@@ -5276,14 +5328,14 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B84" t="s">
         <v>372</v>
       </c>
       <c r="D84"/>
       <c r="F84" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>7</v>
@@ -5299,7 +5351,7 @@
         <v>"GLC-Szo", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="N84" s="34">
         <v>137</v>
@@ -5312,14 +5364,14 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D85"/>
       <c r="F85" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>8</v>
@@ -5335,7 +5387,7 @@
         <v>"Szo-GLC", "SBL(odstep)", 2, "1", "(1)"</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="N85" s="34">
         <v>137</v>
@@ -5847,7 +5899,7 @@
         <v>8</v>
       </c>
       <c r="L100" s="11" t="str">
-        <f t="shared" ref="L100:L126" si="2">IF(C100="",CONCATENATE($F$1,F100,$F$1,$G$1,$F$1,B100,$F$1,$G$1,G100,$G$1,$F$1,H100,$F$1,$G$1,$F$1,$B$1,I100,$C$1,$F$1),CONCATENATE($F$1,C100,$F$1,$G$1, $F$1,B100,$F$1,$G$1,D100,$G$1,$F$1,$B$1,E100,$C$1,$F$1))</f>
+        <f t="shared" ref="L100:L127" si="2">IF(C100="",CONCATENATE($F$1,F100,$F$1,$G$1,$F$1,B100,$F$1,$G$1,G100,$G$1,$F$1,H100,$F$1,$G$1,$F$1,$B$1,I100,$C$1,$F$1),CONCATENATE($F$1,C100,$F$1,$G$1, $F$1,B100,$F$1,$G$1,D100,$G$1,$F$1,$B$1,E100,$C$1,$F$1))</f>
         <v>"KL-MJ-2", "Sem(odstep)", 1, "2", "(2)"</v>
       </c>
       <c r="M100" s="20" t="s">
@@ -5915,7 +5967,7 @@
         <v>"MJ", "ST", 2, "(1)"</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="N102" s="33" t="s">
         <v>403</v>
@@ -5982,7 +6034,7 @@
         <v>"Mi", "ST", 1, "(2)"</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="N104" s="33" t="s">
         <v>403</v>
@@ -6027,13 +6079,13 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>405</v>
+        <v>533</v>
       </c>
       <c r="B106" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>420</v>
+        <v>534</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>7</v>
@@ -6042,17 +6094,14 @@
         <v>7</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>419</v>
+        <v>7</v>
       </c>
       <c r="L106" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</v>
+        <v>"Mi_ŁGB", "Sem(odstęp)", 1, "1", "(1)"</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="N106" s="33" t="s">
-        <v>337</v>
+        <v>535</v>
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
@@ -6062,29 +6111,29 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>419</v>
       </c>
       <c r="L107" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-2", "SBL", 1, "2", "(6)"</v>
+        <v>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N107" s="33" t="s">
         <v>337</v>
@@ -6097,29 +6146,29 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B108" t="s">
         <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>419</v>
       </c>
       <c r="L108" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-3", "SBL", 1, "3", "(6)"</v>
+        <v>"KL-Mc-2", "SBL", 1, "2", "(6)"</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N108" s="33" t="s">
         <v>337</v>
@@ -6132,29 +6181,29 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B109" t="s">
-        <v>418</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>419</v>
       </c>
       <c r="L109" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</v>
+        <v>"KL-Mc-3", "SBL", 1, "3", "(6)"</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N109" s="33" t="s">
         <v>337</v>
@@ -6167,29 +6216,29 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>418</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>419</v>
       </c>
       <c r="L110" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-5", "SBL", 1, "5", "(6)"</v>
+        <v>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N110" s="33" t="s">
         <v>337</v>
@@ -6202,29 +6251,29 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>419</v>
+        <v>113</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>419</v>
       </c>
       <c r="L111" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</v>
+        <v>"KL-Mc-5", "SBL", 1, "5", "(6)"</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N111" s="33" t="s">
         <v>337</v>
@@ -6237,29 +6286,29 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="L112" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-1", "SBL", 2, "1", "(5)"</v>
+        <v>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="N112" s="33" t="s">
         <v>337</v>
@@ -6272,29 +6321,29 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B113" t="s">
-        <v>418</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L113" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</v>
+        <v>"Mc-KL-1", "SBL", 2, "1", "(5)"</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N113" s="33" t="s">
         <v>337</v>
@@ -6307,29 +6356,29 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B114" t="s">
-        <v>67</v>
+        <v>418</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L114" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-3", "SBL", 2, "3", "(5)"</v>
+        <v>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N114" s="33" t="s">
         <v>337</v>
@@ -6342,29 +6391,29 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B115" t="s">
         <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L115" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-4", "SBL", 2, "4", "(5)"</v>
+        <v>"Mc-KL-3", "SBL", 2, "3", "(5)"</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N115" s="33" t="s">
         <v>337</v>
@@ -6377,29 +6426,29 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>113</v>
       </c>
       <c r="L116" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
+        <v>"Mc-KL-4", "SBL", 2, "4", "(5)"</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N116" s="33" t="s">
         <v>337</v>
@@ -6412,26 +6461,29 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B117" t="s">
-        <v>46</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="L117" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 1, "(N/A)"</v>
+        <v>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="N117" s="33" t="s">
         <v>337</v>
@@ -6453,17 +6505,17 @@
         <v>404</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L118" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 2, "(N/A)"</v>
+        <v>"Mc", "PODG", 1, "(N/A)"</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N118" s="33" t="s">
         <v>337</v>
@@ -6485,17 +6537,17 @@
         <v>404</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L119" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc", "PODG", 3, "(N/A)"</v>
+        <v>"Mc", "PODG", 2, "(N/A)"</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N119" s="33" t="s">
         <v>337</v>
@@ -6508,29 +6560,26 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B120" t="s">
-        <v>426</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="L120" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</v>
+        <v>"Mc", "PODG", 3, "(N/A)"</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N120" s="33" t="s">
         <v>337</v>
@@ -6543,16 +6592,16 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B121" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>7</v>
@@ -6562,10 +6611,10 @@
       </c>
       <c r="L121" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</v>
+        <v>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N121" s="33" t="s">
         <v>337</v>
@@ -6578,16 +6627,16 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B122" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>435</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>7</v>
@@ -6597,10 +6646,10 @@
       </c>
       <c r="L122" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</v>
+        <v>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N122" s="33" t="s">
         <v>337</v>
@@ -6613,26 +6662,29 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>433</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L123" s="11" t="str">
-        <f t="shared" ref="L123:L125" si="3">IF(C123="",CONCATENATE($F$1,F123,$F$1,$G$1,$F$1,B123,$F$1,$G$1,G123,$G$1,$F$1,H123,$F$1,$G$1,$F$1,$B$1,I123,$C$1,$F$1),CONCATENATE($F$1,C123,$F$1,$G$1, $F$1,B123,$F$1,$G$1,D123,$G$1,$F$1,$B$1,E123,$C$1,$F$1))</f>
-        <v>"Ty", "ST", 101, "(N/A)"</v>
+        <f t="shared" si="2"/>
+        <v>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="N123" s="33" t="s">
         <v>337</v>
@@ -6654,17 +6706,17 @@
         <v>428</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L124" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>"Ty", "ST", 102, "(N/A)"</v>
+        <f t="shared" ref="L124:L126" si="3">IF(C124="",CONCATENATE($F$1,F124,$F$1,$G$1,$F$1,B124,$F$1,$G$1,G124,$G$1,$F$1,H124,$F$1,$G$1,$F$1,$B$1,I124,$C$1,$F$1),CONCATENATE($F$1,C124,$F$1,$G$1, $F$1,B124,$F$1,$G$1,D124,$G$1,$F$1,$B$1,E124,$C$1,$F$1))</f>
+        <v>"Ty", "ST", 101, "(N/A)"</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N124" s="33" t="s">
         <v>337</v>
@@ -6686,17 +6738,17 @@
         <v>428</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>105</v>
       </c>
       <c r="L125" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>"Ty", "ST", 108, "(N/A)"</v>
+        <v>"Ty", "ST", 102, "(N/A)"</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N125" s="33" t="s">
         <v>337</v>
@@ -6718,17 +6770,17 @@
         <v>428</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>7</v>
+        <v>499</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="L126" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>"Ty", "ST", 1, "(2)"</v>
+        <f t="shared" si="3"/>
+        <v>"Ty", "ST", 108, "(N/A)"</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N126" s="33" t="s">
         <v>337</v>
@@ -6750,17 +6802,17 @@
         <v>428</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L127" s="11" t="str">
-        <f t="shared" ref="L127:L130" si="4">IF(C127="",CONCATENATE($F$1,F127,$F$1,$G$1,$F$1,B127,$F$1,$G$1,G127,$G$1,$F$1,H127,$F$1,$G$1,$F$1,$B$1,I127,$C$1,$F$1),CONCATENATE($F$1,C127,$F$1,$G$1, $F$1,B127,$F$1,$G$1,D127,$G$1,$F$1,$B$1,E127,$C$1,$F$1))</f>
-        <v>"Ty", "ST", 2, "(2)"</v>
+        <f t="shared" si="2"/>
+        <v>"Ty", "ST", 1, "(2)"</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N127" s="33" t="s">
         <v>337</v>
@@ -6782,17 +6834,17 @@
         <v>428</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>430</v>
+        <v>8</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L128" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>"Ty", "ST", 8, "(1)"</v>
+        <f t="shared" ref="L128:L136" si="4">IF(C128="",CONCATENATE($F$1,F128,$F$1,$G$1,$F$1,B128,$F$1,$G$1,G128,$G$1,$F$1,H128,$F$1,$G$1,$F$1,$B$1,I128,$C$1,$F$1),CONCATENATE($F$1,C128,$F$1,$G$1, $F$1,B128,$F$1,$G$1,D128,$G$1,$F$1,$B$1,E128,$C$1,$F$1))</f>
+        <v>"Ty", "ST", 2, "(2)"</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N128" s="33" t="s">
         <v>337</v>
@@ -6814,17 +6866,17 @@
         <v>428</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L129" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>"Ty", "ST", 7, "(3)"</v>
+        <v>"Ty", "ST", 8, "(1)"</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N129" s="33" t="s">
         <v>337</v>
@@ -6846,17 +6898,17 @@
         <v>428</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L130" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>"Ty", "ST", 9, "(3)"</v>
+        <v>"Ty", "ST", 7, "(3)"</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N130" s="33" t="s">
         <v>337</v>
@@ -6869,32 +6921,29 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>429</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
-      </c>
-      <c r="F131" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L131" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Ty", "ST", 9, "(3)"</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>290</v>
+        <v>486</v>
       </c>
       <c r="N131" s="33" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="O131" s="14"/>
       <c r="P131" s="14"/>
@@ -6904,32 +6953,29 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>541</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
-      </c>
-      <c r="F132" s="31" t="s">
-        <v>115</v>
+        <v>67</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="L132" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Ty-Kob-1", "SBL", 1, "1", "(6)"</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="N132" s="33" t="s">
-        <v>7</v>
+        <v>549</v>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
@@ -6939,32 +6985,29 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>542</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
       </c>
-      <c r="F133" s="31" t="s">
-        <v>114</v>
+      <c r="F133" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="L133" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Kob-Ty-6", "SBL+Sem(ST)", 2, "6", "(6)"</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="N133" s="33" t="s">
-        <v>338</v>
+        <v>550</v>
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="14"/>
@@ -6974,16 +7017,16 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>545</v>
       </c>
       <c r="B134" t="s">
-        <v>77</v>
-      </c>
-      <c r="F134" s="31" t="s">
-        <v>115</v>
+        <v>372</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>7</v>
@@ -6992,14 +7035,11 @@
         <v>7</v>
       </c>
       <c r="L134" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Ty-ŁŚ", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="N134" s="33" t="s">
-        <v>338</v>
+        <v>551</v>
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="14"/>
@@ -7009,29 +7049,29 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>546</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" t="s">
-        <v>144</v>
-      </c>
-      <c r="D135" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I135" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L135" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KZ", "ST", 1, "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"Ty-TMo ", "SBL", 1, "1", "(2)"</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="N135" s="33" t="s">
-        <v>7</v>
+        <v>554</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
@@ -7040,30 +7080,30 @@
       <c r="S135" s="12"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>143</v>
+      <c r="A136" s="37" t="s">
+        <v>547</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" t="s">
-        <v>144</v>
-      </c>
-      <c r="D136" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I136" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L136" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>"KZ", "ST", 2, "(1)"</v>
+        <f t="shared" si="4"/>
+        <v>"TMo-Ty", "Sem(odstęp)", 2, "1", "(1)"</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="N136" s="33" t="s">
-        <v>7</v>
+        <v>552</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
@@ -7073,29 +7113,32 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" t="s">
-        <v>144</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>8</v>
+        <v>77</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L137" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 3, "(2)"</v>
+        <v>"KZ-KO", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N137" s="33" t="s">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="O137" s="14"/>
       <c r="P137" s="14"/>
@@ -7105,29 +7148,32 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" t="s">
-        <v>144</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L138" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ", "ST", 4, "(2)"</v>
+        <v>"KO-KZ", "SBL+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N138" s="33" t="s">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="O138" s="14"/>
       <c r="P138" s="14"/>
@@ -7137,26 +7183,32 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>527</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>527</v>
+        <v>118</v>
+      </c>
+      <c r="B139" t="s">
+        <v>77</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L139" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"KZ-SG", "", 1, "1", "(3)"</v>
+        <v>"KZ-KO", "SBL+Sem(ST)", 3, "1", "(1)"</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>529</v>
+        <v>292</v>
+      </c>
+      <c r="N139" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="O139" s="14"/>
       <c r="P139" s="14"/>
@@ -7166,26 +7218,32 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>528</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>528</v>
+        <v>119</v>
+      </c>
+      <c r="B140" t="s">
+        <v>77</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L140" s="11" t="str">
-        <f t="shared" ref="L140:L203" si="5">IF(C140="",CONCATENATE($F$1,F140,$F$1,$G$1,$F$1,B140,$F$1,$G$1,G140,$G$1,$F$1,H140,$F$1,$G$1,$F$1,$B$1,I140,$C$1,$F$1),CONCATENATE($F$1,C140,$F$1,$G$1, $F$1,B140,$F$1,$G$1,D140,$G$1,$F$1,$B$1,E140,$C$1,$F$1))</f>
-        <v>"SG-KZ", "", 2, "3", "(3)"</v>
+        <f t="shared" si="1"/>
+        <v>"KO-KZ", "SBL+Sem(ST)", 4, "1", "(1)"</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>530</v>
+        <v>293</v>
+      </c>
+      <c r="N140" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
@@ -7195,29 +7253,29 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>523</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L141" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"KZ-Szb_1", "SBL", 3, "2", "(2)"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 1, "(1)"</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>531</v>
+        <v>294</v>
+      </c>
+      <c r="N141" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="O141" s="14"/>
       <c r="P141" s="14"/>
@@ -7227,29 +7285,29 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>524</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I142" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="L142" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"Szb-KZ_3", "SBL+Sem(ST)", 4, "1", "(3)"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 2, "(1)"</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>532</v>
+        <v>295</v>
+      </c>
+      <c r="N142" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="O142" s="14"/>
       <c r="P142" s="14"/>
@@ -7258,12 +7316,30 @@
       <c r="S142" s="12"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L143" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 3, "(2)"</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>184</v>
+        <v>296</v>
+      </c>
+      <c r="N143" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="O143" s="14"/>
       <c r="P143" s="14"/>
@@ -7272,12 +7348,30 @@
       <c r="S143" s="12"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L144" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"KZ", "ST", 4, "(2)"</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>184</v>
+        <v>297</v>
+      </c>
+      <c r="N144" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="O144" s="14"/>
       <c r="P144" s="14"/>
@@ -7285,13 +7379,31 @@
       <c r="R144" s="12"/>
       <c r="S144" s="12"/>
     </row>
-    <row r="145" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>520</v>
+      </c>
+      <c r="B145" t="s">
+        <v>67</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L145" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" si="1"/>
+        <v>"SG-KZ", "SBL", 1, "1", "(3)"</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>184</v>
+        <v>527</v>
       </c>
       <c r="O145" s="14"/>
       <c r="P145" s="14"/>
@@ -7299,13 +7411,31 @@
       <c r="R145" s="12"/>
       <c r="S145" s="12"/>
     </row>
-    <row r="146" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>521</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L146" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <f t="shared" ref="L146:L209" si="5">IF(C146="",CONCATENATE($F$1,F146,$F$1,$G$1,$F$1,B146,$F$1,$G$1,G146,$G$1,$F$1,H146,$F$1,$G$1,$F$1,$B$1,I146,$C$1,$F$1),CONCATENATE($F$1,C146,$F$1,$G$1, $F$1,B146,$F$1,$G$1,D146,$G$1,$F$1,$B$1,E146,$C$1,$F$1))</f>
+        <v>"KZ-SG", "SBL+Sem(ST)", 2, "3", "(3)"</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>184</v>
+        <v>528</v>
       </c>
       <c r="O146" s="14"/>
       <c r="P146" s="14"/>
@@ -7313,13 +7443,31 @@
       <c r="R146" s="12"/>
       <c r="S146" s="12"/>
     </row>
-    <row r="147" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>518</v>
+      </c>
+      <c r="B147" t="s">
+        <v>67</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L147" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <v>"Szb-KZ-3", "SBL", 3, "2", "(2)"</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>184</v>
+        <v>530</v>
       </c>
       <c r="O147" s="14"/>
       <c r="P147" s="14"/>
@@ -7327,13 +7475,31 @@
       <c r="R147" s="12"/>
       <c r="S147" s="12"/>
     </row>
-    <row r="148" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>519</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L148" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>"", "", , "", "()"</v>
+        <v>"KZ-Szb-1", "SBL+Sem(ST)", 4, "1", "(3)"</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>184</v>
+        <v>532</v>
       </c>
       <c r="O148" s="14"/>
       <c r="P148" s="14"/>
@@ -7341,7 +7507,7 @@
       <c r="R148" s="12"/>
       <c r="S148" s="12"/>
     </row>
-    <row r="149" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L149" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7355,7 +7521,7 @@
       <c r="R149" s="12"/>
       <c r="S149" s="12"/>
     </row>
-    <row r="150" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L150" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7369,7 +7535,7 @@
       <c r="R150" s="12"/>
       <c r="S150" s="12"/>
     </row>
-    <row r="151" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L151" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7383,7 +7549,7 @@
       <c r="R151" s="12"/>
       <c r="S151" s="12"/>
     </row>
-    <row r="152" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L152" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7397,7 +7563,7 @@
       <c r="R152" s="12"/>
       <c r="S152" s="12"/>
     </row>
-    <row r="153" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L153" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7405,8 +7571,13 @@
       <c r="M153" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="154" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L154" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7414,8 +7585,13 @@
       <c r="M154" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="155" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O154" s="14"/>
+      <c r="P154" s="14"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L155" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7423,8 +7599,13 @@
       <c r="M155" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="156" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L156" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7432,8 +7613,13 @@
       <c r="M156" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="157" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L157" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7441,8 +7627,13 @@
       <c r="M157" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="158" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O157" s="14"/>
+      <c r="P157" s="14"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L158" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7450,8 +7641,13 @@
       <c r="M158" s="20" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="159" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L159" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7460,7 +7656,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L160" s="11" t="str">
         <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
@@ -7858,7 +8054,7 @@
     </row>
     <row r="204" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L204" s="11" t="str">
-        <f t="shared" ref="L204:L267" si="6">IF(C204="",CONCATENATE($F$1,F204,$F$1,$G$1,$F$1,B204,$F$1,$G$1,G204,$G$1,$F$1,H204,$F$1,$G$1,$F$1,$B$1,I204,$C$1,$F$1),CONCATENATE($F$1,C204,$F$1,$G$1, $F$1,B204,$F$1,$G$1,D204,$G$1,$F$1,$B$1,E204,$C$1,$F$1))</f>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M204" s="20" t="s">
@@ -7867,7 +8063,7 @@
     </row>
     <row r="205" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L205" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M205" s="20" t="s">
@@ -7876,7 +8072,7 @@
     </row>
     <row r="206" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L206" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M206" s="20" t="s">
@@ -7885,7 +8081,7 @@
     </row>
     <row r="207" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L207" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M207" s="20" t="s">
@@ -7894,7 +8090,7 @@
     </row>
     <row r="208" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L208" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M208" s="20" t="s">
@@ -7903,7 +8099,7 @@
     </row>
     <row r="209" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L209" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M209" s="20" t="s">
@@ -7912,7 +8108,7 @@
     </row>
     <row r="210" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L210" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L210:L273" si="6">IF(C210="",CONCATENATE($F$1,F210,$F$1,$G$1,$F$1,B210,$F$1,$G$1,G210,$G$1,$F$1,H210,$F$1,$G$1,$F$1,$B$1,I210,$C$1,$F$1),CONCATENATE($F$1,C210,$F$1,$G$1, $F$1,B210,$F$1,$G$1,D210,$G$1,$F$1,$B$1,E210,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M210" s="20" t="s">
@@ -8434,7 +8630,7 @@
     </row>
     <row r="268" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L268" s="11" t="str">
-        <f t="shared" ref="L268:L331" si="7">IF(C268="",CONCATENATE($F$1,F268,$F$1,$G$1,$F$1,B268,$F$1,$G$1,G268,$G$1,$F$1,H268,$F$1,$G$1,$F$1,$B$1,I268,$C$1,$F$1),CONCATENATE($F$1,C268,$F$1,$G$1, $F$1,B268,$F$1,$G$1,D268,$G$1,$F$1,$B$1,E268,$C$1,$F$1))</f>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M268" s="20" t="s">
@@ -8443,7 +8639,7 @@
     </row>
     <row r="269" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L269" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M269" s="20" t="s">
@@ -8452,7 +8648,7 @@
     </row>
     <row r="270" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L270" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M270" s="20" t="s">
@@ -8461,7 +8657,7 @@
     </row>
     <row r="271" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L271" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M271" s="20" t="s">
@@ -8470,7 +8666,7 @@
     </row>
     <row r="272" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L272" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M272" s="20" t="s">
@@ -8479,7 +8675,7 @@
     </row>
     <row r="273" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L273" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M273" s="20" t="s">
@@ -8488,7 +8684,7 @@
     </row>
     <row r="274" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L274" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L274:L337" si="7">IF(C274="",CONCATENATE($F$1,F274,$F$1,$G$1,$F$1,B274,$F$1,$G$1,G274,$G$1,$F$1,H274,$F$1,$G$1,$F$1,$B$1,I274,$C$1,$F$1),CONCATENATE($F$1,C274,$F$1,$G$1, $F$1,B274,$F$1,$G$1,D274,$G$1,$F$1,$B$1,E274,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M274" s="20" t="s">
@@ -9010,7 +9206,7 @@
     </row>
     <row r="332" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L332" s="11" t="str">
-        <f t="shared" ref="L332:L395" si="8">IF(C332="",CONCATENATE($F$1,F332,$F$1,$G$1,$F$1,B332,$F$1,$G$1,G332,$G$1,$F$1,H332,$F$1,$G$1,$F$1,$B$1,I332,$C$1,$F$1),CONCATENATE($F$1,C332,$F$1,$G$1, $F$1,B332,$F$1,$G$1,D332,$G$1,$F$1,$B$1,E332,$C$1,$F$1))</f>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M332" s="20" t="s">
@@ -9019,7 +9215,7 @@
     </row>
     <row r="333" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L333" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M333" s="20" t="s">
@@ -9028,7 +9224,7 @@
     </row>
     <row r="334" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L334" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M334" s="20" t="s">
@@ -9037,7 +9233,7 @@
     </row>
     <row r="335" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L335" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M335" s="20" t="s">
@@ -9046,7 +9242,7 @@
     </row>
     <row r="336" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L336" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M336" s="20" t="s">
@@ -9055,7 +9251,7 @@
     </row>
     <row r="337" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L337" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M337" s="20" t="s">
@@ -9064,7 +9260,7 @@
     </row>
     <row r="338" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L338" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L338:L401" si="8">IF(C338="",CONCATENATE($F$1,F338,$F$1,$G$1,$F$1,B338,$F$1,$G$1,G338,$G$1,$F$1,H338,$F$1,$G$1,$F$1,$B$1,I338,$C$1,$F$1),CONCATENATE($F$1,C338,$F$1,$G$1, $F$1,B338,$F$1,$G$1,D338,$G$1,$F$1,$B$1,E338,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M338" s="20" t="s">
@@ -9586,7 +9782,7 @@
     </row>
     <row r="396" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L396" s="11" t="str">
-        <f t="shared" ref="L396:L404" si="9">IF(C396="",CONCATENATE($F$1,F396,$F$1,$G$1,$F$1,B396,$F$1,$G$1,G396,$G$1,$F$1,H396,$F$1,$G$1,$F$1,$B$1,I396,$C$1,$F$1),CONCATENATE($F$1,C396,$F$1,$G$1, $F$1,B396,$F$1,$G$1,D396,$G$1,$F$1,$B$1,E396,$C$1,$F$1))</f>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M396" s="20" t="s">
@@ -9595,7 +9791,7 @@
     </row>
     <row r="397" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L397" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M397" s="20" t="s">
@@ -9604,7 +9800,7 @@
     </row>
     <row r="398" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L398" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M398" s="20" t="s">
@@ -9613,7 +9809,7 @@
     </row>
     <row r="399" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L399" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M399" s="20" t="s">
@@ -9622,7 +9818,7 @@
     </row>
     <row r="400" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L400" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M400" s="20" t="s">
@@ -9631,7 +9827,7 @@
     </row>
     <row r="401" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L401" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M401" s="20" t="s">
@@ -9640,7 +9836,7 @@
     </row>
     <row r="402" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L402" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L402:L410" si="9">IF(C402="",CONCATENATE($F$1,F402,$F$1,$G$1,$F$1,B402,$F$1,$G$1,G402,$G$1,$F$1,H402,$F$1,$G$1,$F$1,$B$1,I402,$C$1,$F$1),CONCATENATE($F$1,C402,$F$1,$G$1, $F$1,B402,$F$1,$G$1,D402,$G$1,$F$1,$B$1,E402,$C$1,$F$1))</f>
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M402" s="20" t="s">
@@ -9662,6 +9858,60 @@
         <v>"", "", , "", "()"</v>
       </c>
       <c r="M404" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="405" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L405" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M405" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="406" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L406" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M406" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="407" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L407" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M407" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="408" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L408" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M408" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="409" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L409" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M409" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="410" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L410" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>"", "", , "", "()"</v>
+      </c>
+      <c r="M410" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -13462,6 +13712,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CD5458B81A8B2B4B92FF87D810305C72" ma:contentTypeVersion="10" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="94af6a530ab954c472b36ae778f182c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcc645c8-4b47-4a2e-89eb-d5bbcced8466" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ef69444b0b6df3a2aca9b298e9665c5" ns3:_="">
     <xsd:import namespace="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
@@ -13645,12 +13901,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
   <ds:schemaRefs>
@@ -13660,6 +13910,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBCE1FC-4F3C-4CE6-A38A-EF0D12121C1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13675,20 +13941,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF151E6-60FE-45D9-B42E-AD889AE151D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810080ED-E06D-4D0A-9633-5F44FFD4C46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="555">
   <si>
     <t>Katowice</t>
   </si>
@@ -1949,13 +1949,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -2273,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M132" sqref="M132:M136"/>
+    <sheetView tabSelected="1" topLeftCell="M91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2289,7 @@
     <col min="11" max="11" width="14.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="37.28515625" style="11" customWidth="1"/>
     <col min="13" max="13" width="63.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" style="16" customWidth="1"/>
     <col min="17" max="19" width="21.5703125" style="11" customWidth="1"/>
@@ -7080,7 +7080,7 @@
       <c r="S135" s="12"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="35" t="s">
         <v>547</v>
       </c>
       <c r="B136" t="s">
@@ -9926,10 +9926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P215"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9938,12 +9938,12 @@
     <col min="2" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -9957,367 +9957,371 @@
         <v>171</v>
       </c>
       <c r="H1" s="25">
-        <v>9.8472222222222225E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.7939814814814827E-2</v>
+      </c>
+      <c r="N1" s="25">
+        <v>9.8055555555555562E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F2" s="20" t="s">
-        <v>296</v>
+        <v>527</v>
       </c>
       <c r="G2" s="25">
         <f>H2-H1</f>
-        <v>5.3240740740741199E-4</v>
+        <v>5.3240740740739811E-4</v>
       </c>
       <c r="H2" s="25">
-        <v>9.9004629629629637E-2</v>
+        <v>9.8472222222222225E-2</v>
       </c>
       <c r="I2" s="29">
         <f>IF(G2="","",G2*86400)</f>
-        <v>46.000000000000398</v>
+        <v>45.999999999999197</v>
       </c>
       <c r="J2" s="30">
-        <f t="shared" ref="J2:J5" si="0">IF(I2="","",I2/60)</f>
-        <v>0.76666666666667327</v>
-      </c>
-      <c r="K2">
-        <v>0.76666666666667327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(I2="","",I2/60)</f>
+        <v>0.76666666666665328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F3" s="20" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G3" s="25">
         <f>H3-H2</f>
-        <v>1.041666666666663E-3</v>
+        <v>5.3240740740741199E-4</v>
       </c>
       <c r="H3" s="25">
-        <v>0.1000462962962963</v>
+        <v>9.9004629629629637E-2</v>
       </c>
       <c r="I3" s="29">
         <f>IF(G3="","",G3*86400)</f>
+        <v>46.000000000000398</v>
+      </c>
+      <c r="J3" s="30">
+        <f t="shared" ref="J3:J6" si="0">IF(I3="","",I3/60)</f>
+        <v>0.76666666666667327</v>
+      </c>
+      <c r="K3">
+        <v>0.76666666666667305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="25">
+        <f>H4-H3</f>
+        <v>1.041666666666663E-3</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.1000462962962963</v>
+      </c>
+      <c r="I4" s="29">
+        <f>IF(G4="","",G4*86400)</f>
         <v>89.999999999999687</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J4" s="30">
         <f t="shared" si="0"/>
         <v>1.4999999999999949</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>1.4999999999999949</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F4" s="20" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="25">
-        <f>H4-H3</f>
+      <c r="G5" s="25">
+        <f>H5-H4</f>
         <v>8.4490740740740533E-4</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H5" s="25">
         <v>0.10089120370370371</v>
       </c>
-      <c r="I4" s="29">
-        <f>IF(G4="","",G4*86400)</f>
+      <c r="I5" s="29">
+        <f>IF(G5="","",G5*86400)</f>
         <v>72.999999999999815</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J5" s="30">
         <f t="shared" si="0"/>
         <v>1.2166666666666637</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>1.2166666666666637</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F5" s="20" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="G5" s="25">
-        <f>H6-H4</f>
+      <c r="G6" s="25">
+        <f>H7-H5</f>
         <v>1.3657407407407368E-3</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="29">
-        <f>IF(G5="","",G5*86400)</f>
+      <c r="H6" s="25"/>
+      <c r="I6" s="29">
+        <f>IF(G6="","",G6*86400)</f>
         <v>117.99999999999966</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J6" s="30">
         <f t="shared" si="0"/>
         <v>1.966666666666661</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>1.97</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="32" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H7" s="25">
         <v>0.10225694444444444</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>161</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>167</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>209</v>
-      </c>
-      <c r="G7" s="25">
-        <f>H7-H6</f>
-        <v>8.6805555555556635E-4</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0.10312500000000001</v>
-      </c>
-      <c r="I7" s="29">
-        <f t="shared" ref="I7:I38" si="1">IF(G7="","",G7*86400)</f>
-        <v>75.000000000000938</v>
-      </c>
-      <c r="J7" s="30">
-        <f t="shared" ref="J7:J71" si="2">IF(I7="","",I7/60)</f>
-        <v>1.2500000000000155</v>
-      </c>
-      <c r="K7" s="30">
-        <v>1.2500000000000155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>208</v>
       </c>
       <c r="G8" s="25">
         <f>H8-H7</f>
+        <v>8.6805555555556635E-4</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.10312500000000001</v>
+      </c>
+      <c r="I8" s="29">
+        <f t="shared" ref="I8:I39" si="1">IF(G8="","",G8*86400)</f>
+        <v>75.000000000000938</v>
+      </c>
+      <c r="J8" s="30">
+        <f t="shared" ref="J8:J73" si="2">IF(I8="","",I8/60)</f>
+        <v>1.2500000000000155</v>
+      </c>
+      <c r="K8" s="30">
+        <v>1.2500000000000155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="25">
+        <f>H9-H8</f>
         <v>5.6712962962962576E-4</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H9" s="25">
         <v>0.10369212962962963</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I9" s="29">
         <f t="shared" si="1"/>
         <v>48.999999999999666</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J9" s="30">
         <f t="shared" si="2"/>
         <v>0.8166666666666611</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K9" s="30">
         <v>0.8166666666666611</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>162</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="25">
-        <f>H9-H8</f>
+      <c r="G10" s="25">
+        <f>H10-H9</f>
         <v>6.4814814814813382E-4</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H10" s="25">
         <v>0.10434027777777777</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I10" s="29">
         <f t="shared" si="1"/>
         <v>55.999999999998764</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J10" s="30">
         <f t="shared" si="2"/>
         <v>0.9333333333333127</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K10" s="30">
         <v>0.9333333333333127</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>166</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="25">
-        <f>H10-H9</f>
+      <c r="G11" s="25">
+        <f>H11-H10</f>
         <v>2.8935185185186008E-4</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H11" s="25">
         <v>0.10462962962962963</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I11" s="29">
         <f t="shared" si="1"/>
         <v>25.000000000000711</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J11" s="30">
         <f t="shared" si="2"/>
         <v>0.41666666666667851</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K11" s="30">
         <v>0.41666666666667851</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="25">
-        <f>H11-H8</f>
+      <c r="G12" s="25">
+        <f>H12-H9</f>
         <v>1.5046296296296197E-3</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H12" s="25">
         <v>0.10519675925925925</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I12" s="29">
         <f t="shared" si="1"/>
         <v>129.99999999999915</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J12" s="30">
         <f t="shared" si="2"/>
         <v>2.1666666666666523</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K12" s="30">
         <v>2.1666666666666523</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>169</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>183</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>168</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="25">
-        <f>H11-H10</f>
+      <c r="G13" s="25">
+        <f>H12-H11</f>
         <v>5.6712962962962576E-4</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H13" s="25">
         <v>0.10569444444444444</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I13" s="29">
         <f t="shared" si="1"/>
         <v>48.999999999999666</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J13" s="30">
         <f t="shared" si="2"/>
         <v>0.8166666666666611</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K13" s="30">
         <v>0.8166666666666611</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="25">
-        <f>H12-H11</f>
+      <c r="G14" s="25">
+        <f>H13-H12</f>
         <v>4.9768518518518434E-4</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H14" s="25">
         <v>0.10589120370370371</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I14" s="29">
         <f t="shared" si="1"/>
         <v>42.999999999999929</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J14" s="30">
         <f t="shared" si="2"/>
         <v>0.71666666666666545</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K14" s="30">
         <v>0.71666666666666545</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>178</v>
       </c>
-      <c r="G14" s="25">
-        <f>H13-H12</f>
+      <c r="G15" s="25">
+        <f>H14-H13</f>
         <v>1.9675925925927151E-4</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I15" s="29">
         <f t="shared" si="1"/>
         <v>17.000000000001059</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J15" s="30">
         <f t="shared" si="2"/>
         <v>0.28333333333335098</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K15" s="30">
         <v>0.28333333333335098</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="25">
-        <f>H13-H11</f>
+      <c r="G16" s="25">
+        <f>H14-H12</f>
         <v>6.9444444444445586E-4</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I16" s="29">
         <f t="shared" si="1"/>
         <v>60.000000000000988</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J16" s="30">
         <f t="shared" si="2"/>
         <v>1.0000000000000164</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K16" s="30">
         <v>1.0000000000000164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="N16" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -10332,22 +10336,11 @@
       <c r="K17" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="L17" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" s="25">
-        <f>H13-H6</f>
-        <v>3.6342592592592676E-3</v>
-      </c>
-      <c r="N17" s="25">
-        <v>0</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="26">
-        <f>SUM(M17:O17)</f>
-        <v>3.6342592592592676E-3</v>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -10363,21 +10356,21 @@
         <v>317</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
-      </c>
-      <c r="M18" s="26">
-        <f>SUM(G8,G9,G10,G14,G13,G12)</f>
-        <v>2.7662037037037013E-3</v>
+        <v>180</v>
+      </c>
+      <c r="M18" s="25">
+        <f>H14-H7</f>
+        <v>3.6342592592592676E-3</v>
       </c>
       <c r="N18" s="25">
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="O18" s="25">
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="P18" s="26">
         <f>SUM(M18:O18)</f>
-        <v>4.1550925925925904E-3</v>
+        <v>3.6342592592592676E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -10392,8 +10385,25 @@
       <c r="K19" s="30" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="26">
+        <f>SUM(G9,G10,G11,G15,G14,G13)</f>
+        <v>2.7662037037037013E-3</v>
+      </c>
+      <c r="N19" s="25">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="O19" s="25">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="P19" s="26">
+        <f>SUM(M19:O19)</f>
+        <v>4.1550925925925904E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I20" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10406,10 +10416,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>200</v>
-      </c>
+    <row r="21" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I21" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10423,8 +10430,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H22" s="27">
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>200</v>
       </c>
       <c r="I22" s="29" t="str">
         <f t="shared" si="1"/>
@@ -10439,160 +10446,160 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
+      <c r="H23" s="27">
+        <v>0</v>
+      </c>
+      <c r="I23" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
         <v>196</v>
       </c>
-      <c r="G23" s="25">
-        <f>H23-H22</f>
+      <c r="G24" s="25">
+        <f>H24-H23</f>
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H24" s="25">
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I24" s="29">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J24" s="30">
         <f t="shared" si="2"/>
         <v>0.71666666666666667</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K24" s="30">
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="25">
-        <f>H24-H23</f>
+      <c r="G25" s="25">
+        <f>H25-H24</f>
         <v>9.0277777777777774E-4</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H25" s="25">
         <v>1.4004629629629629E-3</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I25" s="29">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J25" s="30">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K25" s="30">
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="25">
-        <f>H25-H24</f>
+      <c r="G26" s="25">
+        <f>H26-H25</f>
         <v>7.0601851851851837E-4</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H26" s="25">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I26" s="29">
         <f t="shared" si="1"/>
         <v>60.999999999999986</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J26" s="30">
         <f t="shared" si="2"/>
         <v>1.0166666666666664</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K26" s="30">
         <v>1.0166666666666664</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="25">
-        <f t="shared" ref="G26:G28" si="3">H26-H25</f>
+      <c r="G27" s="25">
+        <f t="shared" ref="G27:G29" si="3">H27-H26</f>
         <v>9.0277777777777752E-4</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H27" s="25">
         <v>3.0092592592592588E-3</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I27" s="29">
         <f t="shared" si="1"/>
         <v>77.999999999999972</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J27" s="30">
         <f t="shared" si="2"/>
         <v>1.2999999999999996</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K27" s="30">
         <v>1.2999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
         <v>198</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G28" s="25">
         <f t="shared" si="3"/>
         <v>8.333333333333335E-4</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H28" s="25">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I28" s="29">
         <f t="shared" si="1"/>
         <v>72.000000000000014</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J28" s="30">
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K28" s="30">
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
         <v>199</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G29" s="25">
         <f t="shared" si="3"/>
         <v>8.449074074074075E-4</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H29" s="25">
         <v>4.6874999999999998E-3</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I29" s="29">
         <f t="shared" si="1"/>
         <v>73.000000000000014</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J29" s="30">
         <f t="shared" si="2"/>
         <v>1.216666666666667</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K29" s="30">
         <v>1.216666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I29" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H30" s="27">
-        <v>0</v>
-      </c>
       <c r="I30" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10606,158 +10613,160 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="H31" s="27">
+        <v>0</v>
+      </c>
+      <c r="I31" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J31" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>205</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>196</v>
       </c>
-      <c r="G31" s="25">
-        <f t="shared" ref="G31:G33" si="4">H31-H30</f>
+      <c r="G32" s="25">
+        <f t="shared" ref="G32:G34" si="4">H32-H31</f>
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H32" s="25">
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I32" s="29">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J32" s="30">
         <f t="shared" si="2"/>
         <v>0.78333333333333333</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K32" s="30">
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
         <v>206</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G33" s="25">
         <f t="shared" si="4"/>
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H33" s="25">
         <v>1.6550925925925926E-3</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I33" s="29">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J33" s="30">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K33" s="30">
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
         <v>207</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G34" s="25">
         <f t="shared" si="4"/>
         <v>5.5555555555555523E-4</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H34" s="25">
         <v>2.2106481481481478E-3</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I34" s="29">
         <f t="shared" si="1"/>
         <v>47.999999999999972</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J34" s="30">
         <f t="shared" si="2"/>
         <v>0.79999999999999949</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K34" s="30">
         <v>0.79999999999999949</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="25">
-        <f t="shared" ref="G34:G36" si="5">H34-H33</f>
+      <c r="G35" s="25">
+        <f t="shared" ref="G35:G37" si="5">H35-H34</f>
         <v>1.655092592592593E-3</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H35" s="25">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I35" s="29">
         <f t="shared" si="1"/>
         <v>143.00000000000003</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J35" s="30">
         <f t="shared" si="2"/>
         <v>2.3833333333333337</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K35" s="30">
         <v>2.3833333333333337</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G36" s="25">
         <f t="shared" si="5"/>
         <v>5.555555555555548E-4</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H36" s="25">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I36" s="29">
         <f t="shared" si="1"/>
         <v>47.999999999999936</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J36" s="30">
         <f t="shared" si="2"/>
         <v>0.79999999999999893</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K36" s="30">
         <v>0.79999999999999893</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G37" s="25">
         <f t="shared" si="5"/>
         <v>2.6967592592592599E-3</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H37" s="25">
         <v>7.1180555555555554E-3</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I37" s="29">
         <f t="shared" si="1"/>
         <v>233.00000000000006</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J37" s="30">
         <f t="shared" si="2"/>
         <v>3.8833333333333342</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K37" s="30">
         <v>3.8833333333333342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H37" s="25"/>
-      <c r="I37" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J37" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -10775,8 +10784,9 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H39" s="25"/>
       <c r="I39" s="29" t="str">
-        <f t="shared" ref="I39:I65" si="6">IF(G39="","",G39*86400)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J39" s="30" t="str">
@@ -10788,11 +10798,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H40" s="25">
-        <v>3.0879629629629632E-2</v>
-      </c>
       <c r="I40" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I40:I67" si="6">IF(G40="","",G40*86400)</f>
         <v/>
       </c>
       <c r="J40" s="30" t="str">
@@ -10804,157 +10811,160 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="H41" s="25">
+        <v>3.0879629629629632E-2</v>
+      </c>
+      <c r="I41" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J41" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>193</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>194</v>
       </c>
-      <c r="G41" s="25">
-        <f>H41-H40</f>
+      <c r="G42" s="25">
+        <f>H42-H41</f>
         <v>3.7037037037036813E-4</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H42" s="25">
         <v>3.125E-2</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I42" s="29">
         <f t="shared" si="6"/>
         <v>31.999999999999808</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J42" s="30">
         <f t="shared" si="2"/>
         <v>0.53333333333333011</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K42" s="30">
         <v>0.53333333333333011</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>195</v>
       </c>
-      <c r="G42" s="25">
-        <f t="shared" ref="G42:G46" si="7">H42-H41</f>
+      <c r="G43" s="25">
+        <f t="shared" ref="G43:G47" si="7">H43-H42</f>
         <v>1.5277777777777807E-3</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H43" s="25">
         <v>3.2777777777777781E-2</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I43" s="29">
         <f t="shared" si="6"/>
         <v>132.00000000000026</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J43" s="30">
         <f t="shared" si="2"/>
         <v>2.2000000000000042</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K43" s="30">
         <v>2.2000000000000042</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G44" s="25">
         <f t="shared" si="7"/>
         <v>6.4814814814814076E-4</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H44" s="25">
         <v>3.3425925925925921E-2</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I44" s="29">
         <f t="shared" si="6"/>
         <v>55.999999999999361</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J44" s="30">
         <f t="shared" si="2"/>
         <v>0.93333333333332269</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K44" s="30">
         <v>0.93333333333332269</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>308</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G45" s="25">
         <f t="shared" si="7"/>
         <v>6.1342592592593392E-4</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H45" s="25">
         <v>3.4039351851851855E-2</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I45" s="29">
         <f t="shared" si="6"/>
         <v>53.000000000000689</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J45" s="30">
         <f t="shared" si="2"/>
         <v>0.88333333333334485</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K45" s="30">
         <v>0.88333333333334485</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
         <v>191</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G46" s="25">
         <f t="shared" si="7"/>
         <v>7.5231481481481677E-4</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H46" s="25">
         <v>3.4791666666666672E-2</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I46" s="29">
         <f t="shared" si="6"/>
         <v>65.000000000000171</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J46" s="30">
         <f t="shared" si="2"/>
         <v>1.0833333333333361</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K46" s="30">
         <v>1.0833333333333361</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G47" s="25">
         <f t="shared" si="7"/>
         <v>9.3749999999999389E-4</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H47" s="25">
         <v>3.5729166666666666E-2</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I47" s="29">
         <f t="shared" si="6"/>
         <v>80.999999999999474</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J47" s="30">
         <f t="shared" si="2"/>
         <v>1.3499999999999912</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K47" s="30">
         <v>1.3499999999999912</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I47" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J47" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K47" s="30" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -10971,12 +10981,6 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" t="s">
-        <v>185</v>
-      </c>
       <c r="I49" s="29" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -10990,11 +10994,11 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>192</v>
+      </c>
       <c r="F50" t="s">
-        <v>186</v>
-      </c>
-      <c r="H50" s="25">
-        <v>5.7777777777777782E-2</v>
+        <v>185</v>
       </c>
       <c r="I50" s="29" t="str">
         <f t="shared" si="6"/>
@@ -11010,156 +11014,162 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H51" s="25">
+        <v>5.7777777777777782E-2</v>
+      </c>
+      <c r="I51" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J51" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
         <v>194</v>
       </c>
-      <c r="G51" s="25">
-        <f>H51-H50</f>
+      <c r="G52" s="25">
+        <f>H52-H51</f>
         <v>2.025462962962965E-3</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H52" s="25">
         <v>5.9803240740740747E-2</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I52" s="29">
         <f t="shared" si="6"/>
         <v>175.00000000000017</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J52" s="30">
         <f t="shared" si="2"/>
         <v>2.9166666666666696</v>
       </c>
-      <c r="K51" s="30">
+      <c r="K52" s="30">
         <v>2.9166666666666696</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
         <v>189</v>
       </c>
-      <c r="G52" s="25">
-        <f t="shared" ref="G52:G53" si="8">H52-H51</f>
+      <c r="G53" s="25">
+        <f t="shared" ref="G53:G54" si="8">H53-H52</f>
         <v>9.490740740740744E-4</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H53" s="25">
         <v>6.0752314814814821E-2</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I53" s="29">
         <f t="shared" si="6"/>
         <v>82.000000000000028</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J53" s="30">
         <f t="shared" si="2"/>
         <v>1.3666666666666671</v>
       </c>
-      <c r="K52" s="30">
+      <c r="K53" s="30">
         <v>1.3666666666666671</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
         <v>190</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G54" s="25">
         <f t="shared" si="8"/>
         <v>1.226851851851847E-3</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H54" s="25">
         <v>6.1979166666666669E-2</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I54" s="29">
         <f t="shared" si="6"/>
         <v>105.99999999999959</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J54" s="30">
         <f t="shared" si="2"/>
         <v>1.7666666666666597</v>
       </c>
-      <c r="K53" s="30">
+      <c r="K54" s="30">
         <v>1.7666666666666597</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="25">
-        <f>H54-H53</f>
+      <c r="G55" s="25">
+        <f>H55-H54</f>
         <v>5.6712962962962576E-4</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H55" s="25">
         <v>6.2546296296296294E-2</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I55" s="29">
         <f t="shared" si="6"/>
         <v>48.999999999999666</v>
       </c>
-      <c r="J54" s="30">
+      <c r="J55" s="30">
         <f t="shared" si="2"/>
         <v>0.8166666666666611</v>
       </c>
-      <c r="K54" s="30">
+      <c r="K55" s="30">
         <v>0.8166666666666611</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
         <v>191</v>
       </c>
-      <c r="G55" s="25">
-        <f>H55-H54</f>
+      <c r="G56" s="25">
+        <f>H56-H55</f>
         <v>7.0601851851852249E-4</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H56" s="25">
         <v>6.3252314814814817E-2</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I56" s="29">
         <f t="shared" si="6"/>
         <v>61.000000000000341</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J56" s="30">
         <f t="shared" si="2"/>
         <v>1.0166666666666724</v>
       </c>
-      <c r="K55" s="30">
+      <c r="K56" s="30">
         <v>1.0166666666666724</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F56" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="G56" s="25">
-        <f>H56-H55</f>
+      <c r="G57" s="25">
+        <f>H57-H56</f>
         <v>1.0069444444444353E-3</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H57" s="25">
         <v>6.4259259259259252E-2</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I57" s="29">
         <f t="shared" si="6"/>
         <v>86.999999999999204</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J57" s="30">
         <f t="shared" si="2"/>
         <v>1.4499999999999866</v>
       </c>
-      <c r="K56" s="30">
+      <c r="K57" s="30">
         <v>1.4499999999999866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I57" s="29" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J57" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K57" s="30" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -11176,9 +11186,6 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>226</v>
-      </c>
       <c r="I59" s="29" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11192,11 +11199,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F60" t="s">
-        <v>318</v>
-      </c>
-      <c r="H60" s="25">
-        <v>3.6296296296296292E-2</v>
+      <c r="A60" t="s">
+        <v>226</v>
       </c>
       <c r="I60" s="29" t="str">
         <f t="shared" si="6"/>
@@ -11212,115 +11216,122 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J61" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K61" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H62" s="25">
+        <v>3.6296296296296292E-2</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="25">
-        <f>H61-H60</f>
+      <c r="G63" s="25">
+        <f>H63-H62</f>
         <v>6.4814814814815463E-4</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H63" s="25">
         <v>3.6944444444444446E-2</v>
       </c>
-      <c r="I61" s="29">
+      <c r="I63" s="29">
         <f t="shared" si="6"/>
         <v>56.000000000000561</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J63" s="30">
         <f t="shared" si="2"/>
         <v>0.93333333333334267</v>
       </c>
-      <c r="K61" s="30">
+      <c r="K63" s="30">
         <v>0.93333333333334267</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F62" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
         <v>231</v>
       </c>
-      <c r="G62" s="25">
-        <f t="shared" ref="G62:G64" si="9">H62-H61</f>
+      <c r="G64" s="25">
+        <f t="shared" ref="G64:G66" si="9">H64-H63</f>
         <v>1.3773148148148104E-3</v>
       </c>
-      <c r="H62" s="25">
+      <c r="H64" s="25">
         <v>3.8321759259259257E-2</v>
       </c>
-      <c r="I62" s="29">
+      <c r="I64" s="29">
         <f t="shared" si="6"/>
         <v>118.99999999999962</v>
       </c>
-      <c r="J62" s="30">
+      <c r="J64" s="30">
         <f t="shared" si="2"/>
         <v>1.983333333333327</v>
       </c>
-      <c r="K62" s="30">
+      <c r="K64" s="30">
         <v>1.983333333333327</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F63" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
         <v>232</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G65" s="25">
         <f t="shared" si="9"/>
         <v>7.9861111111111105E-4</v>
       </c>
-      <c r="H63" s="25">
+      <c r="H65" s="25">
         <v>3.9120370370370368E-2</v>
       </c>
-      <c r="I63" s="29">
+      <c r="I65" s="29">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="J63" s="30">
+      <c r="J65" s="30">
         <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="K63" s="30">
+      <c r="K65" s="30">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F64" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
         <v>229</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G66" s="25">
         <f t="shared" si="9"/>
         <v>1.0416666666666699E-3</v>
       </c>
-      <c r="H64" s="25">
+      <c r="H66" s="25">
         <v>4.0162037037037038E-2</v>
       </c>
-      <c r="I64" s="29">
+      <c r="I66" s="29">
         <f t="shared" si="6"/>
         <v>90.000000000000284</v>
       </c>
-      <c r="J64" s="30">
-        <f>IF(I64="","",I64/60)</f>
+      <c r="J66" s="30">
+        <f>IF(I66="","",I66/60)</f>
         <v>1.5000000000000047</v>
       </c>
-      <c r="K64" s="30">
+      <c r="K66" s="30">
         <v>1.5000000000000047</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I65" s="29" t="str">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I67" s="29" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J65" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K65" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>236</v>
-      </c>
-      <c r="I67" s="29" t="str">
-        <f t="shared" ref="I67:I72" si="10">IF(G67="","",G67*86400)</f>
         <v/>
       </c>
       <c r="J67" s="30" t="str">
@@ -11331,1495 +11342,1505 @@
         <v>317</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F68" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>236</v>
+      </c>
+      <c r="I69" s="29" t="str">
+        <f t="shared" ref="I69:I74" si="10">IF(G69="","",G69*86400)</f>
+        <v/>
+      </c>
+      <c r="J69" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K69" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
         <v>228</v>
       </c>
-      <c r="H68" s="25">
+      <c r="H70" s="25">
         <v>3.9004629629629632E-2</v>
       </c>
-      <c r="I68" s="29" t="str">
+      <c r="I70" s="29" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J68" s="30" t="str">
+      <c r="J70" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K68" s="30" t="s">
+      <c r="K70" s="30" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F69" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
         <v>227</v>
       </c>
-      <c r="G69" s="25">
-        <f>H69-H68</f>
+      <c r="G71" s="25">
+        <f>H71-H70</f>
         <v>5.4398148148147862E-4</v>
       </c>
-      <c r="H69" s="25">
+      <c r="H71" s="25">
         <v>3.9548611111111111E-2</v>
       </c>
-      <c r="I69" s="29">
+      <c r="I71" s="29">
         <f t="shared" si="10"/>
         <v>46.999999999999751</v>
       </c>
-      <c r="J69" s="30">
+      <c r="J71" s="30">
         <f t="shared" si="2"/>
         <v>0.78333333333332922</v>
       </c>
-      <c r="K69" s="30">
+      <c r="K71" s="30">
         <v>0.78333333333332922</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
         <v>231</v>
       </c>
-      <c r="G70" s="25">
-        <f t="shared" ref="G70" si="11">H70-H69</f>
+      <c r="G72" s="25">
+        <f t="shared" ref="G72" si="11">H72-H71</f>
         <v>9.2592592592592726E-4</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H72" s="25">
         <v>4.0474537037037038E-2</v>
       </c>
-      <c r="I70" s="29">
+      <c r="I72" s="29">
         <f t="shared" si="10"/>
         <v>80.000000000000114</v>
       </c>
-      <c r="J70" s="30">
+      <c r="J72" s="30">
         <f t="shared" si="2"/>
         <v>1.3333333333333353</v>
       </c>
-      <c r="K70" s="30">
+      <c r="K72" s="30">
         <v>1.3333333333333353</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F71" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
         <v>232</v>
       </c>
-      <c r="G71" s="25">
-        <f>H71-H70</f>
+      <c r="G73" s="25">
+        <f>H73-H72</f>
         <v>1.3773148148148173E-3</v>
       </c>
-      <c r="H71" s="25">
+      <c r="H73" s="25">
         <v>4.1851851851851855E-2</v>
       </c>
-      <c r="I71" s="29">
+      <c r="I73" s="29">
         <f t="shared" si="10"/>
         <v>119.00000000000021</v>
       </c>
-      <c r="J71" s="30">
+      <c r="J73" s="30">
         <f t="shared" si="2"/>
         <v>1.9833333333333369</v>
       </c>
-      <c r="K71" s="30">
+      <c r="K73" s="30">
         <v>1.9833333333333369</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F72" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
         <v>233</v>
       </c>
-      <c r="G72" s="25">
-        <f>H72-H71</f>
+      <c r="G74" s="25">
+        <f>H74-H73</f>
         <v>1.2847222222222149E-3</v>
       </c>
-      <c r="H72" s="25">
+      <c r="H74" s="25">
         <v>4.313657407407407E-2</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I74" s="29">
         <f t="shared" si="10"/>
         <v>110.99999999999936</v>
       </c>
-      <c r="J72" s="30">
-        <f>IF(I72="","",I72/60)</f>
+      <c r="J74" s="30">
+        <f>IF(I74="","",I74/60)</f>
         <v>1.8499999999999894</v>
       </c>
-      <c r="K72" s="30">
+      <c r="K74" s="30">
         <v>1.8499999999999894</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F73" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
         <v>212</v>
       </c>
-      <c r="G73" s="25">
-        <f>H73-H72</f>
+      <c r="G75" s="25">
+        <f>H75-H74</f>
         <v>9.8379629629630205E-4</v>
       </c>
-      <c r="H73" s="25">
+      <c r="H75" s="25">
         <v>4.4120370370370372E-2</v>
       </c>
-      <c r="I73" s="29">
-        <f t="shared" ref="I73:I77" si="12">IF(G73="","",G73*86400)</f>
+      <c r="I75" s="29">
+        <f t="shared" ref="I75:I79" si="12">IF(G75="","",G75*86400)</f>
         <v>85.000000000000497</v>
       </c>
-      <c r="J73" s="30">
-        <f t="shared" ref="J73:J77" si="13">IF(I73="","",I73/60)</f>
+      <c r="J75" s="30">
+        <f t="shared" ref="J75:J79" si="13">IF(I75="","",I75/60)</f>
         <v>1.416666666666675</v>
       </c>
-      <c r="K73" s="30">
+      <c r="K75" s="30">
         <v>1.416666666666675</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F74" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
         <v>213</v>
       </c>
-      <c r="G74" s="25">
-        <f t="shared" ref="G74:G77" si="14">H74-H73</f>
+      <c r="G76" s="25">
+        <f t="shared" ref="G76:G79" si="14">H76-H75</f>
         <v>7.7546296296295697E-4</v>
       </c>
-      <c r="H74" s="25">
+      <c r="H76" s="25">
         <v>4.4895833333333329E-2</v>
       </c>
-      <c r="I74" s="29">
+      <c r="I76" s="29">
         <f t="shared" si="12"/>
         <v>66.999999999999488</v>
       </c>
-      <c r="J74" s="30">
+      <c r="J76" s="30">
         <f t="shared" si="13"/>
         <v>1.116666666666658</v>
       </c>
-      <c r="K74" s="30">
+      <c r="K76" s="30">
         <v>1.116666666666658</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F75" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
         <v>216</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G77" s="25">
         <f t="shared" si="14"/>
         <v>5.4398148148148556E-4</v>
       </c>
-      <c r="H75" s="25">
+      <c r="H77" s="25">
         <v>4.5439814814814815E-2</v>
       </c>
-      <c r="I75" s="29">
+      <c r="I77" s="29">
         <f t="shared" si="12"/>
         <v>47.000000000000355</v>
       </c>
-      <c r="J75" s="30">
+      <c r="J77" s="30">
         <f t="shared" si="13"/>
         <v>0.78333333333333921</v>
       </c>
-      <c r="K75" s="30">
+      <c r="K77" s="30">
         <v>0.78333333333333921</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F76" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
         <v>217</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G78" s="25">
         <f t="shared" si="14"/>
         <v>5.671296296296327E-4</v>
       </c>
-      <c r="H76" s="25">
+      <c r="H78" s="25">
         <v>4.6006944444444448E-2</v>
       </c>
-      <c r="I76" s="29">
+      <c r="I78" s="29">
         <f t="shared" si="12"/>
         <v>49.000000000000263</v>
       </c>
-      <c r="J76" s="30">
+      <c r="J78" s="30">
         <f t="shared" si="13"/>
         <v>0.81666666666667109</v>
       </c>
-      <c r="K76" s="30">
+      <c r="K78" s="30">
         <v>0.81666666666667109</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F77" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
         <v>235</v>
       </c>
-      <c r="G77" s="25">
+      <c r="G79" s="25">
         <f t="shared" si="14"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="H77" s="25">
+      <c r="H79" s="25">
         <v>4.6446759259259257E-2</v>
       </c>
-      <c r="I77" s="29">
+      <c r="I79" s="29">
         <f t="shared" si="12"/>
         <v>37.999999999999545</v>
       </c>
-      <c r="J77" s="30">
+      <c r="J79" s="30">
         <f t="shared" si="13"/>
         <v>0.63333333333332575</v>
       </c>
-      <c r="K77" s="30">
+      <c r="K79" s="30">
         <v>0.63333333333332575</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L79" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J78" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
         <v>201</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K80" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>234</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F82" t="s">
         <v>230</v>
       </c>
-      <c r="H80" s="25">
+      <c r="H82" s="25">
         <v>1.4328703703703703E-2</v>
       </c>
-      <c r="I80" s="29" t="str">
-        <f t="shared" ref="I80:I89" si="15">IF(G80="","",G80*86400)</f>
+      <c r="I82" s="29" t="str">
+        <f t="shared" ref="I82:I91" si="15">IF(G82="","",G82*86400)</f>
         <v/>
       </c>
-      <c r="J80" s="30" t="str">
-        <f t="shared" ref="J80:J86" si="16">IF(I80="","",I80/60)</f>
+      <c r="J82" s="30" t="str">
+        <f t="shared" ref="J82:J88" si="16">IF(I82="","",I82/60)</f>
         <v/>
       </c>
-      <c r="K80" s="30" t="s">
+      <c r="K82" s="30" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F81" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
         <v>227</v>
       </c>
-      <c r="G81" s="25">
-        <f t="shared" ref="G81:G89" si="17">H81-H80</f>
+      <c r="G83" s="25">
+        <f t="shared" ref="G83:G91" si="17">H83-H82</f>
         <v>1.2962962962962971E-3</v>
       </c>
-      <c r="H81" s="25">
+      <c r="H83" s="25">
         <v>1.5625E-2</v>
       </c>
-      <c r="I81" s="29">
+      <c r="I83" s="29">
         <f t="shared" si="15"/>
         <v>112.00000000000007</v>
       </c>
-      <c r="J81" s="30">
+      <c r="J83" s="30">
         <f t="shared" si="16"/>
         <v>1.8666666666666678</v>
       </c>
-      <c r="K81" s="30">
+      <c r="K83" s="30">
         <v>1.8666666666666678</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F82" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
         <v>231</v>
       </c>
-      <c r="G82" s="25">
+      <c r="G84" s="25">
         <f t="shared" si="17"/>
         <v>8.6805555555555594E-4</v>
       </c>
-      <c r="H82" s="25">
+      <c r="H84" s="25">
         <v>1.6493055555555556E-2</v>
       </c>
-      <c r="I82" s="29">
+      <c r="I84" s="29">
         <f t="shared" si="15"/>
         <v>75.000000000000028</v>
       </c>
-      <c r="J82" s="30">
+      <c r="J84" s="30">
         <f t="shared" si="16"/>
         <v>1.2500000000000004</v>
       </c>
-      <c r="K82" s="30">
+      <c r="K84" s="30">
         <v>1.2500000000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F83" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
         <v>232</v>
       </c>
-      <c r="G83" s="25">
+      <c r="G85" s="25">
         <f t="shared" si="17"/>
         <v>5.4398148148148209E-4</v>
       </c>
-      <c r="H83" s="25">
+      <c r="H85" s="25">
         <v>1.7037037037037038E-2</v>
       </c>
-      <c r="I83" s="29">
+      <c r="I85" s="29">
         <f t="shared" si="15"/>
         <v>47.00000000000005</v>
       </c>
-      <c r="J83" s="30">
+      <c r="J85" s="30">
         <f t="shared" si="16"/>
         <v>0.78333333333333421</v>
       </c>
-      <c r="K83" s="30">
+      <c r="K85" s="30">
         <v>0.78333333333333421</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F84" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
         <v>233</v>
       </c>
-      <c r="G84" s="25">
+      <c r="G86" s="25">
         <f t="shared" si="17"/>
         <v>1.3310185185185161E-3</v>
       </c>
-      <c r="H84" s="25">
+      <c r="H86" s="25">
         <v>1.8368055555555554E-2</v>
       </c>
-      <c r="I84" s="29">
+      <c r="I86" s="29">
         <f t="shared" si="15"/>
         <v>114.99999999999979</v>
       </c>
-      <c r="J84" s="30">
+      <c r="J86" s="30">
         <f t="shared" si="16"/>
         <v>1.9166666666666632</v>
       </c>
-      <c r="K84" s="30">
+      <c r="K86" s="30">
         <v>1.9166666666666632</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
         <v>212</v>
       </c>
-      <c r="G85" s="25">
+      <c r="G87" s="25">
         <f t="shared" si="17"/>
         <v>9.490740740740744E-4</v>
       </c>
-      <c r="H85" s="25">
+      <c r="H87" s="25">
         <v>1.9317129629629629E-2</v>
       </c>
-      <c r="I85" s="29">
+      <c r="I87" s="29">
         <f t="shared" si="15"/>
         <v>82.000000000000028</v>
       </c>
-      <c r="J85" s="30">
+      <c r="J87" s="30">
         <f t="shared" si="16"/>
         <v>1.3666666666666671</v>
       </c>
-      <c r="K85" s="30">
+      <c r="K87" s="30">
         <v>1.3666666666666671</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F86" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
         <v>213</v>
       </c>
-      <c r="G86" s="25">
+      <c r="G88" s="25">
         <f t="shared" si="17"/>
         <v>1.1921296296296298E-3</v>
       </c>
-      <c r="H86" s="25">
+      <c r="H88" s="25">
         <v>2.0509259259259258E-2</v>
       </c>
-      <c r="I86" s="29">
+      <c r="I88" s="29">
         <f t="shared" si="15"/>
         <v>103.00000000000001</v>
       </c>
-      <c r="J86" s="30">
+      <c r="J88" s="30">
         <f t="shared" si="16"/>
         <v>1.716666666666667</v>
       </c>
-      <c r="K86" s="30">
+      <c r="K88" s="30">
         <v>1.716666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F87" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
         <v>216</v>
       </c>
-      <c r="G87" s="25">
+      <c r="G89" s="25">
         <f t="shared" si="17"/>
         <v>5.787037037037028E-4</v>
       </c>
-      <c r="H87" s="25">
+      <c r="H89" s="25">
         <v>2.1087962962962961E-2</v>
       </c>
-      <c r="I87" s="29">
+      <c r="I89" s="29">
         <f t="shared" si="15"/>
         <v>49.999999999999922</v>
       </c>
-      <c r="J87" s="30">
-        <f t="shared" ref="J87:J89" si="18">IF(I87="","",I87/60)</f>
+      <c r="J89" s="30">
+        <f t="shared" ref="J89:J91" si="18">IF(I89="","",I89/60)</f>
         <v>0.83333333333333204</v>
       </c>
-      <c r="K87" s="30">
+      <c r="K89" s="30">
         <v>0.83333333333333204</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F88" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
         <v>217</v>
       </c>
-      <c r="G88" s="25">
+      <c r="G90" s="25">
         <f t="shared" si="17"/>
         <v>5.7870370370370627E-4</v>
       </c>
-      <c r="H88" s="25">
+      <c r="H90" s="25">
         <v>2.1666666666666667E-2</v>
       </c>
-      <c r="I88" s="29">
+      <c r="I90" s="29">
         <f t="shared" si="15"/>
         <v>50.00000000000022</v>
       </c>
-      <c r="J88" s="30">
+      <c r="J90" s="30">
         <f t="shared" si="18"/>
         <v>0.83333333333333703</v>
       </c>
-      <c r="K88" s="30">
+      <c r="K90" s="30">
         <v>0.83333333333333703</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F89" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
         <v>235</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G91" s="25">
         <f t="shared" si="17"/>
         <v>1.2037037037037034E-3</v>
       </c>
-      <c r="H89" s="25">
+      <c r="H91" s="25">
         <v>2.2870370370370371E-2</v>
       </c>
-      <c r="I89" s="29">
+      <c r="I91" s="29">
         <f t="shared" si="15"/>
         <v>103.99999999999997</v>
       </c>
-      <c r="J89" s="30">
+      <c r="J91" s="30">
         <f t="shared" si="18"/>
         <v>1.7333333333333329</v>
       </c>
-      <c r="K89" s="30">
+      <c r="K91" s="30">
         <v>1.7333333333333329</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G90" s="25"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G91" s="25"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-    </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>238</v>
-      </c>
-      <c r="F92" t="s">
-        <v>229</v>
-      </c>
       <c r="G92" s="25"/>
-      <c r="H92" s="25">
-        <v>0</v>
-      </c>
       <c r="J92" s="30"/>
       <c r="K92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F93" t="s">
+      <c r="G93" s="25"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>238</v>
+      </c>
+      <c r="F94" t="s">
+        <v>229</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25">
+        <v>0</v>
+      </c>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
         <v>239</v>
       </c>
-      <c r="G93" s="25">
-        <f t="shared" ref="G93:G96" si="19">H93-H92</f>
+      <c r="G95" s="25">
+        <f t="shared" ref="G95:G98" si="19">H95-H94</f>
         <v>4.5138888888888892E-4</v>
       </c>
-      <c r="H93" s="25">
+      <c r="H95" s="25">
         <v>4.5138888888888892E-4</v>
       </c>
-      <c r="I93" s="29">
-        <f>IF(G93="","",G93*86400)</f>
+      <c r="I95" s="29">
+        <f>IF(G95="","",G95*86400)</f>
         <v>39</v>
       </c>
-      <c r="J93" s="30">
-        <f>IF(I93="","",I93/60)</f>
+      <c r="J95" s="30">
+        <f>IF(I95="","",I95/60)</f>
         <v>0.65</v>
       </c>
-      <c r="K93" s="30">
+      <c r="K95" s="30">
         <v>0.65</v>
       </c>
-      <c r="L93" s="30"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F94" t="s">
+      <c r="L95" s="30"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
         <v>240</v>
       </c>
-      <c r="G94" s="25">
+      <c r="G96" s="25">
         <f t="shared" si="19"/>
         <v>5.5555555555555545E-4</v>
       </c>
-      <c r="H94" s="25">
+      <c r="H96" s="25">
         <v>1.0069444444444444E-3</v>
       </c>
-      <c r="I94" s="29">
-        <f>IF(G94="","",G94*86400)</f>
+      <c r="I96" s="29">
+        <f>IF(G96="","",G96*86400)</f>
         <v>47.999999999999993</v>
       </c>
-      <c r="J94" s="30">
-        <f t="shared" ref="J94:J96" si="20">IF(I94="","",I94/60)</f>
+      <c r="J96" s="30">
+        <f t="shared" ref="J96:J98" si="20">IF(I96="","",I96/60)</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="K94" s="30">
+      <c r="K96" s="30">
         <v>0.79999999999999993</v>
       </c>
-      <c r="L94" s="30"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F95" t="s">
+      <c r="L96" s="30"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
         <v>115</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G97" s="25">
         <f t="shared" si="19"/>
         <v>1.0532407407407409E-3</v>
       </c>
-      <c r="H95" s="25">
+      <c r="H97" s="25">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="I95" s="29">
-        <f>IF(G95="","",G95*86400)</f>
+      <c r="I97" s="29">
+        <f>IF(G97="","",G97*86400)</f>
         <v>91.000000000000014</v>
       </c>
-      <c r="J95" s="30">
+      <c r="J97" s="30">
         <f t="shared" si="20"/>
         <v>1.5166666666666668</v>
       </c>
-      <c r="K95" s="30">
+      <c r="K97" s="30">
         <v>1.5166666666666668</v>
       </c>
-      <c r="L95" s="30"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F96" t="s">
+      <c r="L97" s="30"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
         <v>241</v>
       </c>
-      <c r="G96" s="25">
+      <c r="G98" s="25">
         <f t="shared" si="19"/>
         <v>4.8611111111111077E-4</v>
       </c>
-      <c r="H96" s="25">
+      <c r="H98" s="25">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="I96" s="29">
-        <f>IF(G96="","",G96*86400)</f>
+      <c r="I98" s="29">
+        <f>IF(G98="","",G98*86400)</f>
         <v>41.999999999999972</v>
       </c>
-      <c r="J96" s="30">
+      <c r="J98" s="30">
         <f t="shared" si="20"/>
         <v>0.69999999999999951</v>
       </c>
-      <c r="K96" s="30">
+      <c r="K98" s="30">
         <v>0.69999999999999951</v>
       </c>
-      <c r="L96" s="30"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G97" s="25"/>
-      <c r="J97">
+      <c r="L98" s="30"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G99" s="25"/>
+      <c r="J99">
         <v>0.2</v>
       </c>
-      <c r="K97">
+      <c r="K99">
         <v>0.2</v>
       </c>
-      <c r="L97" s="30"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G98" s="25"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="L99" s="30"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G100" s="25"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>298</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F101" t="s">
         <v>299</v>
       </c>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25">
+      <c r="G101" s="25"/>
+      <c r="H101" s="25">
         <v>3.3090277777777781E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F100" s="20" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F102" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G100" s="25">
-        <f>H100-H99</f>
+      <c r="G102" s="25">
+        <f>H102-H101</f>
         <v>1.2037037037036999E-3</v>
       </c>
-      <c r="H100" s="25">
+      <c r="H102" s="25">
         <v>3.4293981481481481E-2</v>
       </c>
-      <c r="I100" s="29">
-        <f t="shared" ref="I100:I105" si="21">IF(G100="","",G100*86400)</f>
+      <c r="I102" s="29">
+        <f t="shared" ref="I102:I107" si="21">IF(G102="","",G102*86400)</f>
         <v>103.99999999999967</v>
       </c>
-      <c r="J100" s="30">
-        <f>IF(I100="","",I100/60)</f>
+      <c r="J102" s="30">
+        <f>IF(I102="","",I102/60)</f>
         <v>1.7333333333333278</v>
       </c>
-      <c r="K100" s="30">
+      <c r="K102" s="30">
         <v>1.7333333333333278</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F101" s="20" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F103" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="G101" s="25">
-        <f t="shared" ref="G101:G105" si="22">H101-H100</f>
+      <c r="G103" s="25">
+        <f t="shared" ref="G103:G107" si="22">H103-H102</f>
         <v>7.1759259259259606E-4</v>
       </c>
-      <c r="H101" s="25">
+      <c r="H103" s="25">
         <v>3.5011574074074077E-2</v>
       </c>
-      <c r="I101" s="29">
+      <c r="I103" s="29">
         <f t="shared" si="21"/>
         <v>62.000000000000298</v>
       </c>
-      <c r="J101" s="30">
-        <f t="shared" ref="J101:J105" si="23">IF(I101="","",I101/60)</f>
+      <c r="J103" s="30">
+        <f t="shared" ref="J103:J107" si="23">IF(I103="","",I103/60)</f>
         <v>1.0333333333333383</v>
       </c>
-      <c r="K101" s="30">
+      <c r="K103" s="30">
         <v>1.0333333333333383</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F102" s="20" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F104" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="G102" s="25">
+      <c r="G104" s="25">
         <f t="shared" si="22"/>
         <v>7.1759259259258912E-4</v>
       </c>
-      <c r="H102" s="25">
+      <c r="H104" s="25">
         <v>3.5729166666666666E-2</v>
       </c>
-      <c r="I102" s="29">
+      <c r="I104" s="29">
         <f t="shared" si="21"/>
         <v>61.999999999999702</v>
       </c>
-      <c r="J102" s="30">
+      <c r="J104" s="30">
         <f t="shared" si="23"/>
         <v>1.0333333333333283</v>
       </c>
-      <c r="K102" s="30">
+      <c r="K104" s="30">
         <v>1.0333333333333283</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F103" s="11" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F105" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G103" s="25">
+      <c r="G105" s="25">
         <f t="shared" si="22"/>
         <v>1.5393518518518473E-3</v>
       </c>
-      <c r="H103" s="25">
+      <c r="H105" s="25">
         <v>3.7268518518518513E-2</v>
       </c>
-      <c r="I103" s="29">
+      <c r="I105" s="29">
         <f t="shared" si="21"/>
         <v>132.9999999999996</v>
       </c>
-      <c r="J103" s="30">
+      <c r="J105" s="30">
         <f t="shared" si="23"/>
         <v>2.2166666666666601</v>
       </c>
-      <c r="K103" s="30">
+      <c r="K105" s="30">
         <v>2.2166666666666601</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F104" s="11" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F106" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G104" s="25">
+      <c r="G106" s="25">
         <f t="shared" si="22"/>
         <v>7.17592592592603E-4</v>
       </c>
-      <c r="H104" s="25">
+      <c r="H106" s="25">
         <v>3.7986111111111116E-2</v>
       </c>
-      <c r="I104" s="29">
+      <c r="I106" s="29">
         <f t="shared" si="21"/>
         <v>62.000000000000895</v>
       </c>
-      <c r="J104" s="30">
-        <f>IF(I104="","",I104/60)</f>
+      <c r="J106" s="30">
+        <f>IF(I106="","",I106/60)</f>
         <v>1.0333333333333483</v>
       </c>
-      <c r="K104" s="30">
+      <c r="K106" s="30">
         <v>1.0333333333333483</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F105" s="20" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F107" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="G105" s="25">
+      <c r="G107" s="25">
         <f t="shared" si="22"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="H105" s="25">
+      <c r="H107" s="25">
         <v>4.0069444444444442E-2</v>
       </c>
-      <c r="I105" s="29">
+      <c r="I107" s="29">
         <f t="shared" si="21"/>
         <v>179.99999999999937</v>
       </c>
-      <c r="J105" s="30">
+      <c r="J107" s="30">
         <f t="shared" si="23"/>
         <v>2.9999999999999898</v>
       </c>
-      <c r="K105" s="30">
+      <c r="K107" s="30">
         <v>2.9999999999999898</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G106" s="25"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G107" s="25"/>
-    </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="G108" s="25"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G109" s="25"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>300</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25">
+      <c r="G110" s="25"/>
+      <c r="H110" s="25">
         <v>3.9351851851851852E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>301</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="F111" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="G109" s="25">
-        <f t="shared" ref="G109:G111" si="24">H109-H108</f>
+      <c r="G111" s="25">
+        <f t="shared" ref="G111:G113" si="24">H111-H110</f>
         <v>6.4814814814814813E-4</v>
       </c>
-      <c r="H109" s="25">
+      <c r="H111" s="25">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="I109" s="29">
-        <f t="shared" ref="I109:I111" si="25">IF(G109="","",G109*86400)</f>
+      <c r="I111" s="29">
+        <f t="shared" ref="I111:I113" si="25">IF(G111="","",G111*86400)</f>
         <v>56</v>
       </c>
-      <c r="J109" s="30">
-        <f t="shared" ref="J109:J111" si="26">IF(I109="","",I109/60)</f>
+      <c r="J111" s="30">
+        <f t="shared" ref="J111:J113" si="26">IF(I111="","",I111/60)</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="K109" s="30">
+      <c r="K111" s="30">
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F110" s="20" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F112" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G110" s="25">
+      <c r="G112" s="25">
         <f t="shared" si="24"/>
         <v>1.25E-3</v>
       </c>
-      <c r="H110" s="25">
+      <c r="H112" s="25">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="I110" s="29">
+      <c r="I112" s="29">
         <f t="shared" si="25"/>
         <v>108</v>
       </c>
-      <c r="J110" s="30">
+      <c r="J112" s="30">
         <f t="shared" si="26"/>
         <v>1.8</v>
       </c>
-      <c r="K110" s="30">
+      <c r="K112" s="30">
         <v>1.8</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F111" s="20" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F113" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="G111" s="25">
+      <c r="G113" s="25">
         <f t="shared" si="24"/>
         <v>1.4583333333333336E-3</v>
       </c>
-      <c r="H111" s="25">
+      <c r="H113" s="25">
         <v>3.7500000000000003E-3</v>
       </c>
-      <c r="I111" s="29">
+      <c r="I113" s="29">
         <f t="shared" si="25"/>
         <v>126.00000000000003</v>
       </c>
-      <c r="J111" s="30">
+      <c r="J113" s="30">
         <f t="shared" si="26"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="K111" s="30">
+      <c r="K113" s="30">
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G113" s="25"/>
-    </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G115" s="25"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>302</v>
       </c>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25">
+      <c r="G116" s="25"/>
+      <c r="H116" s="25">
         <v>6.039351851851852E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F115" s="20" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F117" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="G115" s="25">
-        <f t="shared" ref="G115:G120" si="27">H115-H114</f>
+      <c r="G117" s="25">
+        <f t="shared" ref="G117:G122" si="27">H117-H116</f>
         <v>1.6782407407407371E-3</v>
       </c>
-      <c r="H115" s="25">
+      <c r="H117" s="25">
         <v>6.2071759259259257E-2</v>
       </c>
-      <c r="I115" s="29">
-        <f t="shared" ref="I115:I120" si="28">IF(G115="","",G115*86400)</f>
+      <c r="I117" s="29">
+        <f t="shared" ref="I117:I122" si="28">IF(G117="","",G117*86400)</f>
         <v>144.99999999999969</v>
       </c>
-      <c r="J115" s="30">
-        <f t="shared" ref="J115:J120" si="29">IF(I115="","",I115/60)</f>
+      <c r="J117" s="30">
+        <f t="shared" ref="J117:J122" si="29">IF(I117="","",I117/60)</f>
         <v>2.4166666666666616</v>
       </c>
-      <c r="K115" s="30">
+      <c r="K117" s="30">
         <v>2.4166666666666616</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F116" s="20" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F118" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="G116" s="25">
+      <c r="G118" s="25">
         <f t="shared" si="27"/>
         <v>1.1574074074074125E-3</v>
       </c>
-      <c r="H116" s="25">
+      <c r="H118" s="25">
         <v>6.322916666666667E-2</v>
       </c>
-      <c r="I116" s="29">
+      <c r="I118" s="29">
         <f t="shared" si="28"/>
         <v>100.00000000000044</v>
       </c>
-      <c r="J116" s="30">
+      <c r="J118" s="30">
         <f t="shared" si="29"/>
         <v>1.6666666666666741</v>
       </c>
-      <c r="K116" s="30">
+      <c r="K118" s="30">
         <v>1.6666666666666741</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F117" s="20" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F119" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G117" s="25">
+      <c r="G119" s="25">
         <f t="shared" si="27"/>
         <v>1.2384259259259206E-3</v>
       </c>
-      <c r="H117" s="25">
+      <c r="H119" s="25">
         <v>6.446759259259259E-2</v>
       </c>
-      <c r="I117" s="29">
+      <c r="I119" s="29">
         <f t="shared" si="28"/>
         <v>106.99999999999955</v>
       </c>
-      <c r="J117" s="30">
+      <c r="J119" s="30">
         <f t="shared" si="29"/>
         <v>1.7833333333333257</v>
       </c>
-      <c r="K117" s="30">
+      <c r="K119" s="30">
         <v>1.7833333333333257</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F118" s="20" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F120" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G118" s="25">
+      <c r="G120" s="25">
         <f t="shared" si="27"/>
         <v>6.1342592592592005E-4</v>
       </c>
-      <c r="H118" s="25">
+      <c r="H120" s="25">
         <v>6.508101851851851E-2</v>
       </c>
-      <c r="I118" s="29">
+      <c r="I120" s="29">
         <f t="shared" si="28"/>
         <v>52.999999999999488</v>
       </c>
-      <c r="J118" s="30">
+      <c r="J120" s="30">
         <f t="shared" si="29"/>
         <v>0.88333333333332476</v>
       </c>
-      <c r="K118" s="30">
+      <c r="K120" s="30">
         <v>0.88333333333332476</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F119" s="32" t="s">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F121" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="G119" s="25">
+      <c r="G121" s="25">
         <f t="shared" si="27"/>
         <v>7.4074074074075014E-4</v>
       </c>
-      <c r="H119" s="25">
+      <c r="H121" s="25">
         <v>6.582175925925926E-2</v>
       </c>
-      <c r="I119" s="29">
+      <c r="I121" s="29">
         <f t="shared" si="28"/>
         <v>64.00000000000081</v>
       </c>
-      <c r="J119" s="30">
+      <c r="J121" s="30">
         <f t="shared" si="29"/>
         <v>1.0666666666666802</v>
       </c>
-      <c r="K119" s="30">
+      <c r="K121" s="30">
         <v>1.0666666666666802</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F120" s="20" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F122" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="25">
+      <c r="G122" s="25">
         <f t="shared" si="27"/>
         <v>1.3078703703703759E-3</v>
       </c>
-      <c r="H120" s="25">
+      <c r="H122" s="25">
         <v>6.7129629629629636E-2</v>
       </c>
-      <c r="I120" s="29">
+      <c r="I122" s="29">
         <f t="shared" si="28"/>
         <v>113.00000000000048</v>
       </c>
-      <c r="J120" s="30">
+      <c r="J122" s="30">
         <f t="shared" si="29"/>
         <v>1.8833333333333413</v>
       </c>
-      <c r="K120" s="30">
+      <c r="K122" s="30">
         <v>1.8833333333333413</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F121" s="32"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G122" s="25"/>
-    </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="F123" s="32"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G124" s="25"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>309</v>
       </c>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25">
+      <c r="G125" s="25"/>
+      <c r="H125" s="25">
         <v>0.18956018518518516</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F124" s="20" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F126" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="G124" s="25">
-        <f t="shared" ref="G124:G132" si="30">H124-H123</f>
+      <c r="G126" s="25">
+        <f t="shared" ref="G126:G134" si="30">H126-H125</f>
         <v>1.0648148148148517E-3</v>
       </c>
-      <c r="H124" s="25">
+      <c r="H126" s="25">
         <v>0.19062500000000002</v>
       </c>
-      <c r="I124" s="29">
-        <f>IF(G124="","",G124*86400)</f>
+      <c r="I126" s="29">
+        <f>IF(G126="","",G126*86400)</f>
         <v>92.000000000003183</v>
       </c>
-      <c r="J124" s="30">
-        <f t="shared" ref="J124:J132" si="31">IF(I124="","",I124/60)</f>
+      <c r="J126" s="30">
+        <f t="shared" ref="J126:J134" si="31">IF(I126="","",I126/60)</f>
         <v>1.5333333333333863</v>
       </c>
-      <c r="K124" s="30">
+      <c r="K126" s="30">
         <v>1.5333333333333863</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F125" s="20" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F127" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="G125" s="25">
+      <c r="G127" s="25">
         <f t="shared" si="30"/>
         <v>7.4074074074073626E-4</v>
       </c>
-      <c r="H125" s="25">
+      <c r="H127" s="25">
         <v>0.19136574074074075</v>
       </c>
-      <c r="I125" s="29">
-        <f t="shared" ref="I125:I129" si="32">IF(G125="","",G125*86400)</f>
+      <c r="I127" s="29">
+        <f t="shared" ref="I127:I131" si="32">IF(G127="","",G127*86400)</f>
         <v>63.999999999999616</v>
       </c>
-      <c r="J125" s="30">
+      <c r="J127" s="30">
         <f t="shared" si="31"/>
         <v>1.0666666666666602</v>
       </c>
-      <c r="K125" s="30">
+      <c r="K127" s="30">
         <v>1.0666666666666602</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F126" s="20" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F128" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G126" s="25">
+      <c r="G128" s="25">
         <f t="shared" si="30"/>
         <v>5.5555555555553138E-4</v>
       </c>
-      <c r="H126" s="25">
+      <c r="H128" s="25">
         <v>0.19192129629629628</v>
       </c>
-      <c r="I126" s="29">
+      <c r="I128" s="29">
         <f t="shared" si="32"/>
         <v>47.999999999997911</v>
       </c>
-      <c r="J126" s="30">
+      <c r="J128" s="30">
         <f t="shared" si="31"/>
         <v>0.79999999999996518</v>
       </c>
-      <c r="K126" s="30">
+      <c r="K128" s="30">
         <v>0.79999999999996518</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F127" s="20" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F129" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="G127" s="25">
+      <c r="G129" s="25">
         <f t="shared" si="30"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="H127" s="25">
+      <c r="H129" s="25">
         <v>0.19243055555555555</v>
       </c>
-      <c r="I127" s="29">
+      <c r="I129" s="29">
         <f t="shared" si="32"/>
         <v>44.000000000000483</v>
       </c>
-      <c r="J127" s="30">
+      <c r="J129" s="30">
         <f t="shared" si="31"/>
         <v>0.73333333333334139</v>
       </c>
-      <c r="K127" s="30">
+      <c r="K129" s="30">
         <v>0.73333333333334139</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F128" s="20" t="s">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F130" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="G128" s="25">
+      <c r="G130" s="25">
         <f t="shared" si="30"/>
         <v>7.2916666666666963E-4</v>
       </c>
-      <c r="H128" s="25">
+      <c r="H130" s="25">
         <v>0.19315972222222222</v>
       </c>
-      <c r="I128" s="29">
+      <c r="I130" s="29">
         <f t="shared" si="32"/>
         <v>63.000000000000256</v>
       </c>
-      <c r="J128" s="30">
+      <c r="J130" s="30">
         <f t="shared" si="31"/>
         <v>1.0500000000000043</v>
       </c>
-      <c r="K128" s="30">
+      <c r="K130" s="30">
         <v>1.0500000000000043</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F129" s="20" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F131" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="G129" s="25">
+      <c r="G131" s="25">
         <f t="shared" si="30"/>
         <v>1.4351851851851782E-3</v>
       </c>
-      <c r="H129" s="25">
+      <c r="H131" s="25">
         <v>0.1945949074074074</v>
       </c>
-      <c r="I129" s="29">
+      <c r="I131" s="29">
         <f t="shared" si="32"/>
         <v>123.9999999999994</v>
       </c>
-      <c r="J129" s="30">
+      <c r="J131" s="30">
         <f t="shared" si="31"/>
         <v>2.0666666666666567</v>
       </c>
-      <c r="K129" s="30">
+      <c r="K131" s="30">
         <v>2.0666666666666567</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F130" s="20" t="s">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F132" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="G130" s="25">
+      <c r="G132" s="25">
         <f t="shared" si="30"/>
         <v>5.439814814814925E-4</v>
       </c>
-      <c r="H130" s="25">
+      <c r="H132" s="25">
         <v>0.19513888888888889</v>
       </c>
-      <c r="I130" s="29">
-        <f>IF(G130="","",G130*86400)</f>
+      <c r="I132" s="29">
+        <f>IF(G132="","",G132*86400)</f>
         <v>47.000000000000952</v>
       </c>
-      <c r="J130" s="30">
+      <c r="J132" s="30">
         <f t="shared" si="31"/>
         <v>0.7833333333333492</v>
       </c>
-      <c r="K130" s="30">
+      <c r="K132" s="30">
         <v>0.7833333333333492</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F131" s="20" t="s">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F133" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G131" s="25">
+      <c r="G133" s="25">
         <f t="shared" si="30"/>
         <v>1.2152777777778012E-3</v>
       </c>
-      <c r="H131" s="25">
+      <c r="H133" s="25">
         <v>0.19635416666666669</v>
       </c>
-      <c r="I131" s="29">
-        <f t="shared" ref="I131:I132" si="33">IF(G131="","",G131*86400)</f>
+      <c r="I133" s="29">
+        <f t="shared" ref="I133:I134" si="33">IF(G133="","",G133*86400)</f>
         <v>105.00000000000202</v>
       </c>
-      <c r="J131" s="30">
+      <c r="J133" s="30">
         <f t="shared" si="31"/>
         <v>1.7500000000000335</v>
       </c>
-      <c r="K131" s="30">
+      <c r="K133" s="30">
         <v>1.7500000000000335</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F132" s="20" t="s">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F134" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G132" s="25">
+      <c r="G134" s="25">
         <f t="shared" si="30"/>
         <v>6.3657407407405331E-4</v>
       </c>
-      <c r="H132" s="25">
+      <c r="H134" s="25">
         <v>0.19699074074074074</v>
       </c>
-      <c r="I132" s="29">
+      <c r="I134" s="29">
         <f t="shared" si="33"/>
         <v>54.999999999998209</v>
       </c>
-      <c r="J132" s="30">
+      <c r="J134" s="30">
         <f t="shared" si="31"/>
         <v>0.91666666666663688</v>
       </c>
-      <c r="K132" s="30">
+      <c r="K134" s="30">
         <v>0.91666666666663688</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G133" s="25"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G134" s="25"/>
-    </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="G135" s="25"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G136" s="25"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>311</v>
       </c>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25">
+      <c r="G137" s="25"/>
+      <c r="H137" s="25">
         <v>7.8657407407407412E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F136" s="20" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F138" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="G136" s="25">
-        <f t="shared" ref="G136:G140" si="34">H136-H135</f>
+      <c r="G138" s="25">
+        <f t="shared" ref="G138:G142" si="34">H138-H137</f>
         <v>1.145833333333332E-3</v>
       </c>
-      <c r="H136" s="25">
+      <c r="H138" s="25">
         <v>7.9803240740740744E-2</v>
       </c>
-      <c r="I136" s="29">
-        <f>IF(G136="","",G136*86400)</f>
+      <c r="I138" s="29">
+        <f>IF(G138="","",G138*86400)</f>
         <v>98.999999999999886</v>
       </c>
-      <c r="J136" s="30">
-        <f t="shared" ref="J136:J141" si="35">IF(I136="","",I136/60)</f>
+      <c r="J138" s="30">
+        <f>IF(I138="","",I138/60)</f>
         <v>1.6499999999999981</v>
       </c>
-      <c r="K136" s="30">
+      <c r="K138" s="30">
         <v>1.6499999999999981</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F137" s="20" t="s">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F139" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="G137" s="25">
+      <c r="G139" s="25">
         <f t="shared" si="34"/>
         <v>8.333333333333387E-4</v>
       </c>
-      <c r="H137" s="25">
+      <c r="H139" s="25">
         <v>8.0636574074074083E-2</v>
       </c>
-      <c r="I137" s="29">
-        <f t="shared" ref="I137:I141" si="36">IF(G137="","",G137*86400)</f>
+      <c r="I139" s="29">
+        <f t="shared" ref="I139:I143" si="35">IF(G139="","",G139*86400)</f>
         <v>72.000000000000469</v>
       </c>
-      <c r="J137" s="30">
-        <f t="shared" si="35"/>
+      <c r="J139" s="30">
+        <f t="shared" ref="J139:J143" si="36">IF(I139="","",I139/60)</f>
         <v>1.2000000000000077</v>
       </c>
-      <c r="K137" s="30">
+      <c r="K139" s="30">
         <v>1.2000000000000077</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F138" s="20" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F140" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G138" s="25">
+      <c r="G140" s="25">
         <f t="shared" si="34"/>
         <v>6.0185185185185341E-4</v>
       </c>
-      <c r="H138" s="25">
+      <c r="H140" s="25">
         <v>8.1238425925925936E-2</v>
       </c>
-      <c r="I138" s="29">
+      <c r="I140" s="29">
+        <f t="shared" si="35"/>
+        <v>52.000000000000135</v>
+      </c>
+      <c r="J140" s="30">
         <f t="shared" si="36"/>
-        <v>52.000000000000135</v>
-      </c>
-      <c r="J138" s="30">
-        <f t="shared" si="35"/>
         <v>0.86666666666666892</v>
       </c>
-      <c r="K138" s="30">
+      <c r="K140" s="30">
         <v>0.86666666666666892</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F139" s="20" t="s">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F141" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="G139" s="25">
+      <c r="G141" s="25">
         <f t="shared" si="34"/>
         <v>6.1342592592592005E-4</v>
       </c>
-      <c r="H139" s="25">
+      <c r="H141" s="25">
         <v>8.1851851851851856E-2</v>
       </c>
-      <c r="I139" s="29">
+      <c r="I141" s="29">
+        <f t="shared" si="35"/>
+        <v>52.999999999999488</v>
+      </c>
+      <c r="J141" s="30">
         <f t="shared" si="36"/>
-        <v>52.999999999999488</v>
-      </c>
-      <c r="J139" s="30">
-        <f t="shared" si="35"/>
         <v>0.88333333333332476</v>
       </c>
-      <c r="K139" s="30">
+      <c r="K141" s="30">
         <v>0.88333333333332476</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F140" s="20" t="s">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F142" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="G140" s="25">
+      <c r="G142" s="25">
         <f t="shared" si="34"/>
         <v>5.6712962962962576E-4</v>
       </c>
-      <c r="H140" s="25">
+      <c r="H142" s="25">
         <v>8.2418981481481482E-2</v>
       </c>
-      <c r="I140" s="29">
+      <c r="I142" s="29">
+        <f t="shared" si="35"/>
+        <v>48.999999999999666</v>
+      </c>
+      <c r="J142" s="30">
         <f t="shared" si="36"/>
-        <v>48.999999999999666</v>
-      </c>
-      <c r="J140" s="30">
+        <v>0.8166666666666611</v>
+      </c>
+      <c r="K142" s="30">
+        <v>0.8166666666666611</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F143" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="G143" s="25"/>
+      <c r="I143" s="29" t="str">
         <f t="shared" si="35"/>
-        <v>0.8166666666666611</v>
-      </c>
-      <c r="K140" s="30">
-        <v>0.8166666666666611</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F141" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="G141" s="25"/>
-      <c r="I141" s="29" t="str">
+        <v/>
+      </c>
+      <c r="J143" s="30" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J141" s="30" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="K141" s="30" t="s">
+      <c r="K143" s="30" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G142" s="25"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G143" s="25"/>
-    </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="G144" s="25"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G145" s="25"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>319</v>
       </c>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25">
+      <c r="G146" s="25"/>
+      <c r="H146" s="25">
         <v>2.5462962962962961E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F145" s="20" t="s">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F147" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G145" s="25">
-        <f t="shared" ref="G145:G147" si="37">H145-H144</f>
+      <c r="G147" s="25">
+        <f t="shared" ref="G147:G149" si="37">H147-H146</f>
         <v>5.9027777777777789E-4</v>
       </c>
-      <c r="H145" s="25">
+      <c r="H147" s="25">
         <v>8.449074074074075E-4</v>
       </c>
-      <c r="I145" s="29">
-        <f>IF(G145="","",G145*86400)</f>
+      <c r="I147" s="29">
+        <f>IF(G147="","",G147*86400)</f>
         <v>51.000000000000007</v>
       </c>
-      <c r="J145" s="30">
-        <f t="shared" ref="J145:J147" si="38">IF(I145="","",I145/60)</f>
+      <c r="J147" s="30">
+        <f t="shared" ref="J147:J149" si="38">IF(I147="","",I147/60)</f>
         <v>0.85000000000000009</v>
       </c>
-      <c r="K145" s="30">
+      <c r="K147" s="30">
         <v>1.6499999999999981</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F146" s="20" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F148" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G146" s="25">
+      <c r="G148" s="25">
         <f t="shared" si="37"/>
         <v>1.2384259259259258E-3</v>
       </c>
-      <c r="H146" s="25">
+      <c r="H148" s="25">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="I146" s="29">
-        <f t="shared" ref="I146:I147" si="39">IF(G146="","",G146*86400)</f>
+      <c r="I148" s="29">
+        <f t="shared" ref="I148:I149" si="39">IF(G148="","",G148*86400)</f>
         <v>106.99999999999999</v>
       </c>
-      <c r="J146" s="30">
+      <c r="J148" s="30">
         <f t="shared" si="38"/>
         <v>1.783333333333333</v>
       </c>
-      <c r="K146" s="30">
+      <c r="K148" s="30">
         <v>1.2000000000000077</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F147" s="20" t="s">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F149" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G147" s="25">
+      <c r="G149" s="25">
         <f t="shared" si="37"/>
         <v>5.7870370370370411E-4</v>
       </c>
-      <c r="H147" s="25">
+      <c r="H149" s="25">
         <v>2.6620370370370374E-3</v>
       </c>
-      <c r="I147" s="29">
+      <c r="I149" s="29">
         <f t="shared" si="39"/>
         <v>50.000000000000036</v>
       </c>
-      <c r="J147" s="30">
+      <c r="J149" s="30">
         <f t="shared" si="38"/>
         <v>0.83333333333333393</v>
       </c>
-      <c r="K147" s="30">
+      <c r="K149" s="30">
         <v>0.86666666666666892</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G148" s="25"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G149" s="25"/>
-    </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="G150" s="25"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G151" s="25"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>320</v>
       </c>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25">
+      <c r="G152" s="25"/>
+      <c r="H152" s="25">
         <v>3.530092592592592E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F151" s="32" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F153" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="G151" s="25">
-        <f t="shared" ref="G151" si="40">H151-H150</f>
+      <c r="G153" s="25">
+        <f t="shared" ref="G153" si="40">H153-H152</f>
         <v>8.6805555555555637E-4</v>
       </c>
-      <c r="H151" s="25">
+      <c r="H153" s="25">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="I151" s="29">
-        <f t="shared" ref="I151" si="41">IF(G151="","",G151*86400)</f>
+      <c r="I153" s="29">
+        <f t="shared" ref="I153" si="41">IF(G153="","",G153*86400)</f>
         <v>75.000000000000071</v>
       </c>
-      <c r="J151" s="30">
-        <f t="shared" ref="J151" si="42">IF(I151="","",I151/60)</f>
+      <c r="J153" s="30">
+        <f t="shared" ref="J153" si="42">IF(I153="","",I153/60)</f>
         <v>1.2500000000000011</v>
       </c>
-      <c r="K151" s="30">
-        <f>VALUE(J151)</f>
+      <c r="K153" s="30">
+        <f>VALUE(J153)</f>
         <v>1.2500000000000011</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G152" s="25"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G153" s="25"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G154" s="25"/>
@@ -12855,32 +12876,18 @@
       <c r="G164" s="25"/>
     </row>
     <row r="165" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G165" s="25">
-        <f t="shared" ref="G165:G190" si="43">H165-H164</f>
-        <v>0</v>
-      </c>
-      <c r="I165" s="29">
-        <f t="shared" ref="I165:I196" si="44">IF(G165="","",G165*86400)</f>
-        <v>0</v>
-      </c>
+      <c r="G165" s="25"/>
     </row>
     <row r="166" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G166" s="25">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="I166" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
+      <c r="G166" s="25"/>
     </row>
     <row r="167" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G167" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="G167:G192" si="43">H167-H166</f>
         <v>0</v>
       </c>
       <c r="I167" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="I167:I198" si="44">IF(G167="","",G167*86400)</f>
         <v>0</v>
       </c>
     </row>
@@ -13116,7 +13123,7 @@
     </row>
     <row r="191" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G191" s="25">
-        <f t="shared" ref="G191:G215" si="45">H191-H190</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I191" s="29">
@@ -13126,7 +13133,7 @@
     </row>
     <row r="192" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G192" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I192" s="29">
@@ -13136,7 +13143,7 @@
     </row>
     <row r="193" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G193" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="G193:G217" si="45">H193-H192</f>
         <v>0</v>
       </c>
       <c r="I193" s="29">
@@ -13180,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="29">
-        <f t="shared" ref="I197:I215" si="46">IF(G197="","",G197*86400)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -13190,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -13200,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="I199:I217" si="46">IF(G199="","",G199*86400)</f>
         <v>0</v>
       </c>
     </row>
@@ -13360,6 +13367,26 @@
         <v>0</v>
       </c>
       <c r="I215" s="29">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G216" s="25">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I216" s="29">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G217" s="25">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I217" s="29">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -13502,10 +13529,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -13540,10 +13567,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -13597,10 +13624,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -13635,10 +13662,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="37"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -13712,12 +13739,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CD5458B81A8B2B4B92FF87D810305C72" ma:contentTypeVersion="10" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="94af6a530ab954c472b36ae778f182c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcc645c8-4b47-4a2e-89eb-d5bbcced8466" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ef69444b0b6df3a2aca9b298e9665c5" ns3:_="">
     <xsd:import namespace="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
@@ -13901,6 +13922,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
   <ds:schemaRefs>
@@ -13910,22 +13937,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBCE1FC-4F3C-4CE6-A38A-EF0D12121C1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13941,4 +13952,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810080ED-E06D-4D0A-9633-5F44FFD4C46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EE4C8C-070A-4F37-81C8-B3DBA567D343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,9 +1359,6 @@
     <t>"RCB-CB-1", "SBL", 2, "1", "(3)"</t>
   </si>
   <si>
-    <t>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</t>
-  </si>
-  <si>
     <t>"RCB-CB-3", "SBL+Sem(ST)", 2, "3", "(3)"</t>
   </si>
   <si>
@@ -1644,9 +1641,6 @@
     <t>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</t>
   </si>
   <si>
-    <t>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</t>
-  </si>
-  <si>
     <t>"GLC", "B-M", 200, "(N/A)"</t>
   </si>
   <si>
@@ -1693,6 +1687,12 @@
   </si>
   <si>
     <t>"Ty-TMo ", "SBL", 1, "1", "(2)"</t>
+  </si>
+  <si>
+    <t>"ZZ-RCB-3", "SBL+PO(Ruda)", 2, "3", "(4)"</t>
+  </si>
+  <si>
+    <t>"RCB-CB-2", "SBL+PO(Ruda)", 2, "2", "(3)"</t>
   </si>
 </sst>
 </file>
@@ -2273,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" topLeftCell="M45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,7 +3905,7 @@
         <v>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N42" s="33" t="s">
         <v>336</v>
@@ -3982,14 +3982,14 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D45"/>
       <c r="F45" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>7</v>
@@ -4005,7 +4005,7 @@
         <v>"CM-CS", "Sem(odstęp)", 1, "1", "(1)"</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -4015,14 +4015,14 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>522</v>
+      </c>
+      <c r="B46" t="s">
         <v>523</v>
-      </c>
-      <c r="B46" t="s">
-        <v>524</v>
       </c>
       <c r="D46"/>
       <c r="F46" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
@@ -4038,7 +4038,7 @@
         <v>"CS-CM", "Sem(odstęp)", 2, "1", "(1)"</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -4215,7 +4215,7 @@
         <v>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>443</v>
+        <v>554</v>
       </c>
       <c r="N51" s="34">
         <v>137</v>
@@ -4251,7 +4251,7 @@
         <v>"RCB-CB-3", "SBL+Sem(ST)", 2, "3", "(3)"</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N52" s="34">
         <v>137</v>
@@ -4283,7 +4283,7 @@
         <v>"RCB", "ST", 1, "(1)"</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N53" s="34">
         <v>137</v>
@@ -4315,7 +4315,7 @@
         <v>"RCB", "ST", 2, "(1)"</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N54" s="34">
         <v>137</v>
@@ -4351,7 +4351,7 @@
         <v>"RCB-ZZ-1", "SBL", 1, "1", "(4)"</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N55" s="34">
         <v>137</v>
@@ -4387,7 +4387,7 @@
         <v>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N56" s="34">
         <v>137</v>
@@ -4423,7 +4423,7 @@
         <v>"RCB-ZZ-3", "SBL", 1, "3", "(4)"</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N57" s="34">
         <v>137</v>
@@ -4459,7 +4459,7 @@
         <v>"RCB-ZZ-4", "SBL+Sem(ST)", 1, "4", "(4)"</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N58" s="34">
         <v>137</v>
@@ -4495,7 +4495,7 @@
         <v>"ZZ-RCB-1", "SBL", 2, "1", "(4)"</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N59" s="34">
         <v>137</v>
@@ -4531,7 +4531,7 @@
         <v>"ZZ-RCB-2", "SBL", 2, "2", "(4)"</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N60" s="34">
         <v>137</v>
@@ -4567,7 +4567,7 @@
         <v>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="N61" s="34">
         <v>137</v>
@@ -4603,7 +4603,7 @@
         <v>"ZZ-RCB-4", "SBL+Sem(ST)", 2, "4", "(4)"</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N62" s="34">
         <v>137</v>
@@ -4635,7 +4635,7 @@
         <v>"ZZ", "ST", 1, "(1)"</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N63" s="34">
         <v>137</v>
@@ -4667,7 +4667,7 @@
         <v>"ZZ", "ST", 2, "(1)"</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N64" s="34">
         <v>137</v>
@@ -4703,7 +4703,7 @@
         <v>"ZZ-GLC-1", "SBL", 1, "1", "(5)"</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N65" s="34">
         <v>137</v>
@@ -4739,7 +4739,7 @@
         <v>"ZZ-GLC-2", "SBL", 1, "2", "(5)"</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N66" s="34">
         <v>137</v>
@@ -4775,7 +4775,7 @@
         <v>"ZZ-GLC-3", "SBL", 1, "3", "(5)"</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N67" s="34">
         <v>137</v>
@@ -4811,7 +4811,7 @@
         <v>"ZZ-GLC-4", "SBL", 1, "4", "(5)"</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N68" s="34">
         <v>137</v>
@@ -4847,7 +4847,7 @@
         <v>"ZZ-GLC-5", "SBL+Sem(ST)", 1, "5", "(5)"</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N69" s="34">
         <v>137</v>
@@ -4883,7 +4883,7 @@
         <v>"GLC-ZZ-1", "SBL", 2, "1", "(5)"</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N70" s="34">
         <v>137</v>
@@ -4919,7 +4919,7 @@
         <v>"GLC-ZZ-2", "SBL", 2, "2", "(5)"</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N71" s="34">
         <v>137</v>
@@ -4955,7 +4955,7 @@
         <v>"GLC-ZZ-3", "SBL", 2, "3", "(5)"</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N72" s="34">
         <v>137</v>
@@ -4991,7 +4991,7 @@
         <v>"GLC-ZZ-4", "SBL", 2, "4", "(5)"</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N73" s="34">
         <v>137</v>
@@ -5027,7 +5027,7 @@
         <v>"GLC-ZZ-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N74" s="34">
         <v>137</v>
@@ -5059,7 +5059,7 @@
         <v>"GLC", "ST", 3, "(1)"</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N75" s="34">
         <v>137</v>
@@ -5091,7 +5091,7 @@
         <v>"GLC", "ST", 4, "(1)"</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N76" s="34">
         <v>137</v>
@@ -5123,7 +5123,7 @@
         <v>"GLC", "ST", 5, "(2)"</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N77" s="34">
         <v>137</v>
@@ -5155,7 +5155,7 @@
         <v>"GLC", "ST", 6, "(2)"</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N78" s="34">
         <v>137</v>
@@ -5187,7 +5187,7 @@
         <v>"GLC", "ST", 7, "(3)"</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N79" s="34">
         <v>137</v>
@@ -5219,7 +5219,7 @@
         <v>"GLC", "ST", 8, "(3)"</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N80" s="34">
         <v>137</v>
@@ -5251,7 +5251,7 @@
         <v>"GLC", "ST", 9, "(4)"</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N81" s="34">
         <v>137</v>
@@ -5283,7 +5283,7 @@
         <v>"GLC", "ST", 11, "(4)"</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N82" s="34">
         <v>137</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B83" t="s">
         <v>149</v>
@@ -5315,7 +5315,7 @@
         <v>"GLC", "B-M", 200, "(N/A)"</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N83" s="34">
         <v>137</v>
@@ -5328,14 +5328,14 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B84" t="s">
         <v>372</v>
       </c>
       <c r="D84"/>
       <c r="F84" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>7</v>
@@ -5351,7 +5351,7 @@
         <v>"GLC-Szo", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N84" s="34">
         <v>137</v>
@@ -5364,14 +5364,14 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>513</v>
+      </c>
+      <c r="B85" t="s">
         <v>514</v>
-      </c>
-      <c r="B85" t="s">
-        <v>515</v>
       </c>
       <c r="D85"/>
       <c r="F85" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>8</v>
@@ -5387,7 +5387,7 @@
         <v>"Szo-GLC", "SBL(odstep)", 2, "1", "(1)"</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N85" s="34">
         <v>137</v>
@@ -5868,7 +5868,7 @@
         <v>"KL-MJ-1", "Sem(odstep)+PO(Piotrowice)", 1, "1", "(2)"</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N99" s="33" t="s">
         <v>403</v>
@@ -5903,7 +5903,7 @@
         <v>"KL-MJ-2", "Sem(odstep)", 1, "2", "(2)"</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N100" s="33" t="s">
         <v>403</v>
@@ -5935,7 +5935,7 @@
         <v>"MJ", "ST", 1, "(1)"</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N101" s="33" t="s">
         <v>403</v>
@@ -5967,7 +5967,7 @@
         <v>"MJ", "ST", 2, "(1)"</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N102" s="33" t="s">
         <v>403</v>
@@ -6002,7 +6002,7 @@
         <v>"MJ-Mi", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N103" s="33" t="s">
         <v>403</v>
@@ -6034,7 +6034,7 @@
         <v>"Mi", "ST", 1, "(2)"</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N104" s="33" t="s">
         <v>403</v>
@@ -6066,7 +6066,7 @@
         <v>"Mi", "ST", 2, "(1)"</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N105" s="33" t="s">
         <v>403</v>
@@ -6079,13 +6079,13 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>532</v>
+      </c>
+      <c r="B106" t="s">
+        <v>523</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B106" t="s">
-        <v>524</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>7</v>
@@ -6101,7 +6101,7 @@
         <v>"Mi_ŁGB", "Sem(odstęp)", 1, "1", "(1)"</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
@@ -6133,7 +6133,7 @@
         <v>"KL-Mc-1", "SBL+PO(Piotrowice)", 1, "1", "(6)"</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N107" s="33" t="s">
         <v>337</v>
@@ -6168,7 +6168,7 @@
         <v>"KL-Mc-2", "SBL", 1, "2", "(6)"</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N108" s="33" t="s">
         <v>337</v>
@@ -6203,7 +6203,7 @@
         <v>"KL-Mc-3", "SBL", 1, "3", "(6)"</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N109" s="33" t="s">
         <v>337</v>
@@ -6238,7 +6238,7 @@
         <v>"KL-Mc-4", "SBL+PO(Podlesie)", 1, "4", "(6)"</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N110" s="33" t="s">
         <v>337</v>
@@ -6273,7 +6273,7 @@
         <v>"KL-Mc-5", "SBL", 1, "5", "(6)"</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N111" s="33" t="s">
         <v>337</v>
@@ -6308,7 +6308,7 @@
         <v>"KL-Mc-6", "SBL+Sem(PODG)", 1, "6", "(6)"</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N112" s="33" t="s">
         <v>337</v>
@@ -6327,7 +6327,7 @@
         <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>8</v>
@@ -6343,7 +6343,7 @@
         <v>"Mc-KL-1", "SBL", 2, "1", "(5)"</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N113" s="33" t="s">
         <v>337</v>
@@ -6362,7 +6362,7 @@
         <v>418</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>8</v>
@@ -6378,7 +6378,7 @@
         <v>"Mc-KL-2", "SBL+PO(Podlesie)", 2, "2", "(5)"</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N114" s="33" t="s">
         <v>337</v>
@@ -6397,7 +6397,7 @@
         <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>8</v>
@@ -6413,7 +6413,7 @@
         <v>"Mc-KL-3", "SBL", 2, "3", "(5)"</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N115" s="33" t="s">
         <v>337</v>
@@ -6432,7 +6432,7 @@
         <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>8</v>
@@ -6448,7 +6448,7 @@
         <v>"Mc-KL-4", "SBL", 2, "4", "(5)"</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N116" s="33" t="s">
         <v>337</v>
@@ -6467,7 +6467,7 @@
         <v>77</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>8</v>
@@ -6483,7 +6483,7 @@
         <v>"Mc-KL-5", "SBL+Sem(ST)", 2, "5", "(5)"</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N117" s="33" t="s">
         <v>337</v>
@@ -6515,7 +6515,7 @@
         <v>"Mc", "PODG", 1, "(N/A)"</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N118" s="33" t="s">
         <v>337</v>
@@ -6547,7 +6547,7 @@
         <v>"Mc", "PODG", 2, "(N/A)"</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N119" s="33" t="s">
         <v>337</v>
@@ -6579,7 +6579,7 @@
         <v>"Mc", "PODG", 3, "(N/A)"</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N120" s="33" t="s">
         <v>337</v>
@@ -6614,7 +6614,7 @@
         <v>"Mc-Ty", "Sem(odstep)+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N121" s="33" t="s">
         <v>337</v>
@@ -6649,7 +6649,7 @@
         <v>"Ty-Mc", "Sem(odstep)", 2, "1", "(1)"</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N122" s="33" t="s">
         <v>337</v>
@@ -6684,7 +6684,7 @@
         <v>"Ty-Mc", "Sem(odstep)+Sem(PODG)", 3, "1", "(1)"</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N123" s="33" t="s">
         <v>337</v>
@@ -6706,7 +6706,7 @@
         <v>428</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>105</v>
@@ -6716,7 +6716,7 @@
         <v>"Ty", "ST", 101, "(N/A)"</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N124" s="33" t="s">
         <v>337</v>
@@ -6738,7 +6738,7 @@
         <v>428</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>105</v>
@@ -6748,7 +6748,7 @@
         <v>"Ty", "ST", 102, "(N/A)"</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N125" s="33" t="s">
         <v>337</v>
@@ -6770,7 +6770,7 @@
         <v>428</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>105</v>
@@ -6780,7 +6780,7 @@
         <v>"Ty", "ST", 108, "(N/A)"</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N126" s="33" t="s">
         <v>337</v>
@@ -6812,7 +6812,7 @@
         <v>"Ty", "ST", 1, "(2)"</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N127" s="33" t="s">
         <v>337</v>
@@ -6844,7 +6844,7 @@
         <v>"Ty", "ST", 2, "(2)"</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N128" s="33" t="s">
         <v>337</v>
@@ -6876,7 +6876,7 @@
         <v>"Ty", "ST", 8, "(1)"</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N129" s="33" t="s">
         <v>337</v>
@@ -6908,7 +6908,7 @@
         <v>"Ty", "ST", 7, "(3)"</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N130" s="33" t="s">
         <v>337</v>
@@ -6940,7 +6940,7 @@
         <v>"Ty", "ST", 9, "(3)"</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N131" s="33" t="s">
         <v>337</v>
@@ -6953,13 +6953,13 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B132" t="s">
         <v>67</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>7</v>
@@ -6975,7 +6975,7 @@
         <v>"Ty-Kob-1", "SBL", 1, "1", "(6)"</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
@@ -6985,13 +6985,13 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>8</v>
@@ -7007,7 +7007,7 @@
         <v>"Kob-Ty-6", "SBL+Sem(ST)", 2, "6", "(6)"</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="14"/>
@@ -7017,13 +7017,13 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B134" t="s">
         <v>372</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>7</v>
@@ -7039,7 +7039,7 @@
         <v>"Ty-ŁŚ", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="14"/>
@@ -7049,13 +7049,13 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B135" t="s">
         <v>67</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>7</v>
@@ -7071,7 +7071,7 @@
         <v>"Ty-TMo ", "SBL", 1, "1", "(2)"</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
@@ -7081,13 +7081,13 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="35" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>8</v>
@@ -7103,7 +7103,7 @@
         <v>"TMo-Ty", "Sem(odstęp)", 2, "1", "(1)"</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
@@ -7381,13 +7381,13 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B145" t="s">
         <v>67</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>7</v>
@@ -7403,7 +7403,7 @@
         <v>"SG-KZ", "SBL", 1, "1", "(3)"</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O145" s="14"/>
       <c r="P145" s="14"/>
@@ -7413,13 +7413,13 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B146" t="s">
         <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>8</v>
@@ -7435,7 +7435,7 @@
         <v>"KZ-SG", "SBL+Sem(ST)", 2, "3", "(3)"</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O146" s="14"/>
       <c r="P146" s="14"/>
@@ -7445,13 +7445,13 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B147" t="s">
         <v>67</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>10</v>
@@ -7467,7 +7467,7 @@
         <v>"Szb-KZ-3", "SBL", 3, "2", "(2)"</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O147" s="14"/>
       <c r="P147" s="14"/>
@@ -7477,13 +7477,13 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B148" t="s">
         <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>9</v>
@@ -7499,7 +7499,7 @@
         <v>"KZ-Szb-1", "SBL+Sem(ST)", 4, "1", "(3)"</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O148" s="14"/>
       <c r="P148" s="14"/>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F2" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G2" s="25">
         <f>H2-H1</f>
@@ -13730,12 +13730,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13923,15 +13920,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13955,17 +13963,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Politechika Śląska\OneDrive - Politechnika Śląska\Nauka\Dorobek lub w trakcie przygotowania\Artykuly\ITIIS\Kolej Metropolitalna\railways)b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EE4C8C-070A-4F37-81C8-B3DBA567D343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E7EE4C8C-070A-4F37-81C8-B3DBA567D343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5EC42B68-8BAD-4A5E-8A40-41E3E495CD86}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="556">
   <si>
     <t>Katowice</t>
   </si>
@@ -1611,9 +1611,6 @@
     <t>"SG-KZ", "SBL", 1, "1", "(3)"</t>
   </si>
   <si>
-    <t>"KZ-SG", "SBL+Sem(ST)", 2, "3", "(3)"</t>
-  </si>
-  <si>
     <t>Szb-KZ-3</t>
   </si>
   <si>
@@ -1693,6 +1690,12 @@
   </si>
   <si>
     <t>"RCB-CB-2", "SBL+PO(Ruda)", 2, "2", "(3)"</t>
+  </si>
+  <si>
+    <t>"SG-KZ", "SBL", 1, "3", "(3)"</t>
+  </si>
+  <si>
+    <t>"KZ-SG", "SBL+Sem(ST)", 2, "1", "(3)"</t>
   </si>
 </sst>
 </file>
@@ -2273,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView tabSelected="1" topLeftCell="M137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2291,7 @@
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="37.28515625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="63.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.7109375" style="20" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" style="16" customWidth="1"/>
@@ -3905,7 +3908,7 @@
         <v>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N42" s="33" t="s">
         <v>336</v>
@@ -4215,7 +4218,7 @@
         <v>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N51" s="34">
         <v>137</v>
@@ -4387,7 +4390,7 @@
         <v>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N56" s="34">
         <v>137</v>
@@ -4567,7 +4570,7 @@
         <v>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N61" s="34">
         <v>137</v>
@@ -5315,7 +5318,7 @@
         <v>"GLC", "B-M", 200, "(N/A)"</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N83" s="34">
         <v>137</v>
@@ -5967,7 +5970,7 @@
         <v>"MJ", "ST", 2, "(1)"</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N102" s="33" t="s">
         <v>403</v>
@@ -6079,13 +6082,13 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B106" t="s">
         <v>523</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>7</v>
@@ -6101,7 +6104,7 @@
         <v>"Mi_ŁGB", "Sem(odstęp)", 1, "1", "(1)"</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
@@ -6953,13 +6956,13 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B132" t="s">
         <v>67</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>7</v>
@@ -6975,7 +6978,7 @@
         <v>"Ty-Kob-1", "SBL", 1, "1", "(6)"</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
@@ -6985,13 +6988,13 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>8</v>
@@ -7007,7 +7010,7 @@
         <v>"Kob-Ty-6", "SBL+Sem(ST)", 2, "6", "(6)"</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="14"/>
@@ -7017,13 +7020,13 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B134" t="s">
         <v>372</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>7</v>
@@ -7039,7 +7042,7 @@
         <v>"Ty-ŁŚ", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="14"/>
@@ -7049,13 +7052,13 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B135" t="s">
         <v>67</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>7</v>
@@ -7071,7 +7074,7 @@
         <v>"Ty-TMo ", "SBL", 1, "1", "(2)"</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
@@ -7081,13 +7084,13 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B136" t="s">
         <v>523</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>8</v>
@@ -7103,7 +7106,7 @@
         <v>"TMo-Ty", "Sem(odstęp)", 2, "1", "(1)"</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
@@ -7393,17 +7396,17 @@
         <v>7</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L145" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"SG-KZ", "SBL", 1, "1", "(3)"</v>
+        <v>"SG-KZ", "SBL", 1, "3", "(3)"</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="O145" s="14"/>
       <c r="P145" s="14"/>
@@ -7425,17 +7428,17 @@
         <v>8</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L146" s="11" t="str">
-        <f t="shared" ref="L146:L209" si="5">IF(C146="",CONCATENATE($F$1,F146,$F$1,$G$1,$F$1,B146,$F$1,$G$1,G146,$G$1,$F$1,H146,$F$1,$G$1,$F$1,$B$1,I146,$C$1,$F$1),CONCATENATE($F$1,C146,$F$1,$G$1, $F$1,B146,$F$1,$G$1,D146,$G$1,$F$1,$B$1,E146,$C$1,$F$1))</f>
-        <v>"KZ-SG", "SBL+Sem(ST)", 2, "3", "(3)"</v>
+        <f>IF(C146="",CONCATENATE($F$1,F146,$F$1,$G$1,$F$1,B146,$F$1,$G$1,G146,$G$1,$F$1,H146,$F$1,$G$1,$F$1,$B$1,I146,$C$1,$F$1),CONCATENATE($F$1,C146,$F$1,$G$1, $F$1,B146,$F$1,$G$1,D146,$G$1,$F$1,$B$1,E146,$C$1,$F$1))</f>
+        <v>"KZ-SG", "SBL+Sem(ST)", 2, "1", "(3)"</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="O146" s="14"/>
       <c r="P146" s="14"/>
@@ -7451,7 +7454,7 @@
         <v>67</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>10</v>
@@ -7463,11 +7466,11 @@
         <v>8</v>
       </c>
       <c r="L147" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L146:L209" si="5">IF(C147="",CONCATENATE($F$1,F147,$F$1,$G$1,$F$1,B147,$F$1,$G$1,G147,$G$1,$F$1,H147,$F$1,$G$1,$F$1,$B$1,I147,$C$1,$F$1),CONCATENATE($F$1,C147,$F$1,$G$1, $F$1,B147,$F$1,$G$1,D147,$G$1,$F$1,$B$1,E147,$C$1,$F$1))</f>
         <v>"Szb-KZ-3", "SBL", 3, "2", "(2)"</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O147" s="14"/>
       <c r="P147" s="14"/>
@@ -7483,7 +7486,7 @@
         <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>9</v>
@@ -7499,7 +7502,7 @@
         <v>"KZ-Szb-1", "SBL+Sem(ST)", 4, "1", "(3)"</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O148" s="14"/>
       <c r="P148" s="14"/>
@@ -13730,12 +13733,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CD5458B81A8B2B4B92FF87D810305C72" ma:contentTypeVersion="10" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="94af6a530ab954c472b36ae778f182c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcc645c8-4b47-4a2e-89eb-d5bbcced8466" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ef69444b0b6df3a2aca9b298e9665c5" ns3:_="">
     <xsd:import namespace="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
@@ -13919,6 +13916,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13929,22 +13932,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBCE1FC-4F3C-4CE6-A38A-EF0D12121C1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13962,6 +13949,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CA5C0B-23D0-4CD7-AF29-D46F01A941B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
   <ds:schemaRefs>

--- a/data/Spis odcinków_KO-CB-KZ-KL.xlsx
+++ b/data/Spis odcinków_KO-CB-KZ-KL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Politechika Śląska\OneDrive - Politechnika Śląska\Nauka\Dorobek lub w trakcie przygotowania\Artykuly\ITIIS\Kolej Metropolitalna\railways)b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\railways_dispatching_silesia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E7EE4C8C-070A-4F37-81C8-B3DBA567D343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5EC42B68-8BAD-4A5E-8A40-41E3E495CD86}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEE6B5-29EE-429B-8098-84B6B71EC9DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,9 +1632,6 @@
     <t>"Mi_ŁGB", "Sem(odstęp)", 1, "1", "(1)"</t>
   </si>
   <si>
-    <t>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</t>
-  </si>
-  <si>
     <t>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</t>
   </si>
   <si>
@@ -1696,6 +1693,9 @@
   </si>
   <si>
     <t>"KZ-SG", "SBL+Sem(ST)", 2, "1", "(3)"</t>
+  </si>
+  <si>
+    <t>"CM-CB", "SBL+Sem(ST)", 2, "1", "(1)"</t>
   </si>
 </sst>
 </file>
@@ -2276,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M148" sqref="M148"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,7 +3895,7 @@
         <v>329</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>7</v>
@@ -3905,10 +3905,10 @@
       </c>
       <c r="L42" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>"CM-CB", "SBL+Sem(ST)", 1, "1", "(1)"</v>
+        <v>"CM-CB", "SBL+Sem(ST)", 2, "1", "(1)"</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="N42" s="33" t="s">
         <v>336</v>
@@ -4218,7 +4218,7 @@
         <v>"RCB-CB-2", "SBL+PO(Świętochłowice)", 2, "2", "(3)"</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N51" s="34">
         <v>137</v>
@@ -4390,7 +4390,7 @@
         <v>"RCB-ZZ-2", "SBL+PO(Świętochłowice)", 1, "2", "(4)"</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N56" s="34">
         <v>137</v>
@@ -4570,7 +4570,7 @@
         <v>"ZZ-RCB-3", "SBL+PO(Świętochłowice)", 2, "3", "(4)"</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N61" s="34">
         <v>137</v>
@@ -5318,7 +5318,7 @@
         <v>"GLC", "B-M", 200, "(N/A)"</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N83" s="34">
         <v>137</v>
@@ -5970,7 +5970,7 @@
         <v>"MJ", "ST", 2, "(1)"</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N102" s="33" t="s">
         <v>403</v>
@@ -6956,13 +6956,13 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B132" t="s">
         <v>67</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>7</v>
@@ -6978,7 +6978,7 @@
         <v>"Ty-Kob-1", "SBL", 1, "1", "(6)"</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="14"/>
@@ -6988,13 +6988,13 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>8</v>
@@ -7010,7 +7010,7 @@
         <v>"Kob-Ty-6", "SBL+Sem(ST)", 2, "6", "(6)"</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="14"/>
@@ -7020,13 +7020,13 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B134" t="s">
         <v>372</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>7</v>
@@ -7042,7 +7042,7 @@
         <v>"Ty-ŁŚ", "Sem(odstep)", 1, "1", "(1)"</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O134" s="14"/>
       <c r="P134" s="14"/>
@@ -7052,13 +7052,13 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B135" t="s">
         <v>67</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>7</v>
@@ -7074,7 +7074,7 @@
         <v>"Ty-TMo ", "SBL", 1, "1", "(2)"</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
@@ -7084,13 +7084,13 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B136" t="s">
         <v>523</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>8</v>
@@ -7106,7 +7106,7 @@
         <v>"TMo-Ty", "Sem(odstęp)", 2, "1", "(1)"</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
@@ -7406,7 +7406,7 @@
         <v>"SG-KZ", "SBL", 1, "3", "(3)"</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O145" s="14"/>
       <c r="P145" s="14"/>
@@ -7438,7 +7438,7 @@
         <v>"KZ-SG", "SBL+Sem(ST)", 2, "1", "(3)"</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O146" s="14"/>
       <c r="P146" s="14"/>
@@ -7466,7 +7466,7 @@
         <v>8</v>
       </c>
       <c r="L147" s="11" t="str">
-        <f t="shared" ref="L146:L209" si="5">IF(C147="",CONCATENATE($F$1,F147,$F$1,$G$1,$F$1,B147,$F$1,$G$1,G147,$G$1,$F$1,H147,$F$1,$G$1,$F$1,$B$1,I147,$C$1,$F$1),CONCATENATE($F$1,C147,$F$1,$G$1, $F$1,B147,$F$1,$G$1,D147,$G$1,$F$1,$B$1,E147,$C$1,$F$1))</f>
+        <f t="shared" ref="L147:L209" si="5">IF(C147="",CONCATENATE($F$1,F147,$F$1,$G$1,$F$1,B147,$F$1,$G$1,G147,$G$1,$F$1,H147,$F$1,$G$1,$F$1,$B$1,I147,$C$1,$F$1),CONCATENATE($F$1,C147,$F$1,$G$1, $F$1,B147,$F$1,$G$1,D147,$G$1,$F$1,$B$1,E147,$C$1,$F$1))</f>
         <v>"Szb-KZ-3", "SBL", 3, "2", "(2)"</v>
       </c>
       <c r="M147" s="20" t="s">
@@ -13733,6 +13733,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CD5458B81A8B2B4B92FF87D810305C72" ma:contentTypeVersion="10" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="94af6a530ab954c472b36ae778f182c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcc645c8-4b47-4a2e-89eb-d5bbcced8466" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ef69444b0b6df3a2aca9b298e9665c5" ns3:_="">
     <xsd:import namespace="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
@@ -13916,35 +13931,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBCE1FC-4F3C-4CE6-A38A-EF0D12121C1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13966,9 +13956,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395D0C0-9628-4C07-92CD-D40200588B84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBCE1FC-4F3C-4CE6-A38A-EF0D12121C1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bcc645c8-4b47-4a2e-89eb-d5bbcced8466"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>